--- a/作業伝票/◆伝票収支調査/system/伝票確認設計図.xlsx
+++ b/作業伝票/◆伝票収支調査/system/伝票確認設計図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\【Git】ShimodaPrint\作業伝票\◆伝票収支調査\system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A5756C-7BCD-4EC7-8A1B-20F9083DB70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB06476F-911C-4480-B51C-8D4F683C0998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要設計図" sheetId="6" r:id="rId1"/>
@@ -20,12 +20,15 @@
     <sheet name="4-作業情報" sheetId="10" r:id="rId5"/>
     <sheet name="5-材料情報" sheetId="11" r:id="rId6"/>
     <sheet name="6-送料情報" sheetId="12" r:id="rId7"/>
-    <sheet name="追加設計" sheetId="5" r:id="rId8"/>
+    <sheet name="作業コード" sheetId="5" r:id="rId8"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId9"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId10"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId11"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId12"/>
   </sheets>
+  <definedNames>
+    <definedName name="課コード">'4-作業情報'!$B$6:$C$12</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="733">
   <si>
     <t>伝票No</t>
   </si>
@@ -1386,93 +1389,6 @@
     <t>&amp;前用紙金額[9]</t>
   </si>
   <si>
-    <t>既存の調査動作を記載テーブル分行う。</t>
-    <rPh sb="0" eb="2">
-      <t>キゾン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>チョウサ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>loopActiontbx</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ここに記載いしている数だけ実行する。</t>
-    <rPh sb="3" eb="5">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>用紙見積</t>
-    <rPh sb="0" eb="2">
-      <t>ヨウシ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ミツモリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>＜</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>用紙合計</t>
-    <rPh sb="0" eb="2">
-      <t>ヨウシ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ゴウケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>外注見積</t>
-    <rPh sb="0" eb="4">
-      <t>ガイチュウミツモリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>外注合計</t>
-    <rPh sb="0" eb="4">
-      <t>ガイチュウゴウケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>で、絞り込みすればええんやないかな</t>
-    <rPh sb="2" eb="3">
-      <t>シボ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>■目的</t>
     <rPh sb="1" eb="3">
       <t>モクテキ</t>
@@ -2776,13 +2692,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>仕上</t>
-    <rPh sb="0" eb="2">
-      <t>シア</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>資材</t>
     <rPh sb="0" eb="2">
       <t>シザイ</t>
@@ -3929,6 +3838,609 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>ケンチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>外注ID</t>
+    <rPh sb="0" eb="2">
+      <t>ガイチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>◆汎用情報</t>
+    <rPh sb="1" eb="3">
+      <t>ハンヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>組版（PC作業）</t>
+  </si>
+  <si>
+    <t>組版（その他）</t>
+  </si>
+  <si>
+    <t>面付出力</t>
+  </si>
+  <si>
+    <t>刷り紙検版</t>
+  </si>
+  <si>
+    <t>原稿整理</t>
+  </si>
+  <si>
+    <t>校正</t>
+  </si>
+  <si>
+    <t>データ処理</t>
+  </si>
+  <si>
+    <t>EC110出力</t>
+  </si>
+  <si>
+    <t>SC170出力</t>
+  </si>
+  <si>
+    <t>d5000出力</t>
+  </si>
+  <si>
+    <t>C9100出力</t>
+  </si>
+  <si>
+    <t>d5150出力</t>
+  </si>
+  <si>
+    <t>DTP製作</t>
+  </si>
+  <si>
+    <t>Office製作</t>
+  </si>
+  <si>
+    <t>修正確認</t>
+  </si>
+  <si>
+    <t>ネット・メール</t>
+  </si>
+  <si>
+    <t>組版手作業</t>
+  </si>
+  <si>
+    <t>カットローダー</t>
+  </si>
+  <si>
+    <t>きりっ子</t>
+  </si>
+  <si>
+    <t>ＰＤＦ作成</t>
+  </si>
+  <si>
+    <t>ＣＤ焼き</t>
+  </si>
+  <si>
+    <t>web作成</t>
+  </si>
+  <si>
+    <t>ＣＴＰ検版</t>
+  </si>
+  <si>
+    <t>スキャン</t>
+  </si>
+  <si>
+    <t>ＰＳ焼付け</t>
+  </si>
+  <si>
+    <t>営業･在宅対応</t>
+  </si>
+  <si>
+    <t>来社対応</t>
+  </si>
+  <si>
+    <t>コンビ16</t>
+  </si>
+  <si>
+    <t>オリスター</t>
+  </si>
+  <si>
+    <t>丁合機</t>
+  </si>
+  <si>
+    <t>無線</t>
+  </si>
+  <si>
+    <t>ライン</t>
+  </si>
+  <si>
+    <t>仕上断裁機</t>
+  </si>
+  <si>
+    <t>Ｍ断裁機</t>
+  </si>
+  <si>
+    <t>Ｍ中綴じ機</t>
+  </si>
+  <si>
+    <t>Ｓ中綴じ機</t>
+  </si>
+  <si>
+    <t>ハンマー</t>
+  </si>
+  <si>
+    <t>穴あけ</t>
+  </si>
+  <si>
+    <t>結束機</t>
+  </si>
+  <si>
+    <t>帯封機</t>
+  </si>
+  <si>
+    <t>ミシン</t>
+  </si>
+  <si>
+    <t>クロス</t>
+  </si>
+  <si>
+    <t>角丸</t>
+  </si>
+  <si>
+    <t>筋入れ</t>
+  </si>
+  <si>
+    <t>コンビＫＴ</t>
+  </si>
+  <si>
+    <t>平とじ</t>
+  </si>
+  <si>
+    <t>コンビ</t>
+  </si>
+  <si>
+    <t>手作業</t>
+  </si>
+  <si>
+    <t>中入れ</t>
+  </si>
+  <si>
+    <t>手丁合</t>
+  </si>
+  <si>
+    <t>巻き返し</t>
+  </si>
+  <si>
+    <t>荷作り</t>
+  </si>
+  <si>
+    <t>包装</t>
+  </si>
+  <si>
+    <t>名簿箱入れ</t>
+  </si>
+  <si>
+    <t>計数</t>
+  </si>
+  <si>
+    <t>検品</t>
+  </si>
+  <si>
+    <t>プレス</t>
+  </si>
+  <si>
+    <t>ライン丁合</t>
+  </si>
+  <si>
+    <t>ＰＰ加工</t>
+  </si>
+  <si>
+    <t>タック出力</t>
+  </si>
+  <si>
+    <t>巻き</t>
+  </si>
+  <si>
+    <t>封入作業</t>
+  </si>
+  <si>
+    <t>ライン投げ込み</t>
+  </si>
+  <si>
+    <t>中綴じ投げ込み</t>
+  </si>
+  <si>
+    <t>ライン補助</t>
+  </si>
+  <si>
+    <t>ライン丁合補助</t>
+  </si>
+  <si>
+    <t>中綴じ補助</t>
+  </si>
+  <si>
+    <t>印刷準備</t>
+  </si>
+  <si>
+    <t>作業トラブル</t>
+  </si>
+  <si>
+    <t>菊半４色機印刷</t>
+  </si>
+  <si>
+    <t>単色機印刷</t>
+  </si>
+  <si>
+    <t>資材断裁</t>
+  </si>
+  <si>
+    <t>菊全４色機印刷</t>
+  </si>
+  <si>
+    <t>インキ練合せ</t>
+  </si>
+  <si>
+    <t>用紙準備</t>
+  </si>
+  <si>
+    <t>色替え</t>
+  </si>
+  <si>
+    <t>菊全機版付け</t>
+  </si>
+  <si>
+    <t>菊半機版付け</t>
+  </si>
+  <si>
+    <t>単色機版付け</t>
+  </si>
+  <si>
+    <t>用紙返し</t>
+  </si>
+  <si>
+    <t>資材紙積み</t>
+  </si>
+  <si>
+    <t>印刷準備菊全</t>
+  </si>
+  <si>
+    <t>印刷準備菊半</t>
+  </si>
+  <si>
+    <t>印刷準備単色</t>
+  </si>
+  <si>
+    <t>インキ練合せ菊全</t>
+  </si>
+  <si>
+    <t>インキ練合せ菊半</t>
+  </si>
+  <si>
+    <t>インキ練合せ単色</t>
+  </si>
+  <si>
+    <t>用紙準備菊全</t>
+  </si>
+  <si>
+    <t>用紙準備菊半</t>
+  </si>
+  <si>
+    <t>用紙準備単色</t>
+  </si>
+  <si>
+    <t>色替え菊全</t>
+  </si>
+  <si>
+    <t>色替え菊半</t>
+  </si>
+  <si>
+    <t>色替え単色</t>
+  </si>
+  <si>
+    <t>菊全機準備</t>
+  </si>
+  <si>
+    <t>菊半機準備</t>
+  </si>
+  <si>
+    <t>単色機準備</t>
+  </si>
+  <si>
+    <t>顧客対応</t>
+  </si>
+  <si>
+    <t>外注手配</t>
+  </si>
+  <si>
+    <t>配送・納品</t>
+  </si>
+  <si>
+    <t>全体朝礼</t>
+  </si>
+  <si>
+    <t>ミーティング</t>
+  </si>
+  <si>
+    <t>教育学習</t>
+  </si>
+  <si>
+    <t>メンテナンス</t>
+  </si>
+  <si>
+    <t>工務・管理</t>
+  </si>
+  <si>
+    <t>データ整理</t>
+  </si>
+  <si>
+    <t>清掃</t>
+  </si>
+  <si>
+    <t>業者対応</t>
+  </si>
+  <si>
+    <t>作業打ち合わせ</t>
+  </si>
+  <si>
+    <t>作業予定確認</t>
+  </si>
+  <si>
+    <t>日報入力</t>
+  </si>
+  <si>
+    <t>印刷予定入力</t>
+  </si>
+  <si>
+    <t>製品予定入力</t>
+  </si>
+  <si>
+    <t>パート対応</t>
+  </si>
+  <si>
+    <t>カゴ交換</t>
+  </si>
+  <si>
+    <t>その他</t>
+  </si>
+  <si>
+    <t>版・用紙待ち</t>
+  </si>
+  <si>
+    <t>機械修理</t>
+  </si>
+  <si>
+    <t>ｐマーク</t>
+  </si>
+  <si>
+    <t>加工</t>
+    <rPh sb="0" eb="2">
+      <t>カコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>包装</t>
+    <rPh sb="0" eb="2">
+      <t>ホウソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オンデ出力もこっち</t>
+    <rPh sb="3" eb="5">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作業区分ID</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作業区分名</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作業内容ID</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作業内容名</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>◆作業コード.tbx</t>
+  </si>
+  <si>
+    <t>◆作業コード.tbx</t>
+    <rPh sb="1" eb="3">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>に格納</t>
+    <rPh sb="1" eb="3">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作業区分名</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>クブンメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文字列</t>
+    <rPh sb="0" eb="3">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取得</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>┣</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>┏</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>材料名</t>
+    <rPh sb="0" eb="2">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>単価</t>
+    <rPh sb="0" eb="2">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>区分ID</t>
+    <rPh sb="0" eb="2">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>材料名</t>
+    <rPh sb="0" eb="3">
+      <t>ザイリョウメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通貨</t>
+    <rPh sb="0" eb="2">
+      <t>ツウk</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>区分ID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>材料数</t>
+    <rPh sb="0" eb="2">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>材料単価</t>
+    <rPh sb="0" eb="2">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>材料金額</t>
+    <rPh sb="0" eb="2">
+      <t>ザイリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>材料ID.tbx</t>
+  </si>
+  <si>
+    <t>から､材料の情報を仕入れる｡</t>
+    <rPh sb="3" eb="5">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>103を検知｡ 材料36で 0､2で調製する</t>
+    <rPh sb="4" eb="6">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョウセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4036,7 +4548,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4139,6 +4651,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -4213,7 +4731,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4293,14 +4811,225 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="8" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="28">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEFE5F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEFE5F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEFE5F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEFE5F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFEFE5F7"/>
+      <color rgb="FFFFDDDD"/>
       <color rgb="FFFFCCCC"/>
     </mruColors>
   </colors>
@@ -4578,11 +5307,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706B8230-2E5D-42D2-A963-B754BEC8CA3A}">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1">
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="B2:L77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4593,7 +5324,7 @@
   <sheetData>
     <row r="2" spans="2:12">
       <c r="B2" s="18" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -4608,32 +5339,32 @@
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="1" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="1" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="1" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="1" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="18" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -4648,17 +5379,17 @@
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="1" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="1" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" spans="2:12">
       <c r="B16" s="18" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -4673,121 +5404,129 @@
     </row>
     <row r="17" spans="2:6">
       <c r="C17" s="1" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="C18" s="1" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="C19" s="1" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="D20" s="1" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="D21" s="1" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="E22" s="1" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="E23" s="1" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
     <row r="24" spans="2:6">
       <c r="E24" s="1" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
     <row r="25" spans="2:6">
       <c r="E25" s="1" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="E26" s="1" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="27" spans="2:6">
       <c r="E27" s="1" t="s">
-        <v>446</v>
+        <v>362</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>447</v>
+        <v>711</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="E28" s="1" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>448</v>
+        <v>438</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="E29" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="1" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
     </row>
     <row r="31" spans="2:6">
       <c r="C31" s="1" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
     </row>
     <row r="32" spans="2:6">
       <c r="C32" s="1" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
     </row>
     <row r="41" spans="2:12">
       <c r="B41" s="18" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
@@ -4802,146 +5541,146 @@
     </row>
     <row r="42" spans="2:12">
       <c r="B42" s="1" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="43" spans="2:12">
       <c r="B43" s="1" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="44" spans="2:12">
       <c r="B44" s="1" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="45" spans="2:12">
       <c r="B45" s="1" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="47" spans="2:12">
       <c r="B47" s="1" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
     </row>
     <row r="48" spans="2:12">
       <c r="B48" s="1" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="1" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="1" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="1" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="1" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="1" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="1" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="1" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="1" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="65" spans="2:12">
       <c r="B65" s="1" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
     </row>
     <row r="66" spans="2:12">
       <c r="B66" s="1" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="67" spans="2:12">
       <c r="B67" s="1" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="69" spans="2:12">
       <c r="B69" s="1" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
     </row>
     <row r="70" spans="2:12">
       <c r="B70" s="1" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="73" spans="2:12">
       <c r="B73" s="1" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="74" spans="2:12">
       <c r="B74" s="1" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
     </row>
     <row r="75" spans="2:12">
       <c r="B75" s="1" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="77" spans="2:12">
       <c r="B77" s="1" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -5786,7 +6525,7 @@
   </sheetPr>
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -5803,7 +6542,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="19" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -5820,32 +6559,32 @@
     </row>
     <row r="2" spans="1:13">
       <c r="B2" s="1" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="B3" s="1" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="21" customHeight="1">
       <c r="B5" s="25" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -5853,17 +6592,17 @@
         <v>1</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="61" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="G6" s="62" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="I6" s="68"/>
     </row>
@@ -5872,17 +6611,17 @@
         <v>2</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="64" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="G7" s="65" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -5890,17 +6629,17 @@
         <v>3</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="64" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="G8" s="65" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -5908,17 +6647,17 @@
         <v>4</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="E9" s="21"/>
       <c r="F9" s="64" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="G9" s="65" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -5926,17 +6665,17 @@
         <v>5</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="64" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="G10" s="65" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -5944,19 +6683,19 @@
         <v>6</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="F11" s="61" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="G11" s="62" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -5964,13 +6703,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>51</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="24"/>
@@ -5980,17 +6719,17 @@
         <v>8</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="64" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="G13" s="65" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -5998,19 +6737,19 @@
         <v>9</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="F14" s="61" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="G14" s="62" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -6018,13 +6757,13 @@
         <v>10</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="F15" s="32"/>
       <c r="G15" s="24"/>
@@ -6034,19 +6773,19 @@
         <v>11</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="F16" s="66" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="G16" s="67" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
     </row>
     <row r="17" spans="2:7">
@@ -6054,13 +6793,13 @@
         <v>12</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="24"/>
@@ -6070,17 +6809,17 @@
         <v>13</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="69" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="G18" s="70" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="19" spans="2:7">
@@ -6088,17 +6827,17 @@
         <v>14</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="69" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="G19" s="70" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="2:7">
@@ -6106,17 +6845,17 @@
         <v>15</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="69" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="G20" s="70" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" spans="2:7">
@@ -6124,17 +6863,17 @@
         <v>16</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="69" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="G21" s="70" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="22" spans="2:7">
@@ -6142,17 +6881,17 @@
         <v>17</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="69" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="G22" s="70" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="2:7">
@@ -6160,17 +6899,17 @@
         <v>18</v>
       </c>
       <c r="C23" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="D23" s="21" t="s">
         <v>424</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>433</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="69" t="s">
+        <v>415</v>
+      </c>
+      <c r="G23" s="70" t="s">
         <v>424</v>
-      </c>
-      <c r="G23" s="70" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="24" spans="2:7">
@@ -6178,17 +6917,17 @@
         <v>19</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="69" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="G24" s="70" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="25" spans="2:7">
@@ -6196,17 +6935,17 @@
         <v>20</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="E25" s="21"/>
       <c r="F25" s="69" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="G25" s="70" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="26" spans="2:7">
@@ -6214,17 +6953,17 @@
         <v>21</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="E26" s="21"/>
       <c r="F26" s="69" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G26" s="70" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="27" spans="2:7">
@@ -6232,17 +6971,17 @@
         <v>22</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="E27" s="21"/>
       <c r="F27" s="69" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="G27" s="70" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="28" spans="2:7">
@@ -6250,17 +6989,17 @@
         <v>23</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="69" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="G28" s="70" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="29" spans="2:7">
@@ -6268,17 +7007,17 @@
         <v>24</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="69" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="G29" s="70" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="30" spans="2:7">
@@ -6286,19 +7025,19 @@
         <v>25</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="F30" s="61" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="G30" s="62" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
     </row>
     <row r="31" spans="2:7">
@@ -6355,7 +7094,7 @@
   </sheetPr>
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -6366,7 +7105,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="5" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -6384,7 +7123,7 @@
     <row r="2" spans="1:13">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -6401,7 +7140,7 @@
     <row r="3" spans="1:13">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -6433,10 +7172,10 @@
     <row r="5" spans="1:13">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -6452,7 +7191,7 @@
     <row r="6" spans="1:13">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -6469,22 +7208,22 @@
     <row r="7" spans="1:13">
       <c r="A7" s="1"/>
       <c r="B7" s="33" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -6502,13 +7241,13 @@
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
       <c r="F8" s="61" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="G8" s="62" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -6522,14 +7261,14 @@
         <v>2</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>51</v>
       </c>
       <c r="E9" s="21"/>
       <c r="F9" s="61" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="G9" s="62" t="s">
         <v>51</v>
@@ -6547,20 +7286,20 @@
         <v>3</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>51</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="61" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="G10" s="62" t="s">
         <v>51</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -6574,17 +7313,17 @@
         <v>4</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="64" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="G11" s="65" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -6599,17 +7338,17 @@
         <v>5</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="64" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="G12" s="65" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -6624,14 +7363,14 @@
         <v>6</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>51</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="61" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="G13" s="62" t="s">
         <v>51</v>
@@ -6648,17 +7387,17 @@
         <v>7</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="64" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="G14" s="65" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -6666,17 +7405,17 @@
         <v>8</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="64" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="G15" s="65" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -6684,14 +7423,14 @@
         <v>9</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>51</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="61" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="G16" s="62" t="s">
         <v>51</v>
@@ -6702,14 +7441,14 @@
         <v>10</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>51</v>
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="61" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="G17" s="62" t="s">
         <v>51</v>
@@ -6720,17 +7459,17 @@
         <v>11</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="69" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="G18" s="70" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
     </row>
     <row r="19" spans="2:7">
@@ -6738,17 +7477,17 @@
         <v>12</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="69" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="G19" s="70" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="2:7">
@@ -6810,10 +7549,10 @@
   <sheetPr codeName="Sheet4">
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:G6"/>
+      <selection activeCell="G9" sqref="B9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6825,7 +7564,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="29" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -6843,7 +7582,7 @@
     <row r="2" spans="1:14">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -6860,7 +7599,7 @@
     <row r="3" spans="1:14">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -6870,19 +7609,19 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="L3" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -6896,7 +7635,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="K4" s="1"/>
     </row>
@@ -6916,10 +7655,10 @@
     <row r="6" spans="1:14">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -6935,7 +7674,7 @@
     <row r="7" spans="1:14">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -6952,22 +7691,22 @@
     <row r="8" spans="1:14">
       <c r="A8" s="1"/>
       <c r="B8" s="27" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -6979,17 +7718,15 @@
     <row r="9" spans="1:14">
       <c r="A9" s="1"/>
       <c r="B9" s="20"/>
-      <c r="C9" s="20" t="s">
-        <v>494</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>436</v>
-      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="21"/>
       <c r="F9" s="32" t="s">
-        <v>508</v>
-      </c>
-      <c r="G9" s="24"/>
+        <v>431</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>402</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -7000,17 +7737,15 @@
     <row r="10" spans="1:14">
       <c r="A10" s="1"/>
       <c r="B10" s="20"/>
-      <c r="C10" s="20" t="s">
-        <v>495</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>502</v>
-      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="21"/>
       <c r="F10" s="32" t="s">
-        <v>509</v>
-      </c>
-      <c r="G10" s="24"/>
+        <v>583</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>402</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -7022,16 +7757,18 @@
       <c r="A11" s="1"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="32" t="s">
-        <v>510</v>
-      </c>
-      <c r="G11" s="24"/>
+        <v>498</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>427</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -7043,16 +7780,18 @@
       <c r="A12" s="1"/>
       <c r="B12" s="20"/>
       <c r="C12" s="20" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>411</v>
+        <v>492</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="32" t="s">
-        <v>511</v>
-      </c>
-      <c r="G12" s="24"/>
+        <v>499</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>427</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -7061,200 +7800,236 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:14">
+      <c r="A13" s="1"/>
       <c r="B13" s="20"/>
       <c r="C13" s="20" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="32" t="s">
-        <v>512</v>
-      </c>
-      <c r="G13" s="24"/>
+        <v>500</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:14">
+      <c r="A14" s="1"/>
       <c r="B14" s="20"/>
       <c r="C14" s="20" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>433</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>499</v>
-      </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="24"/>
+        <v>402</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="32" t="s">
+        <v>501</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:14">
       <c r="B15" s="20"/>
       <c r="C15" s="20" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>500</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="E15" s="21"/>
       <c r="F15" s="32" t="s">
-        <v>513</v>
-      </c>
-      <c r="G15" s="24"/>
-    </row>
-    <row r="16" spans="1:14" ht="19.5" thickBot="1">
-      <c r="B16" s="40"/>
-      <c r="C16" s="40" t="s">
-        <v>501</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>411</v>
-      </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="42" t="s">
-        <v>514</v>
-      </c>
-      <c r="G16" s="43"/>
-    </row>
-    <row r="17" spans="2:7" ht="19.5" thickTop="1">
-      <c r="B17" s="36"/>
-      <c r="C17" s="36" t="s">
-        <v>525</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>436</v>
-      </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="38" t="s">
-        <v>508</v>
-      </c>
-      <c r="G17" s="39"/>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="20"/>
-      <c r="C18" s="20" t="s">
-        <v>526</v>
-      </c>
-      <c r="D18" s="21" t="s">
         <v>502</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="32" t="s">
-        <v>509</v>
-      </c>
-      <c r="G18" s="24"/>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="20"/>
-      <c r="C19" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="32" t="s">
-        <v>510</v>
-      </c>
-      <c r="G19" s="24"/>
+      <c r="G15" s="24" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>482</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>490</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>503</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="19.5" thickBot="1">
+      <c r="B18" s="40"/>
+      <c r="C18" s="40" t="s">
+        <v>491</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>402</v>
+      </c>
+      <c r="E18" s="41"/>
+      <c r="F18" s="42" t="s">
+        <v>504</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="19.5" thickTop="1">
+      <c r="B19" s="36"/>
+      <c r="C19" s="36" t="s">
+        <v>515</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>427</v>
+      </c>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38" t="s">
+        <v>498</v>
+      </c>
+      <c r="G19" s="39"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="20"/>
       <c r="C20" s="20" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>411</v>
+        <v>492</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="32" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="G20" s="24"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="20"/>
       <c r="C21" s="20" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="32" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="G21" s="24"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="20"/>
       <c r="C22" s="20" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>433</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>499</v>
-      </c>
-      <c r="F22" s="32"/>
+        <v>402</v>
+      </c>
+      <c r="E22" s="21"/>
+      <c r="F22" s="32" t="s">
+        <v>501</v>
+      </c>
       <c r="G22" s="24"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="20"/>
       <c r="C23" s="20" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>500</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="E23" s="21"/>
       <c r="F23" s="32" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="G23" s="24"/>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="20"/>
       <c r="C24" s="20" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>411</v>
-      </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="32" t="s">
-        <v>514</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="F24" s="32"/>
       <c r="G24" s="24"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
+      <c r="C25" s="20" t="s">
+        <v>521</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>423</v>
+      </c>
       <c r="E25" s="21" t="s">
-        <v>533</v>
-      </c>
-      <c r="F25" s="32"/>
+        <v>490</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>503</v>
+      </c>
       <c r="G25" s="24"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
+      <c r="C26" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>402</v>
+      </c>
       <c r="E26" s="21"/>
-      <c r="F26" s="32"/>
+      <c r="F26" s="32" t="s">
+        <v>504</v>
+      </c>
       <c r="G26" s="24"/>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
       <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
+      <c r="E27" s="21" t="s">
+        <v>523</v>
+      </c>
       <c r="F27" s="32"/>
       <c r="G27" s="24"/>
     </row>
@@ -7314,9 +8089,40 @@
       <c r="F34" s="32"/>
       <c r="G34" s="24"/>
     </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="24"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="24"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="F9:G36">
+    <cfRule type="expression" dxfId="27" priority="1">
+      <formula>$G9="日時"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="2">
+      <formula>$G9="通貨"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="3">
+      <formula>$G9="数値"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="4">
+      <formula>$G9="文字列"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7325,21 +8131,22 @@
   <sheetPr codeName="Sheet5">
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:U74"/>
+  <dimension ref="A1:U86"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:G6"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H45" sqref="C42:H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
     <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:16">
       <c r="A1" s="18" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -7354,10 +8161,10 @@
       <c r="L1" s="18"/>
       <c r="M1" s="18"/>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:16">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -7371,14 +8178,14 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:16">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -7390,43 +8197,43 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:16">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="P4" s="35" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -7440,16 +8247,16 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:16">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -7461,23 +8268,23 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:16">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -7485,42 +8292,44 @@
       <c r="M7" s="1"/>
       <c r="P7" s="12"/>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:16">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:16">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>705</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -7529,50 +8338,60 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:16">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>468</v>
+        <v>703</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:16">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="B11" s="1">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>467</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:16">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="B12" s="1">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>706</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -7584,14 +8403,8 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:16">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -7599,16 +8412,12 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:16">
       <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>563</v>
+      <c r="B14" t="s">
+        <v>584</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -7616,18 +8425,26 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:16">
       <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="B15" s="71" t="s">
+        <v>401</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>398</v>
+      </c>
+      <c r="D15" s="71" t="s">
+        <v>399</v>
+      </c>
+      <c r="E15" s="71" t="s">
+        <v>400</v>
+      </c>
+      <c r="F15" s="72" t="s">
+        <v>430</v>
+      </c>
+      <c r="G15" s="72" t="s">
+        <v>399</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -7635,156 +8452,87 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:16">
       <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="B16" s="20">
+        <v>1</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21" t="s">
+        <v>716</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>402</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="45" t="s">
-        <v>546</v>
-      </c>
-      <c r="N16" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
+      <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="1"/>
-      <c r="B17" s="30" t="s">
-        <v>410</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>407</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>408</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>409</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>439</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>408</v>
+      <c r="B17" s="20">
+        <v>2</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21" t="s">
+        <v>719</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>707</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>402</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="N17" t="s">
-        <v>547</v>
-      </c>
-      <c r="O17" t="s">
-        <v>542</v>
-      </c>
-      <c r="P17" s="44" t="s">
-        <v>548</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="R17" s="44" t="s">
-        <v>548</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="T17" t="s">
-        <v>548</v>
-      </c>
-      <c r="U17" t="s">
-        <v>551</v>
-      </c>
+      <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="1"/>
       <c r="B18" s="20">
-        <v>1</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>540</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="E18" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21" t="s">
+        <v>718</v>
+      </c>
       <c r="F18" s="32" t="s">
-        <v>252</v>
+        <v>714</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>436</v>
+        <v>715</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="N18" t="s">
-        <v>547</v>
-      </c>
-      <c r="O18" t="s">
-        <v>542</v>
-      </c>
-      <c r="P18" s="44" t="s">
-        <v>548</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="R18" s="44" t="s">
-        <v>548</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="T18" t="s">
-        <v>548</v>
-      </c>
-      <c r="U18" t="s">
-        <v>551</v>
-      </c>
+      <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="1"/>
       <c r="B19" s="20">
-        <v>2</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>541</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="21"/>
+        <v>4</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21" t="s">
+        <v>717</v>
+      </c>
       <c r="F19" s="32" t="s">
-        <v>542</v>
+        <v>709</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>550</v>
+        <v>402</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -7792,950 +8540,1301 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" t="s">
-        <v>547</v>
-      </c>
-      <c r="O19" t="s">
-        <v>542</v>
-      </c>
-      <c r="P19" s="44" t="s">
-        <v>548</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="R19" s="44" t="s">
-        <v>548</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="T19" t="s">
-        <v>548</v>
-      </c>
-      <c r="U19" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="19.5" thickBot="1">
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="1"/>
       <c r="B20" s="20">
-        <v>3</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>544</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="21"/>
+        <v>5</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21" t="s">
+        <v>362</v>
+      </c>
       <c r="F20" s="32" t="s">
-        <v>545</v>
+        <v>710</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>411</v>
+        <v>715</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="56" t="s">
-        <v>547</v>
-      </c>
-      <c r="O20" s="56" t="s">
-        <v>542</v>
-      </c>
-      <c r="P20" s="57" t="s">
-        <v>548</v>
-      </c>
-      <c r="Q20" s="55" t="s">
-        <v>550</v>
-      </c>
-      <c r="R20" s="57" t="s">
-        <v>548</v>
-      </c>
-      <c r="S20" s="55" t="s">
-        <v>549</v>
-      </c>
-      <c r="T20" s="56" t="s">
-        <v>548</v>
-      </c>
-      <c r="U20" s="56" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="19.5" thickTop="1">
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" s="1"/>
-      <c r="B21" s="20"/>
+      <c r="B21" s="20">
+        <v>6</v>
+      </c>
       <c r="C21" s="20"/>
       <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="24"/>
+      <c r="E21" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>402</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="1" t="s">
-        <v>575</v>
-      </c>
+      <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:21">
+      <c r="A22" s="1"/>
+      <c r="B22" s="20">
+        <v>7</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:21">
-      <c r="B23" t="s">
-        <v>564</v>
-      </c>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="58"/>
-      <c r="R23" s="58"/>
-      <c r="S23" s="58"/>
-      <c r="T23" s="58"/>
-      <c r="U23" s="58"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="20">
+        <v>8</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>532</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>540</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:21">
-      <c r="B24" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="M24" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="N24" t="s">
-        <v>547</v>
-      </c>
-      <c r="O24" t="s">
-        <v>542</v>
-      </c>
-      <c r="P24" s="44" t="s">
-        <v>548</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="R24" s="44" t="s">
-        <v>548</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="T24" t="s">
-        <v>548</v>
-      </c>
-      <c r="U24" t="s">
-        <v>551</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="20">
+        <v>9</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:21">
-      <c r="B25" s="1" t="s">
-        <v>553</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="M25" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="N25" t="s">
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="45" t="s">
+        <v>536</v>
+      </c>
+      <c r="N28" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="1"/>
+      <c r="B29" s="30" t="s">
+        <v>401</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>399</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="F29" s="31" t="s">
+        <v>430</v>
+      </c>
+      <c r="G29" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="N29" t="s">
+        <v>537</v>
+      </c>
+      <c r="O29" t="s">
+        <v>532</v>
+      </c>
+      <c r="P29" s="44" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="R29" s="44" t="s">
+        <v>538</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="T29" t="s">
+        <v>538</v>
+      </c>
+      <c r="U29" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="1"/>
+      <c r="B30" s="20">
+        <v>1</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>530</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="N30" t="s">
+        <v>537</v>
+      </c>
+      <c r="O30" t="s">
+        <v>532</v>
+      </c>
+      <c r="P30" s="44" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="R30" s="44" t="s">
+        <v>538</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="T30" t="s">
+        <v>538</v>
+      </c>
+      <c r="U30" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="1"/>
+      <c r="B31" s="20">
+        <v>2</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>531</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="21"/>
+      <c r="F31" s="32" t="s">
+        <v>532</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>540</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" t="s">
+        <v>537</v>
+      </c>
+      <c r="O31" t="s">
+        <v>532</v>
+      </c>
+      <c r="P31" s="44" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="R31" s="44" t="s">
+        <v>538</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="T31" t="s">
+        <v>538</v>
+      </c>
+      <c r="U31" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="19.5" thickBot="1">
+      <c r="A32" s="1"/>
+      <c r="B32" s="20">
+        <v>3</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="21"/>
+      <c r="F32" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="56" t="s">
+        <v>537</v>
+      </c>
+      <c r="O32" s="56" t="s">
+        <v>532</v>
+      </c>
+      <c r="P32" s="57" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q32" s="55" t="s">
+        <v>540</v>
+      </c>
+      <c r="R32" s="57" t="s">
+        <v>538</v>
+      </c>
+      <c r="S32" s="55" t="s">
+        <v>539</v>
+      </c>
+      <c r="T32" s="56" t="s">
+        <v>538</v>
+      </c>
+      <c r="U32" s="56" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="19.5" thickTop="1">
+      <c r="A33" s="1"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="B35" t="s">
+        <v>554</v>
+      </c>
+      <c r="M35" s="58"/>
+      <c r="N35" s="58"/>
+      <c r="O35" s="58"/>
+      <c r="P35" s="58"/>
+      <c r="Q35" s="58"/>
+      <c r="R35" s="58"/>
+      <c r="S35" s="58"/>
+      <c r="T35" s="58"/>
+      <c r="U35" s="58"/>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="B36" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="M36" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="N36" t="s">
+        <v>537</v>
+      </c>
+      <c r="O36" t="s">
+        <v>532</v>
+      </c>
+      <c r="P36" s="44" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="R36" s="44" t="s">
+        <v>538</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="T36" t="s">
+        <v>538</v>
+      </c>
+      <c r="U36" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="B37" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="M37" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="N37" t="s">
+        <v>537</v>
+      </c>
+      <c r="O37" t="s">
+        <v>532</v>
+      </c>
+      <c r="P37" s="44" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="R37" s="44" t="s">
+        <v>538</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="T37" t="s">
+        <v>538</v>
+      </c>
+      <c r="U37" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="B38" s="33" t="s">
+        <v>401</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="G38" s="34" t="s">
+        <v>399</v>
+      </c>
+      <c r="M38" s="1"/>
+      <c r="N38" t="s">
+        <v>537</v>
+      </c>
+      <c r="O38" t="s">
+        <v>532</v>
+      </c>
+      <c r="P38" s="44" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="R38" s="44" t="s">
+        <v>538</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="T38" t="s">
+        <v>538</v>
+      </c>
+      <c r="U38" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="19.5" thickBot="1">
+      <c r="B39" s="20">
+        <v>1</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>530</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="E39" s="21"/>
+      <c r="F39" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="M39" s="55"/>
+      <c r="N39" s="56" t="s">
+        <v>537</v>
+      </c>
+      <c r="O39" s="56" t="s">
+        <v>532</v>
+      </c>
+      <c r="P39" s="57" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q39" s="55" t="s">
+        <v>540</v>
+      </c>
+      <c r="R39" s="57" t="s">
+        <v>538</v>
+      </c>
+      <c r="S39" s="55" t="s">
+        <v>539</v>
+      </c>
+      <c r="T39" s="56" t="s">
+        <v>538</v>
+      </c>
+      <c r="U39" s="56" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="19.5" thickTop="1">
+      <c r="B40" s="20">
+        <v>2</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>531</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="21"/>
+      <c r="F40" s="32" t="s">
+        <v>532</v>
+      </c>
+      <c r="G40" s="24" t="s">
+        <v>540</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="B41" s="20">
+        <v>3</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="21"/>
+      <c r="F41" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="B42" s="59">
+        <v>4</v>
+      </c>
+      <c r="C42" s="59" t="s">
+        <v>409</v>
+      </c>
+      <c r="D42" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="60" t="s">
+        <v>549</v>
+      </c>
+      <c r="F42" s="61" t="s">
         <v>547</v>
       </c>
-      <c r="O25" t="s">
-        <v>542</v>
-      </c>
-      <c r="P25" s="44" t="s">
+      <c r="G42" s="62" t="s">
+        <v>427</v>
+      </c>
+      <c r="H42" s="63" t="s">
+        <v>567</v>
+      </c>
+      <c r="I42" t="s">
+        <v>544</v>
+      </c>
+      <c r="J42" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="B43" s="59">
+        <v>5</v>
+      </c>
+      <c r="C43" s="59"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60" t="s">
+        <v>362</v>
+      </c>
+      <c r="F43" s="61" t="s">
         <v>548</v>
       </c>
-      <c r="Q25" s="1" t="s">
+      <c r="G43" s="62" t="s">
+        <v>427</v>
+      </c>
+      <c r="H43" s="63" t="s">
+        <v>567</v>
+      </c>
+      <c r="I43" t="s">
+        <v>546</v>
+      </c>
+      <c r="M43" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="B44" s="59">
+        <v>6</v>
+      </c>
+      <c r="C44" s="59" t="s">
+        <v>446</v>
+      </c>
+      <c r="D44" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="60" t="s">
+        <v>549</v>
+      </c>
+      <c r="F44" s="61" t="s">
         <v>550</v>
       </c>
-      <c r="R25" s="44" t="s">
-        <v>548</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="T25" t="s">
-        <v>548</v>
-      </c>
-      <c r="U25" t="s">
+      <c r="G44" s="62" t="s">
+        <v>402</v>
+      </c>
+      <c r="H44" s="63" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="B45" s="59">
+        <v>7</v>
+      </c>
+      <c r="C45" s="59"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60" t="s">
+        <v>362</v>
+      </c>
+      <c r="F45" s="61" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="26" spans="1:21">
-      <c r="B26" s="33" t="s">
-        <v>410</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>407</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>408</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>409</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>439</v>
-      </c>
-      <c r="G26" s="34" t="s">
-        <v>408</v>
-      </c>
-      <c r="M26" s="1"/>
-      <c r="N26" t="s">
-        <v>547</v>
-      </c>
-      <c r="O26" t="s">
-        <v>542</v>
-      </c>
-      <c r="P26" s="44" t="s">
-        <v>548</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="R26" s="44" t="s">
-        <v>548</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="T26" t="s">
-        <v>548</v>
-      </c>
-      <c r="U26" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="19.5" thickBot="1">
-      <c r="B27" s="20">
+      <c r="G45" s="62" t="s">
+        <v>402</v>
+      </c>
+      <c r="H45" s="63" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="B46" s="20">
+        <v>8</v>
+      </c>
+      <c r="C46" s="20"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="24"/>
+    </row>
+    <row r="47" spans="1:21">
+      <c r="B47" s="20">
+        <v>9</v>
+      </c>
+      <c r="C47" s="20"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="24"/>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="B48" s="20">
+        <v>10</v>
+      </c>
+      <c r="C48" s="20"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="24"/>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="50"/>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" s="46" t="s">
+        <v>401</v>
+      </c>
+      <c r="C53" s="46" t="s">
+        <v>398</v>
+      </c>
+      <c r="D53" s="46" t="s">
+        <v>399</v>
+      </c>
+      <c r="E53" s="46" t="s">
+        <v>400</v>
+      </c>
+      <c r="F53" s="47" t="s">
+        <v>430</v>
+      </c>
+      <c r="G53" s="47" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" s="20">
         <v>1</v>
       </c>
-      <c r="C27" s="20" t="s">
-        <v>540</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>436</v>
-      </c>
-      <c r="M27" s="55"/>
-      <c r="N27" s="56" t="s">
-        <v>547</v>
-      </c>
-      <c r="O27" s="56" t="s">
-        <v>542</v>
-      </c>
-      <c r="P27" s="57" t="s">
-        <v>548</v>
-      </c>
-      <c r="Q27" s="55" t="s">
-        <v>550</v>
-      </c>
-      <c r="R27" s="57" t="s">
-        <v>548</v>
-      </c>
-      <c r="S27" s="55" t="s">
-        <v>549</v>
-      </c>
-      <c r="T27" s="56" t="s">
-        <v>548</v>
-      </c>
-      <c r="U27" s="56" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="19.5" thickTop="1">
-      <c r="B28" s="20">
-        <v>2</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>541</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="32" t="s">
-        <v>542</v>
-      </c>
-      <c r="G28" s="24" t="s">
-        <v>550</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21">
-      <c r="B29" s="20">
-        <v>3</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>544</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="32" t="s">
-        <v>545</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>411</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>2</v>
-      </c>
-      <c r="M29" s="1"/>
-    </row>
-    <row r="30" spans="1:21">
-      <c r="B30" s="59">
-        <v>4</v>
-      </c>
-      <c r="C30" s="59" t="s">
-        <v>418</v>
-      </c>
-      <c r="D30" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="60" t="s">
-        <v>559</v>
-      </c>
-      <c r="F30" s="61" t="s">
-        <v>557</v>
-      </c>
-      <c r="G30" s="62" t="s">
-        <v>436</v>
-      </c>
-      <c r="H30" s="63" t="s">
-        <v>577</v>
-      </c>
-      <c r="I30" t="s">
-        <v>554</v>
-      </c>
-      <c r="J30" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21">
-      <c r="B31" s="59">
-        <v>5</v>
-      </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60" t="s">
-        <v>371</v>
-      </c>
-      <c r="F31" s="61" t="s">
-        <v>558</v>
-      </c>
-      <c r="G31" s="62" t="s">
-        <v>436</v>
-      </c>
-      <c r="H31" s="63" t="s">
-        <v>577</v>
-      </c>
-      <c r="I31" t="s">
-        <v>556</v>
-      </c>
-      <c r="M31" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21">
-      <c r="B32" s="59">
-        <v>6</v>
-      </c>
-      <c r="C32" s="59" t="s">
-        <v>455</v>
-      </c>
-      <c r="D32" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="60" t="s">
-        <v>559</v>
-      </c>
-      <c r="F32" s="61" t="s">
-        <v>560</v>
-      </c>
-      <c r="G32" s="62" t="s">
-        <v>411</v>
-      </c>
-      <c r="H32" s="63" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="59">
-        <v>7</v>
-      </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60" t="s">
-        <v>371</v>
-      </c>
-      <c r="F33" s="61" t="s">
-        <v>561</v>
-      </c>
-      <c r="G33" s="62" t="s">
-        <v>411</v>
-      </c>
-      <c r="H33" s="63" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="20">
-        <v>8</v>
-      </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="24"/>
-    </row>
-    <row r="35" spans="2:9">
-      <c r="B35" s="20">
-        <v>9</v>
-      </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="24"/>
-    </row>
-    <row r="36" spans="2:9">
-      <c r="B36" s="20">
-        <v>10</v>
-      </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="24"/>
-    </row>
-    <row r="37" spans="2:9">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="50"/>
-    </row>
-    <row r="38" spans="2:9">
-      <c r="B38" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9">
-      <c r="B39" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="2:9">
-      <c r="B40" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="2:9">
-      <c r="B41" s="46" t="s">
-        <v>410</v>
-      </c>
-      <c r="C41" s="46" t="s">
-        <v>407</v>
-      </c>
-      <c r="D41" s="46" t="s">
-        <v>408</v>
-      </c>
-      <c r="E41" s="46" t="s">
-        <v>409</v>
-      </c>
-      <c r="F41" s="47" t="s">
-        <v>439</v>
-      </c>
-      <c r="G41" s="47" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9">
-      <c r="B42" s="20">
-        <v>1</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>540</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="E42" s="21"/>
-      <c r="F42" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="G42" s="24" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9">
-      <c r="B43" s="20">
-        <v>2</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>566</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>567</v>
-      </c>
-      <c r="F43" s="32" t="s">
-        <v>568</v>
-      </c>
-      <c r="G43" s="24" t="s">
-        <v>436</v>
-      </c>
-      <c r="I43" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9">
-      <c r="B44" s="20">
-        <v>2</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>541</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E44" s="21"/>
-      <c r="F44" s="32" t="s">
-        <v>542</v>
-      </c>
-      <c r="G44" s="24" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9">
-      <c r="B45" s="20">
-        <v>3</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>544</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E45" s="21"/>
-      <c r="F45" s="32" t="s">
-        <v>545</v>
-      </c>
-      <c r="G45" s="24" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9">
-      <c r="B48" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7">
-      <c r="B49" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="2:7">
-      <c r="B50" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="2:7">
-      <c r="B51" s="51" t="s">
-        <v>410</v>
-      </c>
-      <c r="C51" s="51" t="s">
-        <v>407</v>
-      </c>
-      <c r="D51" s="51" t="s">
-        <v>408</v>
-      </c>
-      <c r="E51" s="51" t="s">
-        <v>409</v>
-      </c>
-      <c r="F51" s="52" t="s">
-        <v>439</v>
-      </c>
-      <c r="G51" s="52" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7">
-      <c r="B52" s="20">
-        <v>1</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>540</v>
-      </c>
-      <c r="D52" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="E52" s="21"/>
-      <c r="F52" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="G52" s="24" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7">
-      <c r="B53" s="20">
-        <v>2</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>566</v>
-      </c>
-      <c r="D53" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E53" s="21" t="s">
-        <v>567</v>
-      </c>
-      <c r="F53" s="32" t="s">
-        <v>568</v>
-      </c>
-      <c r="G53" s="24" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7">
-      <c r="B54" s="20">
-        <v>2</v>
-      </c>
       <c r="C54" s="20" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>1</v>
+        <v>427</v>
       </c>
       <c r="E54" s="21"/>
       <c r="F54" s="32" t="s">
-        <v>542</v>
+        <v>252</v>
       </c>
       <c r="G54" s="24" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
       <c r="B55" s="20">
+        <v>2</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>557</v>
+      </c>
+      <c r="F55" s="32" t="s">
+        <v>558</v>
+      </c>
+      <c r="G55" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="I55" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" s="20">
+        <v>2</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>531</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" s="21"/>
+      <c r="F56" s="32" t="s">
+        <v>532</v>
+      </c>
+      <c r="G56" s="24" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="20">
         <v>3</v>
       </c>
-      <c r="C55" s="20" t="s">
-        <v>544</v>
-      </c>
-      <c r="D55" s="21" t="s">
+      <c r="C57" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="D57" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E55" s="21"/>
-      <c r="F55" s="32" t="s">
-        <v>545</v>
-      </c>
-      <c r="G55" s="24" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7">
-      <c r="B58" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7">
-      <c r="B59" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-    </row>
-    <row r="60" spans="2:7">
-      <c r="B60" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-    </row>
-    <row r="61" spans="2:7">
-      <c r="B61" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="C61" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="D61" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="E61" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="F61" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="G61" s="28" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7">
-      <c r="B62" s="20">
+      <c r="E57" s="21"/>
+      <c r="F57" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="G57" s="24" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="2:9">
+      <c r="B63" s="51" t="s">
+        <v>401</v>
+      </c>
+      <c r="C63" s="51" t="s">
+        <v>398</v>
+      </c>
+      <c r="D63" s="51" t="s">
+        <v>399</v>
+      </c>
+      <c r="E63" s="51" t="s">
+        <v>400</v>
+      </c>
+      <c r="F63" s="52" t="s">
+        <v>430</v>
+      </c>
+      <c r="G63" s="52" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="B64" s="20">
         <v>1</v>
       </c>
-      <c r="C62" s="20" t="s">
-        <v>540</v>
-      </c>
-      <c r="D62" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="E62" s="21"/>
-      <c r="F62" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="G62" s="24" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7">
-      <c r="B63" s="20">
-        <v>2</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>566</v>
-      </c>
-      <c r="D63" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E63" s="21" t="s">
-        <v>567</v>
-      </c>
-      <c r="F63" s="32" t="s">
-        <v>568</v>
-      </c>
-      <c r="G63" s="24" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7">
-      <c r="B64" s="20">
-        <v>2</v>
-      </c>
       <c r="C64" s="20" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>1</v>
+        <v>427</v>
       </c>
       <c r="E64" s="21"/>
       <c r="F64" s="32" t="s">
-        <v>542</v>
+        <v>252</v>
       </c>
       <c r="G64" s="24" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7">
       <c r="B65" s="20">
+        <v>2</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>557</v>
+      </c>
+      <c r="F65" s="32" t="s">
+        <v>558</v>
+      </c>
+      <c r="G65" s="24" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7">
+      <c r="B66" s="20">
+        <v>2</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>531</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E66" s="21"/>
+      <c r="F66" s="32" t="s">
+        <v>532</v>
+      </c>
+      <c r="G66" s="24" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67" s="20">
         <v>3</v>
       </c>
-      <c r="C65" s="20" t="s">
-        <v>544</v>
-      </c>
-      <c r="D65" s="21" t="s">
+      <c r="C67" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="D67" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E65" s="21"/>
-      <c r="F65" s="32" t="s">
-        <v>545</v>
-      </c>
-      <c r="G65" s="24" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8">
-      <c r="B67" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8">
-      <c r="B68" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-    </row>
-    <row r="69" spans="2:8">
-      <c r="B69" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-    </row>
-    <row r="70" spans="2:8">
-      <c r="B70" s="53" t="s">
-        <v>410</v>
-      </c>
-      <c r="C70" s="53" t="s">
-        <v>407</v>
-      </c>
-      <c r="D70" s="53" t="s">
-        <v>408</v>
-      </c>
-      <c r="E70" s="53" t="s">
-        <v>409</v>
-      </c>
-      <c r="F70" s="54" t="s">
-        <v>439</v>
-      </c>
-      <c r="G70" s="54" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8">
-      <c r="B71" s="20">
+      <c r="E67" s="21"/>
+      <c r="F67" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="G67" s="24" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="B73" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="C73" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="D73" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E73" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="F73" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="G73" s="28" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="B74" s="20">
         <v>1</v>
       </c>
-      <c r="C71" s="20" t="s">
-        <v>540</v>
-      </c>
-      <c r="D71" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="E71" s="21"/>
-      <c r="F71" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="G71" s="24" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8">
-      <c r="B72" s="20">
-        <v>2</v>
-      </c>
-      <c r="C72" s="20" t="s">
-        <v>566</v>
-      </c>
-      <c r="D72" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E72" s="21" t="s">
-        <v>567</v>
-      </c>
-      <c r="F72" s="32" t="s">
-        <v>568</v>
-      </c>
-      <c r="G72" s="24" t="s">
-        <v>436</v>
-      </c>
-      <c r="H72" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8">
-      <c r="B73" s="20">
-        <v>2</v>
-      </c>
-      <c r="C73" s="20" t="s">
-        <v>541</v>
-      </c>
-      <c r="D73" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E73" s="21"/>
-      <c r="F73" s="32" t="s">
-        <v>542</v>
-      </c>
-      <c r="G73" s="24" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8">
-      <c r="B74" s="20">
-        <v>3</v>
-      </c>
       <c r="C74" s="20" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="D74" s="21" t="s">
-        <v>1</v>
+        <v>427</v>
       </c>
       <c r="E74" s="21"/>
       <c r="F74" s="32" t="s">
-        <v>545</v>
+        <v>252</v>
       </c>
       <c r="G74" s="24" t="s">
-        <v>411</v>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="B75" s="20">
+        <v>2</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="D75" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E75" s="21" t="s">
+        <v>557</v>
+      </c>
+      <c r="F75" s="32" t="s">
+        <v>558</v>
+      </c>
+      <c r="G75" s="24" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76" s="20">
+        <v>2</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>531</v>
+      </c>
+      <c r="D76" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E76" s="21"/>
+      <c r="F76" s="32" t="s">
+        <v>532</v>
+      </c>
+      <c r="G76" s="24" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="B77" s="20">
+        <v>3</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="D77" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E77" s="21"/>
+      <c r="F77" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="G77" s="24" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7">
+      <c r="B79" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="B80" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="B82" s="53" t="s">
+        <v>401</v>
+      </c>
+      <c r="C82" s="53" t="s">
+        <v>398</v>
+      </c>
+      <c r="D82" s="53" t="s">
+        <v>399</v>
+      </c>
+      <c r="E82" s="53" t="s">
+        <v>400</v>
+      </c>
+      <c r="F82" s="54" t="s">
+        <v>430</v>
+      </c>
+      <c r="G82" s="54" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" s="20">
+        <v>1</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>530</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="E83" s="21"/>
+      <c r="F83" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="G83" s="24" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" s="20">
+        <v>2</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="D84" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E84" s="21" t="s">
+        <v>557</v>
+      </c>
+      <c r="F84" s="32" t="s">
+        <v>558</v>
+      </c>
+      <c r="G84" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="H84" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8">
+      <c r="B85" s="20">
+        <v>2</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>531</v>
+      </c>
+      <c r="D85" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E85" s="21"/>
+      <c r="F85" s="32" t="s">
+        <v>532</v>
+      </c>
+      <c r="G85" s="24" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8">
+      <c r="B86" s="20">
+        <v>3</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E86" s="21"/>
+      <c r="F86" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="G86" s="24" t="s">
+        <v>402</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="E30:G112 E16:G24">
+    <cfRule type="expression" dxfId="23" priority="7">
+      <formula>$G16="日時"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30:G112 F16:G24">
+    <cfRule type="expression" dxfId="22" priority="6">
+      <formula>$G16="時間"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="8">
+      <formula>$G16="通貨"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="9">
+      <formula>$G16="数値"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="10">
+      <formula>$G16="文字列"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33:G33">
+    <cfRule type="expression" dxfId="18" priority="11">
+      <formula>$G33="日時"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="12">
+      <formula>$G33="通貨"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="13">
+      <formula>$G33="数値"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="14">
+      <formula>$G33="文字列"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8745,23 +9844,23 @@
   <sheetPr codeName="Sheet6">
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="3" max="3" width="10.625" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="29" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -8775,6 +9874,478 @@
       <c r="K1" s="29"/>
       <c r="L1" s="29"/>
       <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="M4" t="s">
+        <v>721</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1"/>
+      <c r="B9" s="20">
+        <v>1</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21" t="s">
+        <v>716</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="20">
+        <v>2</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21" t="s">
+        <v>719</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>726</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="61" t="s">
+        <v>724</v>
+      </c>
+      <c r="G11" s="62" t="s">
+        <v>427</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="61" t="s">
+        <v>727</v>
+      </c>
+      <c r="G12" s="62" t="s">
+        <v>402</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="61" t="s">
+        <v>728</v>
+      </c>
+      <c r="G13" s="62" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="61" t="s">
+        <v>729</v>
+      </c>
+      <c r="G14" s="62" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="24"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="24"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="24"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="24"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="24"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="24"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="24"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="24"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="24"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="E15:G27 E11:E14">
+    <cfRule type="expression" dxfId="14" priority="12">
+      <formula>$G11="日時"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15:G27">
+    <cfRule type="expression" dxfId="13" priority="11">
+      <formula>$G15="時間"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>$G15="通貨"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="14">
+      <formula>$G15="数値"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="15">
+      <formula>$G15="文字列"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:G10">
+    <cfRule type="expression" dxfId="9" priority="7">
+      <formula>$G9="日時"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:G10">
+    <cfRule type="expression" dxfId="8" priority="6">
+      <formula>$G9="時間"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>$G9="通貨"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="9">
+      <formula>$G9="数値"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="10">
+      <formula>$G9="文字列"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:G14">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>$G11="日時"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:G14">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$G11="時間"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$G11="通貨"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>$G11="数値"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>$G11="文字列"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F2027C-E6DF-48E7-A1F4-0F2CFF13C2A9}">
+  <sheetPr codeName="Sheet7">
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:N12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="45" t="s">
+        <v>572</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1"/>
@@ -8794,9 +10365,11 @@
     <row r="3" spans="1:14">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>573</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>574</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -8810,9 +10383,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>581</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -8839,10 +10410,10 @@
     <row r="6" spans="1:14">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -8858,7 +10429,7 @@
     <row r="7" spans="1:14">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -8874,23 +10445,23 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1"/>
-      <c r="B8" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>408</v>
+      <c r="B8" s="33" t="s">
+        <v>401</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>399</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -8902,11 +10473,19 @@
     <row r="9" spans="1:14">
       <c r="A9" s="1"/>
       <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
+      <c r="C9" s="20" t="s">
+        <v>575</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>427</v>
+      </c>
       <c r="E9" s="21"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="24"/>
+      <c r="F9" s="32" t="s">
+        <v>576</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>427</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -8917,9 +10496,15 @@
     <row r="10" spans="1:14">
       <c r="A10" s="1"/>
       <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
+      <c r="C10" s="20" t="s">
+        <v>577</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>489</v>
+      </c>
       <c r="F10" s="32"/>
       <c r="G10" s="24"/>
       <c r="H10" s="1"/>
@@ -8932,11 +10517,21 @@
     <row r="11" spans="1:14">
       <c r="A11" s="1"/>
       <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="24"/>
+      <c r="C11" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>578</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>447</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>450</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -8946,262 +10541,19 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F2027C-E6DF-48E7-A1F4-0F2CFF13C2A9}">
-  <sheetPr codeName="Sheet7">
-    <tabColor theme="7" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:N12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="45" t="s">
-        <v>582</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1"/>
-      <c r="B8" s="33" t="s">
-        <v>410</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>407</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>408</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>409</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>439</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>408</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20" t="s">
-        <v>585</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="32" t="s">
-        <v>586</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>436</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20" t="s">
-        <v>587</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>433</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>499</v>
-      </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="1"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20" t="s">
-        <v>456</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>433</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>588</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>456</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>459</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="1"/>
       <c r="B12" s="20"/>
       <c r="C12" s="20" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="32" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -9218,56 +10570,1839 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88C344D-0F39-4E9C-B0BD-2ED9BA3426F3}">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="B2:E10"/>
+  <sheetPr codeName="Sheet8">
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="73" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="73" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="73" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="73" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="75" t="s">
+        <v>707</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>708</v>
+      </c>
+      <c r="C1" s="75" t="s">
+        <v>709</v>
+      </c>
+      <c r="D1" s="75" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="74">
+        <v>1</v>
+      </c>
+      <c r="B2" s="74" t="str">
+        <f t="shared" ref="B2:B33" si="0">VLOOKUP(A2,課コード,2,FALSE)</f>
+        <v>DTP</v>
+      </c>
+      <c r="C2" s="74">
+        <v>101</v>
+      </c>
+      <c r="D2" s="74" t="s">
+        <v>585</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="74">
+        <v>1</v>
+      </c>
+      <c r="B3" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>DTP</v>
+      </c>
+      <c r="C3" s="74">
+        <v>102</v>
+      </c>
+      <c r="D3" s="74" t="s">
+        <v>586</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="74">
+        <v>2</v>
+      </c>
+      <c r="B4" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>製版</v>
+      </c>
+      <c r="C4" s="74">
+        <v>103</v>
+      </c>
+      <c r="D4" s="74" t="s">
+        <v>587</v>
+      </c>
+      <c r="F4" s="76">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="74">
+        <v>1</v>
+      </c>
+      <c r="B5" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>DTP</v>
+      </c>
+      <c r="C5" s="74">
+        <v>104</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="74">
+        <v>1</v>
+      </c>
+      <c r="B6" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>DTP</v>
+      </c>
+      <c r="C6" s="74">
+        <v>105</v>
+      </c>
+      <c r="D6" s="74" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="74">
+        <v>1</v>
+      </c>
+      <c r="B7" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>DTP</v>
+      </c>
+      <c r="C7" s="74">
+        <v>106</v>
+      </c>
+      <c r="D7" s="74" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="74">
+        <v>1</v>
+      </c>
+      <c r="B8" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>DTP</v>
+      </c>
+      <c r="C8" s="74">
+        <v>107</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="74">
+        <v>4</v>
+      </c>
+      <c r="B9" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>印刷</v>
+      </c>
+      <c r="C9" s="74">
+        <v>108</v>
+      </c>
+      <c r="D9" s="74" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="74">
+        <v>4</v>
+      </c>
+      <c r="B10" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>印刷</v>
+      </c>
+      <c r="C10" s="74">
+        <v>109</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="74">
+        <v>4</v>
+      </c>
+      <c r="B11" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>印刷</v>
+      </c>
+      <c r="C11" s="74">
+        <v>110</v>
+      </c>
+      <c r="D11" s="74" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="74">
+        <v>4</v>
+      </c>
+      <c r="B12" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>印刷</v>
+      </c>
+      <c r="C12" s="74">
+        <v>111</v>
+      </c>
+      <c r="D12" s="74" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="74">
+        <v>4</v>
+      </c>
+      <c r="B13" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>印刷</v>
+      </c>
+      <c r="C13" s="74">
+        <v>112</v>
+      </c>
+      <c r="D13" s="74" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="74">
+        <v>1</v>
+      </c>
+      <c r="B14" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>DTP</v>
+      </c>
+      <c r="C14" s="74">
+        <v>113</v>
+      </c>
+      <c r="D14" s="74" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="74">
+        <v>1</v>
+      </c>
+      <c r="B15" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>DTP</v>
+      </c>
+      <c r="C15" s="74">
+        <v>114</v>
+      </c>
+      <c r="D15" s="74" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="74">
+        <v>1</v>
+      </c>
+      <c r="B16" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>DTP</v>
+      </c>
+      <c r="C16" s="74">
+        <v>115</v>
+      </c>
+      <c r="D16" s="74" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="74">
+        <v>1</v>
+      </c>
+      <c r="B17" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>DTP</v>
+      </c>
+      <c r="C17" s="74">
+        <v>116</v>
+      </c>
+      <c r="D17" s="74" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="74">
+        <v>1</v>
+      </c>
+      <c r="B18" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>DTP</v>
+      </c>
+      <c r="C18" s="74">
+        <v>117</v>
+      </c>
+      <c r="D18" s="74" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="74">
+        <v>5</v>
+      </c>
+      <c r="B19" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>加工</v>
+      </c>
+      <c r="C19" s="74">
+        <v>118</v>
+      </c>
+      <c r="D19" s="74" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="74">
+        <v>5</v>
+      </c>
+      <c r="B20" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>加工</v>
+      </c>
+      <c r="C20" s="74">
+        <v>120</v>
+      </c>
+      <c r="D20" s="74" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="74">
+        <v>1</v>
+      </c>
+      <c r="B21" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>DTP</v>
+      </c>
+      <c r="C21" s="74">
+        <v>124</v>
+      </c>
+      <c r="D21" s="74" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="74">
+        <v>1</v>
+      </c>
+      <c r="B22" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>DTP</v>
+      </c>
+      <c r="C22" s="74">
+        <v>125</v>
+      </c>
+      <c r="D22" s="74" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="74">
+        <v>1</v>
+      </c>
+      <c r="B23" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>DTP</v>
+      </c>
+      <c r="C23" s="74">
+        <v>141</v>
+      </c>
+      <c r="D23" s="74" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="74">
+        <v>2</v>
+      </c>
+      <c r="B24" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>製版</v>
+      </c>
+      <c r="C24" s="74">
+        <v>152</v>
+      </c>
+      <c r="D24" s="74" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="74">
+        <v>1</v>
+      </c>
+      <c r="B25" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>DTP</v>
+      </c>
+      <c r="C25" s="74">
+        <v>153</v>
+      </c>
+      <c r="D25" s="74" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="74">
+        <v>2</v>
+      </c>
+      <c r="B26" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>製版</v>
+      </c>
+      <c r="C26" s="74">
+        <v>157</v>
+      </c>
+      <c r="D26" s="74" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="74">
+        <v>1</v>
+      </c>
+      <c r="B27" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>DTP</v>
+      </c>
+      <c r="C27" s="74">
+        <v>191</v>
+      </c>
+      <c r="D27" s="74" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="74">
+        <v>1</v>
+      </c>
+      <c r="B28" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>DTP</v>
+      </c>
+      <c r="C28" s="74">
+        <v>192</v>
+      </c>
+      <c r="D28" s="74" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="74">
+        <v>5</v>
+      </c>
+      <c r="B29" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>加工</v>
+      </c>
+      <c r="C29" s="74">
+        <v>401</v>
+      </c>
+      <c r="D29" s="74" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="74">
+        <v>5</v>
+      </c>
+      <c r="B30" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>加工</v>
+      </c>
+      <c r="C30" s="74">
+        <v>402</v>
+      </c>
+      <c r="D30" s="74" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="74">
+        <v>5</v>
+      </c>
+      <c r="B31" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>加工</v>
+      </c>
+      <c r="C31" s="74">
+        <v>403</v>
+      </c>
+      <c r="D31" s="74" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="74">
+        <v>5</v>
+      </c>
+      <c r="B32" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>加工</v>
+      </c>
+      <c r="C32" s="74">
+        <v>404</v>
+      </c>
+      <c r="D32" s="74" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="74">
+        <v>5</v>
+      </c>
+      <c r="B33" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>加工</v>
+      </c>
+      <c r="C33" s="74">
+        <v>405</v>
+      </c>
+      <c r="D33" s="74" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="74">
+        <v>5</v>
+      </c>
+      <c r="B34" s="74" t="str">
+        <f t="shared" ref="B34:B65" si="1">VLOOKUP(A34,課コード,2,FALSE)</f>
+        <v>加工</v>
+      </c>
+      <c r="C34" s="74">
+        <v>406</v>
+      </c>
+      <c r="D34" s="74" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="74">
+        <v>5</v>
+      </c>
+      <c r="B35" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>加工</v>
+      </c>
+      <c r="C35" s="74">
+        <v>407</v>
+      </c>
+      <c r="D35" s="74" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="74">
+        <v>5</v>
+      </c>
+      <c r="B36" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>加工</v>
+      </c>
+      <c r="C36" s="74">
+        <v>408</v>
+      </c>
+      <c r="D36" s="74" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="74">
+        <v>5</v>
+      </c>
+      <c r="B37" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>加工</v>
+      </c>
+      <c r="C37" s="74">
+        <v>409</v>
+      </c>
+      <c r="D37" s="74" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="74">
+        <v>5</v>
+      </c>
+      <c r="B38" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>加工</v>
+      </c>
+      <c r="C38" s="74">
+        <v>410</v>
+      </c>
+      <c r="D38" s="74" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="74">
+        <v>5</v>
+      </c>
+      <c r="B39" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>加工</v>
+      </c>
+      <c r="C39" s="74">
+        <v>411</v>
+      </c>
+      <c r="D39" s="74" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="74">
+        <v>5</v>
+      </c>
+      <c r="B40" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>加工</v>
+      </c>
+      <c r="C40" s="74">
+        <v>412</v>
+      </c>
+      <c r="D40" s="74" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="74">
+        <v>5</v>
+      </c>
+      <c r="B41" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>加工</v>
+      </c>
+      <c r="C41" s="74">
+        <v>413</v>
+      </c>
+      <c r="D41" s="74" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="74">
+        <v>5</v>
+      </c>
+      <c r="B42" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>加工</v>
+      </c>
+      <c r="C42" s="74">
+        <v>414</v>
+      </c>
+      <c r="D42" s="74" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="74">
+        <v>5</v>
+      </c>
+      <c r="B43" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>加工</v>
+      </c>
+      <c r="C43" s="74">
+        <v>415</v>
+      </c>
+      <c r="D43" s="74" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="74">
+        <v>5</v>
+      </c>
+      <c r="B44" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>加工</v>
+      </c>
+      <c r="C44" s="74">
+        <v>416</v>
+      </c>
+      <c r="D44" s="74" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="74">
+        <v>5</v>
+      </c>
+      <c r="B45" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>加工</v>
+      </c>
+      <c r="C45" s="74">
+        <v>417</v>
+      </c>
+      <c r="D45" s="74" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="74">
+        <v>5</v>
+      </c>
+      <c r="B46" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>加工</v>
+      </c>
+      <c r="C46" s="74">
+        <v>418</v>
+      </c>
+      <c r="D46" s="74" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="74">
+        <v>5</v>
+      </c>
+      <c r="B47" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>加工</v>
+      </c>
+      <c r="C47" s="74">
+        <v>419</v>
+      </c>
+      <c r="D47" s="74" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="74">
+        <v>5</v>
+      </c>
+      <c r="B48" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>加工</v>
+      </c>
+      <c r="C48" s="74">
+        <v>420</v>
+      </c>
+      <c r="D48" s="74" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="74">
+        <v>5</v>
+      </c>
+      <c r="B49" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>加工</v>
+      </c>
+      <c r="C49" s="74">
+        <v>431</v>
+      </c>
+      <c r="D49" s="74" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="74">
+        <v>5</v>
+      </c>
+      <c r="B50" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>加工</v>
+      </c>
+      <c r="C50" s="74">
+        <v>432</v>
+      </c>
+      <c r="D50" s="74" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="74">
+        <v>5</v>
+      </c>
+      <c r="B51" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>加工</v>
+      </c>
+      <c r="C51" s="74">
+        <v>433</v>
+      </c>
+      <c r="D51" s="74" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="74">
+        <v>5</v>
+      </c>
+      <c r="B52" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>加工</v>
+      </c>
+      <c r="C52" s="74">
+        <v>434</v>
+      </c>
+      <c r="D52" s="74" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="74">
+        <v>6</v>
+      </c>
+      <c r="B53" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>包装</v>
+      </c>
+      <c r="C53" s="74">
+        <v>435</v>
+      </c>
+      <c r="D53" s="74" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="74">
+        <v>6</v>
+      </c>
+      <c r="B54" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>包装</v>
+      </c>
+      <c r="C54" s="74">
+        <v>436</v>
+      </c>
+      <c r="D54" s="74" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="74">
+        <v>5</v>
+      </c>
+      <c r="B55" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>加工</v>
+      </c>
+      <c r="C55" s="74">
+        <v>437</v>
+      </c>
+      <c r="D55" s="74" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="74">
+        <v>5</v>
+      </c>
+      <c r="B56" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>加工</v>
+      </c>
+      <c r="C56" s="74">
+        <v>438</v>
+      </c>
+      <c r="D56" s="74" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="74">
+        <v>5</v>
+      </c>
+      <c r="B57" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>加工</v>
+      </c>
+      <c r="C57" s="74">
+        <v>439</v>
+      </c>
+      <c r="D57" s="74" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="74">
+        <v>5</v>
+      </c>
+      <c r="B58" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>加工</v>
+      </c>
+      <c r="C58" s="74">
+        <v>440</v>
+      </c>
+      <c r="D58" s="74" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="74">
+        <v>5</v>
+      </c>
+      <c r="B59" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>加工</v>
+      </c>
+      <c r="C59" s="74">
+        <v>441</v>
+      </c>
+      <c r="D59" s="74" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="74">
+        <v>5</v>
+      </c>
+      <c r="B60" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>加工</v>
+      </c>
+      <c r="C60" s="74">
+        <v>442</v>
+      </c>
+      <c r="D60" s="74" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="74">
+        <v>5</v>
+      </c>
+      <c r="B61" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>加工</v>
+      </c>
+      <c r="C61" s="74">
+        <v>443</v>
+      </c>
+      <c r="D61" s="74" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="74">
+        <v>5</v>
+      </c>
+      <c r="B62" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>加工</v>
+      </c>
+      <c r="C62" s="74">
+        <v>444</v>
+      </c>
+      <c r="D62" s="74" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="74">
+        <v>5</v>
+      </c>
+      <c r="B63" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>加工</v>
+      </c>
+      <c r="C63" s="74">
+        <v>445</v>
+      </c>
+      <c r="D63" s="74" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="74">
+        <v>5</v>
+      </c>
+      <c r="B64" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>加工</v>
+      </c>
+      <c r="C64" s="74">
+        <v>446</v>
+      </c>
+      <c r="D64" s="74" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="74">
+        <v>5</v>
+      </c>
+      <c r="B65" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>加工</v>
+      </c>
+      <c r="C65" s="74">
+        <v>447</v>
+      </c>
+      <c r="D65" s="74" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="74">
+        <v>5</v>
+      </c>
+      <c r="B66" s="74" t="str">
+        <f t="shared" ref="B66:B97" si="2">VLOOKUP(A66,課コード,2,FALSE)</f>
+        <v>加工</v>
+      </c>
+      <c r="C66" s="74">
+        <v>448</v>
+      </c>
+      <c r="D66" s="74" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="74">
+        <v>5</v>
+      </c>
+      <c r="B67" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>加工</v>
+      </c>
+      <c r="C67" s="74">
+        <v>449</v>
+      </c>
+      <c r="D67" s="74" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="74">
+        <v>5</v>
+      </c>
+      <c r="B68" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>加工</v>
+      </c>
+      <c r="C68" s="74">
+        <v>450</v>
+      </c>
+      <c r="D68" s="74" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="74">
+        <v>4</v>
+      </c>
+      <c r="B69" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>印刷</v>
+      </c>
+      <c r="C69" s="74">
+        <v>301</v>
+      </c>
+      <c r="D69" s="74" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="74">
+        <v>4</v>
+      </c>
+      <c r="B70" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>印刷</v>
+      </c>
+      <c r="C70" s="74">
+        <v>302</v>
+      </c>
+      <c r="D70" s="74" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="74">
+        <v>4</v>
+      </c>
+      <c r="B71" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>印刷</v>
+      </c>
+      <c r="C71" s="74">
+        <v>304</v>
+      </c>
+      <c r="D71" s="74" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="74">
+        <v>4</v>
+      </c>
+      <c r="B72" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>印刷</v>
+      </c>
+      <c r="C72" s="74">
+        <v>305</v>
+      </c>
+      <c r="D72" s="74" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="74">
+        <v>3</v>
+      </c>
+      <c r="B73" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>資材</v>
+      </c>
+      <c r="C73" s="74">
+        <v>320</v>
+      </c>
+      <c r="D73" s="74" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="74">
+        <v>4</v>
+      </c>
+      <c r="B74" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>印刷</v>
+      </c>
+      <c r="C74" s="74">
+        <v>311</v>
+      </c>
+      <c r="D74" s="74" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="74">
+        <v>4</v>
+      </c>
+      <c r="B75" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>印刷</v>
+      </c>
+      <c r="C75" s="74">
+        <v>312</v>
+      </c>
+      <c r="D75" s="74" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="74">
+        <v>4</v>
+      </c>
+      <c r="B76" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>印刷</v>
+      </c>
+      <c r="C76" s="74">
+        <v>313</v>
+      </c>
+      <c r="D76" s="74" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="74">
+        <v>4</v>
+      </c>
+      <c r="B77" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>印刷</v>
+      </c>
+      <c r="C77" s="74">
+        <v>314</v>
+      </c>
+      <c r="D77" s="74" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="74">
+        <v>4</v>
+      </c>
+      <c r="B78" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>印刷</v>
+      </c>
+      <c r="C78" s="74">
+        <v>315</v>
+      </c>
+      <c r="D78" s="74" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="74">
+        <v>4</v>
+      </c>
+      <c r="B79" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>印刷</v>
+      </c>
+      <c r="C79" s="74">
+        <v>316</v>
+      </c>
+      <c r="D79" s="74" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="74">
+        <v>4</v>
+      </c>
+      <c r="B80" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>印刷</v>
+      </c>
+      <c r="C80" s="74">
+        <v>317</v>
+      </c>
+      <c r="D80" s="74" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="74">
+        <v>4</v>
+      </c>
+      <c r="B81" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>印刷</v>
+      </c>
+      <c r="C81" s="74">
+        <v>318</v>
+      </c>
+      <c r="D81" s="74" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="74">
+        <v>4</v>
+      </c>
+      <c r="B82" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>印刷</v>
+      </c>
+      <c r="C82" s="74">
+        <v>321</v>
+      </c>
+      <c r="D82" s="74" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="74">
+        <v>4</v>
+      </c>
+      <c r="B83" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>印刷</v>
+      </c>
+      <c r="C83" s="74">
+        <v>331</v>
+      </c>
+      <c r="D83" s="74" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="74">
+        <v>4</v>
+      </c>
+      <c r="B84" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>印刷</v>
+      </c>
+      <c r="C84" s="74">
+        <v>332</v>
+      </c>
+      <c r="D84" s="74" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="74">
+        <v>4</v>
+      </c>
+      <c r="B85" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>印刷</v>
+      </c>
+      <c r="C85" s="74">
+        <v>333</v>
+      </c>
+      <c r="D85" s="74" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="74">
+        <v>4</v>
+      </c>
+      <c r="B86" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>印刷</v>
+      </c>
+      <c r="C86" s="74">
+        <v>334</v>
+      </c>
+      <c r="D86" s="74" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="74">
+        <v>4</v>
+      </c>
+      <c r="B87" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>印刷</v>
+      </c>
+      <c r="C87" s="74">
+        <v>335</v>
+      </c>
+      <c r="D87" s="74" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="74">
+        <v>4</v>
+      </c>
+      <c r="B88" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>印刷</v>
+      </c>
+      <c r="C88" s="74">
+        <v>336</v>
+      </c>
+      <c r="D88" s="74" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="74">
+        <v>4</v>
+      </c>
+      <c r="B89" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>印刷</v>
+      </c>
+      <c r="C89" s="74">
+        <v>337</v>
+      </c>
+      <c r="D89" s="74" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="74">
+        <v>4</v>
+      </c>
+      <c r="B90" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>印刷</v>
+      </c>
+      <c r="C90" s="74">
+        <v>338</v>
+      </c>
+      <c r="D90" s="74" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="74">
+        <v>4</v>
+      </c>
+      <c r="B91" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>印刷</v>
+      </c>
+      <c r="C91" s="74">
+        <v>339</v>
+      </c>
+      <c r="D91" s="74" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="74">
+        <v>4</v>
+      </c>
+      <c r="B92" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>印刷</v>
+      </c>
+      <c r="C92" s="74">
         <v>340</v>
       </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" t="s">
+      <c r="D92" s="74" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="74">
+        <v>4</v>
+      </c>
+      <c r="B93" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>印刷</v>
+      </c>
+      <c r="C93" s="74">
         <v>341</v>
       </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" t="s">
+      <c r="D93" s="74" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="74">
+        <v>4</v>
+      </c>
+      <c r="B94" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>印刷</v>
+      </c>
+      <c r="C94" s="74">
         <v>342</v>
       </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="C7" t="s">
-        <v>343</v>
-      </c>
-      <c r="D7" t="s">
-        <v>344</v>
-      </c>
-      <c r="E7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="C8" t="s">
-        <v>346</v>
-      </c>
-      <c r="D8" t="s">
-        <v>344</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D94" s="74" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="74">
+        <v>4</v>
+      </c>
+      <c r="B95" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>印刷</v>
+      </c>
+      <c r="C95" s="74">
         <v>347</v>
       </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" t="s">
+      <c r="D95" s="74" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="74">
+        <v>4</v>
+      </c>
+      <c r="B96" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>印刷</v>
+      </c>
+      <c r="C96" s="74">
         <v>348</v>
       </c>
+      <c r="D96" s="74" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="74">
+        <v>4</v>
+      </c>
+      <c r="B97" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>印刷</v>
+      </c>
+      <c r="C97" s="74">
+        <v>349</v>
+      </c>
+      <c r="D97" s="74" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="74">
+        <v>7</v>
+      </c>
+      <c r="B98" s="74" t="str">
+        <f t="shared" ref="B98:B129" si="3">VLOOKUP(A98,課コード,2,FALSE)</f>
+        <v>その他</v>
+      </c>
+      <c r="C98" s="74">
+        <v>901</v>
+      </c>
+      <c r="D98" s="74" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="74">
+        <v>7</v>
+      </c>
+      <c r="B99" s="74" t="str">
+        <f t="shared" si="3"/>
+        <v>その他</v>
+      </c>
+      <c r="C99" s="74">
+        <v>902</v>
+      </c>
+      <c r="D99" s="74" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="74">
+        <v>7</v>
+      </c>
+      <c r="B100" s="74" t="str">
+        <f t="shared" si="3"/>
+        <v>その他</v>
+      </c>
+      <c r="C100" s="74">
+        <v>903</v>
+      </c>
+      <c r="D100" s="74" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="74">
+        <v>7</v>
+      </c>
+      <c r="B101" s="74" t="str">
+        <f t="shared" si="3"/>
+        <v>その他</v>
+      </c>
+      <c r="C101" s="74">
+        <v>904</v>
+      </c>
+      <c r="D101" s="74" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="74">
+        <v>7</v>
+      </c>
+      <c r="B102" s="74" t="str">
+        <f t="shared" si="3"/>
+        <v>その他</v>
+      </c>
+      <c r="C102" s="74">
+        <v>905</v>
+      </c>
+      <c r="D102" s="74" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="74">
+        <v>7</v>
+      </c>
+      <c r="B103" s="74" t="str">
+        <f t="shared" si="3"/>
+        <v>その他</v>
+      </c>
+      <c r="C103" s="74">
+        <v>906</v>
+      </c>
+      <c r="D103" s="74" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="74">
+        <v>7</v>
+      </c>
+      <c r="B104" s="74" t="str">
+        <f t="shared" si="3"/>
+        <v>その他</v>
+      </c>
+      <c r="C104" s="74">
+        <v>907</v>
+      </c>
+      <c r="D104" s="74" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="74">
+        <v>7</v>
+      </c>
+      <c r="B105" s="74" t="str">
+        <f t="shared" si="3"/>
+        <v>その他</v>
+      </c>
+      <c r="C105" s="74">
+        <v>908</v>
+      </c>
+      <c r="D105" s="74" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="74">
+        <v>7</v>
+      </c>
+      <c r="B106" s="74" t="str">
+        <f t="shared" si="3"/>
+        <v>その他</v>
+      </c>
+      <c r="C106" s="74">
+        <v>909</v>
+      </c>
+      <c r="D106" s="74" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="74">
+        <v>7</v>
+      </c>
+      <c r="B107" s="74" t="str">
+        <f t="shared" si="3"/>
+        <v>その他</v>
+      </c>
+      <c r="C107" s="74">
+        <v>910</v>
+      </c>
+      <c r="D107" s="74" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="74">
+        <v>7</v>
+      </c>
+      <c r="B108" s="74" t="str">
+        <f t="shared" si="3"/>
+        <v>その他</v>
+      </c>
+      <c r="C108" s="74">
+        <v>911</v>
+      </c>
+      <c r="D108" s="74" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="74">
+        <v>7</v>
+      </c>
+      <c r="B109" s="74" t="str">
+        <f t="shared" si="3"/>
+        <v>その他</v>
+      </c>
+      <c r="C109" s="74">
+        <v>912</v>
+      </c>
+      <c r="D109" s="74" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="74">
+        <v>7</v>
+      </c>
+      <c r="B110" s="74" t="str">
+        <f t="shared" si="3"/>
+        <v>その他</v>
+      </c>
+      <c r="C110" s="74">
+        <v>913</v>
+      </c>
+      <c r="D110" s="74" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="74">
+        <v>7</v>
+      </c>
+      <c r="B111" s="74" t="str">
+        <f t="shared" si="3"/>
+        <v>その他</v>
+      </c>
+      <c r="C111" s="74">
+        <v>915</v>
+      </c>
+      <c r="D111" s="74" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="74">
+        <v>7</v>
+      </c>
+      <c r="B112" s="74" t="str">
+        <f t="shared" si="3"/>
+        <v>その他</v>
+      </c>
+      <c r="C112" s="74">
+        <v>916</v>
+      </c>
+      <c r="D112" s="74" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="74">
+        <v>7</v>
+      </c>
+      <c r="B113" s="74" t="str">
+        <f t="shared" si="3"/>
+        <v>その他</v>
+      </c>
+      <c r="C113" s="74">
+        <v>917</v>
+      </c>
+      <c r="D113" s="74" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="74">
+        <v>7</v>
+      </c>
+      <c r="B114" s="74" t="str">
+        <f t="shared" si="3"/>
+        <v>その他</v>
+      </c>
+      <c r="C114" s="74">
+        <v>918</v>
+      </c>
+      <c r="D114" s="74" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="74">
+        <v>7</v>
+      </c>
+      <c r="B115" s="74" t="str">
+        <f t="shared" si="3"/>
+        <v>その他</v>
+      </c>
+      <c r="C115" s="74">
+        <v>919</v>
+      </c>
+      <c r="D115" s="74" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="74">
+        <v>7</v>
+      </c>
+      <c r="B116" s="74" t="str">
+        <f t="shared" si="3"/>
+        <v>その他</v>
+      </c>
+      <c r="C116" s="74">
+        <v>920</v>
+      </c>
+      <c r="D116" s="74" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="74">
+        <v>7</v>
+      </c>
+      <c r="B117" s="74" t="str">
+        <f t="shared" si="3"/>
+        <v>その他</v>
+      </c>
+      <c r="C117" s="74">
+        <v>921</v>
+      </c>
+      <c r="D117" s="74" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="74">
+        <v>7</v>
+      </c>
+      <c r="B118" s="74" t="str">
+        <f t="shared" si="3"/>
+        <v>その他</v>
+      </c>
+      <c r="C118" s="74">
+        <v>922</v>
+      </c>
+      <c r="D118" s="74" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="74">
+        <v>7</v>
+      </c>
+      <c r="B119" s="74" t="str">
+        <f t="shared" si="3"/>
+        <v>その他</v>
+      </c>
+      <c r="C119" s="74">
+        <v>923</v>
+      </c>
+      <c r="D119" s="74" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="74">
+        <v>7</v>
+      </c>
+      <c r="B120" s="74" t="str">
+        <f t="shared" si="3"/>
+        <v>その他</v>
+      </c>
+      <c r="C120" s="74">
+        <v>930</v>
+      </c>
+      <c r="D120" s="74" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="74"/>
+      <c r="B121" s="74"/>
+      <c r="C121" s="74"/>
+      <c r="D121" s="74"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/作業伝票/◆伝票収支調査/system/伝票確認設計図.xlsx
+++ b/作業伝票/◆伝票収支調査/system/伝票確認設計図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\【Git】ShimodaPrint\作業伝票\◆伝票収支調査\system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB06476F-911C-4480-B51C-8D4F683C0998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2173489B-5343-42D4-AAD3-7E992D46929A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要設計図" sheetId="6" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="753">
   <si>
     <t>伝票No</t>
   </si>
@@ -4441,6 +4441,170 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>◆サブフォームで表示する時は､集計行をうまく使って</t>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作業区分ID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作業区分名</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作業内容名</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>行ID</t>
+    <rPh sb="0" eb="1">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>その行をユニークIDとして取り扱う｡ちょっと危険ですが､今はそうするほか判定できない｡</t>
+    <rPh sb="2" eb="3">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キケン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>区分</t>
+    <rPh sb="0" eb="2">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無いので判定式で作る</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1､5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>枚葉</t>
+    <rPh sb="0" eb="2">
+      <t>マイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2､6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>冊子</t>
+    <rPh sb="0" eb="2">
+      <t>サッシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3､7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新聞</t>
+    <rPh sb="0" eb="2">
+      <t>シンブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4､8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>複写</t>
+    <rPh sb="0" eb="2">
+      <t>フクシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>例えば､伝票IDが</t>
+    <rPh sb="0" eb="1">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>デンヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7桁目が9の場合</t>
+    <rPh sb="1" eb="3">
+      <t>ケタメ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6桁目が</t>
+    <rPh sb="1" eb="3">
+      <t>ケタメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>なら､7桁目が1なので枚葉になる</t>
+    <rPh sb="4" eb="6">
+      <t>ケタメ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>マイヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4827,77 +4991,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEFE5F7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEFE5F7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill>
@@ -6523,10 +6617,10 @@
   <sheetPr codeName="Sheet2">
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -6537,7 +6631,9 @@
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="35.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.25" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -6610,18 +6706,22 @@
       <c r="B7" s="20">
         <v>2</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>427</v>
-      </c>
-      <c r="E7" s="21"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21" t="s">
+        <v>740</v>
+      </c>
       <c r="F7" s="64" t="s">
-        <v>404</v>
+        <v>739</v>
       </c>
       <c r="G7" s="65" t="s">
         <v>427</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -6629,17 +6729,23 @@
         <v>3</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>427</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="64" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G8" s="65" t="s">
         <v>427</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -6647,17 +6753,23 @@
         <v>4</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>427</v>
       </c>
       <c r="E9" s="21"/>
       <c r="F9" s="64" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G9" s="65" t="s">
         <v>427</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -6665,17 +6777,23 @@
         <v>5</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>427</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="64" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G10" s="65" t="s">
         <v>427</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -6683,19 +6801,20 @@
         <v>6</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>489</v>
-      </c>
-      <c r="F11" s="61" t="s">
-        <v>408</v>
-      </c>
-      <c r="G11" s="62" t="s">
-        <v>402</v>
+        <v>427</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="64" t="s">
+        <v>406</v>
+      </c>
+      <c r="G11" s="65" t="s">
+        <v>427</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -6703,33 +6822,44 @@
         <v>7</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>493</v>
+        <v>408</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>51</v>
+        <v>402</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>494</v>
-      </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="24"/>
+        <v>489</v>
+      </c>
+      <c r="F12" s="61" t="s">
+        <v>408</v>
+      </c>
+      <c r="G12" s="62" t="s">
+        <v>402</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="13" spans="1:13">
       <c r="B13" s="20">
         <v>8</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>409</v>
+        <v>493</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>427</v>
-      </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="64" t="s">
-        <v>409</v>
-      </c>
-      <c r="G13" s="65" t="s">
-        <v>427</v>
+        <v>51</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="F13" s="32"/>
+      <c r="G13" s="24"/>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -6737,19 +6867,23 @@
         <v>9</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="E14" s="21" t="s">
-        <v>489</v>
-      </c>
-      <c r="F14" s="61" t="s">
-        <v>410</v>
-      </c>
-      <c r="G14" s="62" t="s">
-        <v>402</v>
+      <c r="E14" s="21"/>
+      <c r="F14" s="64" t="s">
+        <v>409</v>
+      </c>
+      <c r="G14" s="65" t="s">
+        <v>427</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -6757,298 +6891,331 @@
         <v>10</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>495</v>
+        <v>410</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>427</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>497</v>
-      </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="24"/>
+        <v>489</v>
+      </c>
+      <c r="F15" s="61" t="s">
+        <v>410</v>
+      </c>
+      <c r="G15" s="62" t="s">
+        <v>402</v>
+      </c>
+      <c r="I15" s="1">
+        <v>3</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>746</v>
+      </c>
     </row>
     <row r="16" spans="1:13">
       <c r="B16" s="20">
         <v>11</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>411</v>
+        <v>495</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>489</v>
-      </c>
-      <c r="F16" s="66" t="s">
-        <v>411</v>
-      </c>
-      <c r="G16" s="67" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
+        <v>497</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="24"/>
+      <c r="I16" s="1">
+        <v>4</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
       <c r="B17" s="20">
         <v>12</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>496</v>
+        <v>411</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>428</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>494</v>
-      </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="24"/>
-    </row>
-    <row r="18" spans="2:7">
+        <v>489</v>
+      </c>
+      <c r="F17" s="66" t="s">
+        <v>411</v>
+      </c>
+      <c r="G17" s="67" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
       <c r="B18" s="20">
         <v>13</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>422</v>
+        <v>496</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>424</v>
-      </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="69" t="s">
-        <v>422</v>
-      </c>
-      <c r="G18" s="70" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
+        <v>428</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="24"/>
+      <c r="I18" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
       <c r="B19" s="20">
         <v>14</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>424</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="69" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="G19" s="70" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="20" spans="2:7">
+      <c r="I19" s="1">
+        <v>1036428</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
       <c r="B20" s="20">
         <v>15</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>424</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="69" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G20" s="70" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="21" spans="2:7">
+      <c r="I20" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
       <c r="B21" s="20">
         <v>16</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>424</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="69" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="G21" s="70" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:9">
       <c r="B22" s="20">
         <v>17</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>424</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="69" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="G22" s="70" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:9">
       <c r="B23" s="20">
         <v>18</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D23" s="21" t="s">
         <v>424</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="69" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G23" s="70" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:9">
       <c r="B24" s="20">
         <v>19</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D24" s="21" t="s">
         <v>424</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="69" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G24" s="70" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:9">
       <c r="B25" s="20">
         <v>20</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D25" s="21" t="s">
         <v>424</v>
       </c>
       <c r="E25" s="21"/>
       <c r="F25" s="69" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G25" s="70" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:9">
       <c r="B26" s="20">
         <v>21</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="D26" s="21" t="s">
         <v>424</v>
       </c>
       <c r="E26" s="21"/>
       <c r="F26" s="69" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="G26" s="70" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:9">
       <c r="B27" s="20">
         <v>22</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="D27" s="21" t="s">
         <v>424</v>
       </c>
       <c r="E27" s="21"/>
       <c r="F27" s="69" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="G27" s="70" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:9">
       <c r="B28" s="20">
         <v>23</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D28" s="21" t="s">
         <v>424</v>
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G28" s="70" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:9">
       <c r="B29" s="20">
         <v>24</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D29" s="21" t="s">
         <v>424</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="69" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G29" s="70" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:9">
       <c r="B30" s="20">
         <v>25</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="69" t="s">
+        <v>420</v>
+      </c>
+      <c r="G30" s="70" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="20">
+        <v>26</v>
+      </c>
+      <c r="C31" s="22" t="s">
         <v>421</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D31" s="23" t="s">
         <v>427</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E31" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="F30" s="61" t="s">
+      <c r="F31" s="61" t="s">
         <v>514</v>
       </c>
-      <c r="G30" s="62" t="s">
+      <c r="G31" s="62" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-    </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:9">
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
@@ -7079,6 +7246,14 @@
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
       <c r="G35" s="20"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -8108,16 +8283,16 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="F9:G36">
-    <cfRule type="expression" dxfId="27" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>$G9="日時"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>$G9="通貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>$G9="数値"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="4">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>$G9="文字列"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8131,15 +8306,16 @@
   <sheetPr codeName="Sheet5">
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:U86"/>
+  <dimension ref="A1:U87"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H45" sqref="C42:H45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
     <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.125" customWidth="1"/>
   </cols>
@@ -8419,7 +8595,9 @@
       </c>
       <c r="C14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>733</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -8482,57 +8660,61 @@
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="21" t="s">
-        <v>719</v>
-      </c>
+      <c r="E17" s="21"/>
       <c r="F17" s="32" t="s">
-        <v>707</v>
+        <v>737</v>
       </c>
       <c r="G17" s="24" t="s">
         <v>402</v>
       </c>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>738</v>
+      </c>
       <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="1"/>
       <c r="B18" s="20">
-        <v>3</v>
-      </c>
-      <c r="C18" s="20"/>
+        <v>2</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>734</v>
+      </c>
       <c r="D18" s="21"/>
       <c r="E18" s="21" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>715</v>
+        <v>402</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="1"/>
       <c r="B19" s="20">
-        <v>4</v>
-      </c>
-      <c r="C19" s="20"/>
+        <v>3</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>735</v>
+      </c>
       <c r="D19" s="21"/>
       <c r="E19" s="21" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>402</v>
+        <v>715</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -8544,18 +8726,22 @@
     <row r="20" spans="1:21">
       <c r="A20" s="1"/>
       <c r="B20" s="20">
-        <v>5</v>
-      </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
+        <v>4</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>51</v>
+      </c>
       <c r="E20" s="21" t="s">
-        <v>362</v>
+        <v>717</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>715</v>
+        <v>402</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -8567,18 +8753,20 @@
     <row r="21" spans="1:21">
       <c r="A21" s="1"/>
       <c r="B21" s="20">
-        <v>6</v>
-      </c>
-      <c r="C21" s="20"/>
+        <v>5</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>736</v>
+      </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21" t="s">
-        <v>535</v>
+        <v>362</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>535</v>
+        <v>710</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>402</v>
+        <v>715</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -8590,18 +8778,20 @@
     <row r="22" spans="1:21">
       <c r="A22" s="1"/>
       <c r="B22" s="20">
-        <v>7</v>
-      </c>
-      <c r="C22" s="20"/>
+        <v>6</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>534</v>
+      </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21" t="s">
-        <v>252</v>
+        <v>535</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>252</v>
+        <v>535</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -8613,18 +8803,20 @@
     <row r="23" spans="1:21">
       <c r="A23" s="1"/>
       <c r="B23" s="20">
-        <v>8</v>
-      </c>
-      <c r="C23" s="20"/>
+        <v>7</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>530</v>
+      </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21" t="s">
-        <v>540</v>
+        <v>252</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>532</v>
+        <v>252</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>540</v>
+        <v>427</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -8636,13 +8828,21 @@
     <row r="24" spans="1:21">
       <c r="A24" s="1"/>
       <c r="B24" s="20">
-        <v>9</v>
-      </c>
-      <c r="C24" s="20"/>
+        <v>8</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>531</v>
+      </c>
       <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="24"/>
+      <c r="E24" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>532</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>402</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -8652,12 +8852,14 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="B25" s="20">
+        <v>9</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="24"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -8667,9 +8869,7 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
-        <v>553</v>
-      </c>
+      <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -8685,11 +8885,9 @@
     <row r="27" spans="1:21">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>434</v>
-      </c>
+        <v>553</v>
+      </c>
+      <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -8704,9 +8902,11 @@
     <row r="28" spans="1:21">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="C28" s="1"/>
+        <v>436</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>434</v>
+      </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -8716,90 +8916,56 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="45" t="s">
-        <v>536</v>
-      </c>
-      <c r="N28" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
+      <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="1"/>
-      <c r="B29" s="30" t="s">
-        <v>401</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>398</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>399</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>400</v>
-      </c>
-      <c r="F29" s="31" t="s">
-        <v>430</v>
-      </c>
-      <c r="G29" s="31" t="s">
-        <v>399</v>
-      </c>
+      <c r="B29" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="1" t="s">
+      <c r="M29" s="45" t="s">
+        <v>536</v>
+      </c>
+      <c r="N29" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="N29" t="s">
-        <v>537</v>
-      </c>
-      <c r="O29" t="s">
-        <v>532</v>
-      </c>
-      <c r="P29" s="44" t="s">
-        <v>538</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="R29" s="44" t="s">
-        <v>538</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="T29" t="s">
-        <v>538</v>
-      </c>
-      <c r="U29" t="s">
-        <v>541</v>
-      </c>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="1"/>
-      <c r="B30" s="20">
-        <v>1</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>530</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>427</v>
-      </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>427</v>
+      <c r="B30" s="30" t="s">
+        <v>401</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>399</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>430</v>
+      </c>
+      <c r="G30" s="31" t="s">
+        <v>399</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -8807,7 +8973,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="N30" t="s">
         <v>537</v>
@@ -8837,27 +9003,29 @@
     <row r="31" spans="1:21">
       <c r="A31" s="1"/>
       <c r="B31" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>1</v>
+        <v>427</v>
       </c>
       <c r="E31" s="21"/>
       <c r="F31" s="32" t="s">
-        <v>532</v>
+        <v>252</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>540</v>
+        <v>427</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
+      <c r="M31" s="1" t="s">
+        <v>468</v>
+      </c>
       <c r="N31" t="s">
         <v>537</v>
       </c>
@@ -8883,20 +9051,20 @@
         <v>541</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="19.5" thickBot="1">
+    <row r="32" spans="1:21">
       <c r="A32" s="1"/>
       <c r="B32" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D32" s="21" t="s">
         <v>1</v>
       </c>
       <c r="E32" s="21"/>
       <c r="F32" s="32" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="G32" s="24" t="s">
         <v>402</v>
@@ -8906,116 +9074,128 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="56" t="s">
+      <c r="M32" s="1"/>
+      <c r="N32" t="s">
         <v>537</v>
       </c>
-      <c r="O32" s="56" t="s">
+      <c r="O32" t="s">
         <v>532</v>
       </c>
-      <c r="P32" s="57" t="s">
+      <c r="P32" s="44" t="s">
         <v>538</v>
       </c>
-      <c r="Q32" s="55" t="s">
+      <c r="Q32" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="R32" s="57" t="s">
+      <c r="R32" s="44" t="s">
         <v>538</v>
       </c>
-      <c r="S32" s="55" t="s">
+      <c r="S32" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="T32" s="56" t="s">
+      <c r="T32" t="s">
         <v>538</v>
       </c>
-      <c r="U32" s="56" t="s">
+      <c r="U32" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="19.5" thickTop="1">
+    <row r="33" spans="1:21" ht="19.5" thickBot="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="21"/>
+      <c r="B33" s="20">
+        <v>3</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>1</v>
+      </c>
       <c r="E33" s="21"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="24"/>
+      <c r="F33" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>402</v>
+      </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="1" t="s">
+      <c r="M33" s="55"/>
+      <c r="N33" s="56" t="s">
+        <v>537</v>
+      </c>
+      <c r="O33" s="56" t="s">
+        <v>532</v>
+      </c>
+      <c r="P33" s="57" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q33" s="55" t="s">
+        <v>540</v>
+      </c>
+      <c r="R33" s="57" t="s">
+        <v>538</v>
+      </c>
+      <c r="S33" s="55" t="s">
+        <v>539</v>
+      </c>
+      <c r="T33" s="56" t="s">
+        <v>538</v>
+      </c>
+      <c r="U33" s="56" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="19.5" thickTop="1">
+      <c r="A34" s="1"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
-      <c r="M34" s="1"/>
-    </row>
     <row r="35" spans="1:21">
-      <c r="B35" t="s">
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="B36" t="s">
         <v>554</v>
       </c>
-      <c r="M35" s="58"/>
-      <c r="N35" s="58"/>
-      <c r="O35" s="58"/>
-      <c r="P35" s="58"/>
-      <c r="Q35" s="58"/>
-      <c r="R35" s="58"/>
-      <c r="S35" s="58"/>
-      <c r="T35" s="58"/>
-      <c r="U35" s="58"/>
-    </row>
-    <row r="36" spans="1:21">
-      <c r="B36" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="M36" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="N36" t="s">
-        <v>537</v>
-      </c>
-      <c r="O36" t="s">
-        <v>532</v>
-      </c>
-      <c r="P36" s="44" t="s">
-        <v>538</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="R36" s="44" t="s">
-        <v>538</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="T36" t="s">
-        <v>538</v>
-      </c>
-      <c r="U36" t="s">
-        <v>541</v>
-      </c>
+      <c r="M36" s="58"/>
+      <c r="N36" s="58"/>
+      <c r="O36" s="58"/>
+      <c r="P36" s="58"/>
+      <c r="Q36" s="58"/>
+      <c r="R36" s="58"/>
+      <c r="S36" s="58"/>
+      <c r="T36" s="58"/>
+      <c r="U36" s="58"/>
     </row>
     <row r="37" spans="1:21">
       <c r="B37" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="C37" s="1"/>
+        <v>436</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>434</v>
+      </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="M37" s="1" t="s">
-        <v>468</v>
+        <v>542</v>
       </c>
       <c r="N37" t="s">
         <v>537</v>
@@ -9043,25 +9223,17 @@
       </c>
     </row>
     <row r="38" spans="1:21">
-      <c r="B38" s="33" t="s">
-        <v>401</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>398</v>
-      </c>
-      <c r="D38" s="33" t="s">
-        <v>399</v>
-      </c>
-      <c r="E38" s="33" t="s">
-        <v>400</v>
-      </c>
-      <c r="F38" s="34" t="s">
-        <v>430</v>
-      </c>
-      <c r="G38" s="34" t="s">
-        <v>399</v>
-      </c>
-      <c r="M38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="M38" s="1" t="s">
+        <v>468</v>
+      </c>
       <c r="N38" t="s">
         <v>537</v>
       </c>
@@ -9087,135 +9259,155 @@
         <v>541</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="19.5" thickBot="1">
-      <c r="B39" s="20">
+    <row r="39" spans="1:21">
+      <c r="B39" s="33" t="s">
+        <v>401</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="E39" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="F39" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="G39" s="34" t="s">
+        <v>399</v>
+      </c>
+      <c r="M39" s="1"/>
+      <c r="N39" t="s">
+        <v>537</v>
+      </c>
+      <c r="O39" t="s">
+        <v>532</v>
+      </c>
+      <c r="P39" s="44" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="R39" s="44" t="s">
+        <v>538</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="T39" t="s">
+        <v>538</v>
+      </c>
+      <c r="U39" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="19.5" thickBot="1">
+      <c r="B40" s="20">
         <v>1</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C40" s="20" t="s">
         <v>530</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="D40" s="21" t="s">
         <v>427</v>
-      </c>
-      <c r="E39" s="21"/>
-      <c r="F39" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="G39" s="24" t="s">
-        <v>427</v>
-      </c>
-      <c r="M39" s="55"/>
-      <c r="N39" s="56" t="s">
-        <v>537</v>
-      </c>
-      <c r="O39" s="56" t="s">
-        <v>532</v>
-      </c>
-      <c r="P39" s="57" t="s">
-        <v>538</v>
-      </c>
-      <c r="Q39" s="55" t="s">
-        <v>540</v>
-      </c>
-      <c r="R39" s="57" t="s">
-        <v>538</v>
-      </c>
-      <c r="S39" s="55" t="s">
-        <v>539</v>
-      </c>
-      <c r="T39" s="56" t="s">
-        <v>538</v>
-      </c>
-      <c r="U39" s="56" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" ht="19.5" thickTop="1">
-      <c r="B40" s="20">
-        <v>2</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>531</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>1</v>
       </c>
       <c r="E40" s="21"/>
       <c r="F40" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="G40" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="M40" s="55"/>
+      <c r="N40" s="56" t="s">
+        <v>537</v>
+      </c>
+      <c r="O40" s="56" t="s">
         <v>532</v>
       </c>
-      <c r="G40" s="24" t="s">
+      <c r="P40" s="57" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q40" s="55" t="s">
         <v>540</v>
       </c>
-      <c r="M40" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21">
+      <c r="R40" s="57" t="s">
+        <v>538</v>
+      </c>
+      <c r="S40" s="55" t="s">
+        <v>539</v>
+      </c>
+      <c r="T40" s="56" t="s">
+        <v>538</v>
+      </c>
+      <c r="U40" s="56" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="19.5" thickTop="1">
       <c r="B41" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D41" s="21" t="s">
         <v>1</v>
       </c>
       <c r="E41" s="21"/>
       <c r="F41" s="32" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="G41" s="24" t="s">
         <v>402</v>
       </c>
-      <c r="I41">
+      <c r="M41" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="B42" s="20">
+        <v>3</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="21"/>
+      <c r="F42" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="I42">
         <v>0</v>
       </c>
-      <c r="J41">
+      <c r="J42">
         <v>2</v>
       </c>
-      <c r="M41" s="1"/>
-    </row>
-    <row r="42" spans="1:21">
-      <c r="B42" s="59">
-        <v>4</v>
-      </c>
-      <c r="C42" s="59" t="s">
-        <v>409</v>
-      </c>
-      <c r="D42" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="E42" s="60" t="s">
-        <v>549</v>
-      </c>
-      <c r="F42" s="61" t="s">
-        <v>547</v>
-      </c>
-      <c r="G42" s="62" t="s">
-        <v>427</v>
-      </c>
-      <c r="H42" s="63" t="s">
-        <v>567</v>
-      </c>
-      <c r="I42" t="s">
-        <v>544</v>
-      </c>
-      <c r="J42" t="s">
-        <v>545</v>
-      </c>
+      <c r="M42" s="1"/>
     </row>
     <row r="43" spans="1:21">
       <c r="B43" s="59">
-        <v>5</v>
-      </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="60"/>
+        <v>4</v>
+      </c>
+      <c r="C43" s="59" t="s">
+        <v>409</v>
+      </c>
+      <c r="D43" s="60" t="s">
+        <v>51</v>
+      </c>
       <c r="E43" s="60" t="s">
-        <v>362</v>
+        <v>549</v>
       </c>
       <c r="F43" s="61" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G43" s="62" t="s">
         <v>427</v>
@@ -9224,46 +9416,52 @@
         <v>567</v>
       </c>
       <c r="I43" t="s">
-        <v>546</v>
-      </c>
-      <c r="M43" t="s">
-        <v>566</v>
+        <v>544</v>
+      </c>
+      <c r="J43" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="44" spans="1:21">
       <c r="B44" s="59">
-        <v>6</v>
-      </c>
-      <c r="C44" s="59" t="s">
-        <v>446</v>
-      </c>
-      <c r="D44" s="60" t="s">
-        <v>51</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C44" s="59"/>
+      <c r="D44" s="60"/>
       <c r="E44" s="60" t="s">
-        <v>549</v>
+        <v>362</v>
       </c>
       <c r="F44" s="61" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G44" s="62" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="H44" s="63" t="s">
         <v>567</v>
       </c>
+      <c r="I44" t="s">
+        <v>546</v>
+      </c>
+      <c r="M44" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="45" spans="1:21">
       <c r="B45" s="59">
-        <v>7</v>
-      </c>
-      <c r="C45" s="59"/>
-      <c r="D45" s="60"/>
+        <v>6</v>
+      </c>
+      <c r="C45" s="59" t="s">
+        <v>446</v>
+      </c>
+      <c r="D45" s="60" t="s">
+        <v>51</v>
+      </c>
       <c r="E45" s="60" t="s">
-        <v>362</v>
+        <v>549</v>
       </c>
       <c r="F45" s="61" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G45" s="62" t="s">
         <v>402</v>
@@ -9273,18 +9471,27 @@
       </c>
     </row>
     <row r="46" spans="1:21">
-      <c r="B46" s="20">
-        <v>8</v>
-      </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="24"/>
+      <c r="B46" s="59">
+        <v>7</v>
+      </c>
+      <c r="C46" s="59"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60" t="s">
+        <v>362</v>
+      </c>
+      <c r="F46" s="61" t="s">
+        <v>551</v>
+      </c>
+      <c r="G46" s="62" t="s">
+        <v>402</v>
+      </c>
+      <c r="H46" s="63" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="47" spans="1:21">
       <c r="B47" s="20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="21"/>
@@ -9294,7 +9501,7 @@
     </row>
     <row r="48" spans="1:21">
       <c r="B48" s="20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C48" s="20"/>
       <c r="D48" s="21"/>
@@ -9303,99 +9510,86 @@
       <c r="G48" s="24"/>
     </row>
     <row r="49" spans="2:9">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="50"/>
+      <c r="B49" s="20">
+        <v>10</v>
+      </c>
+      <c r="C49" s="20"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="24"/>
     </row>
     <row r="50" spans="2:9">
-      <c r="B50" t="s">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="50"/>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="51" spans="2:9">
-      <c r="B51" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
     </row>
     <row r="52" spans="2:9">
       <c r="B52" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="C52" s="1"/>
+        <v>436</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>434</v>
+      </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="2:9">
-      <c r="B53" s="46" t="s">
+      <c r="B53" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" s="46" t="s">
         <v>401</v>
       </c>
-      <c r="C53" s="46" t="s">
+      <c r="C54" s="46" t="s">
         <v>398</v>
       </c>
-      <c r="D53" s="46" t="s">
+      <c r="D54" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="E53" s="46" t="s">
+      <c r="E54" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="F53" s="47" t="s">
+      <c r="F54" s="47" t="s">
         <v>430</v>
       </c>
-      <c r="G53" s="47" t="s">
+      <c r="G54" s="47" t="s">
         <v>399</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9">
-      <c r="B54" s="20">
-        <v>1</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>530</v>
-      </c>
-      <c r="D54" s="21" t="s">
-        <v>427</v>
-      </c>
-      <c r="E54" s="21"/>
-      <c r="F54" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="G54" s="24" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="55" spans="2:9">
       <c r="B55" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>556</v>
+        <v>530</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E55" s="21" t="s">
-        <v>557</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="E55" s="21"/>
       <c r="F55" s="32" t="s">
-        <v>558</v>
+        <v>252</v>
       </c>
       <c r="G55" s="24" t="s">
         <v>427</v>
-      </c>
-      <c r="I55" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="56" spans="2:9">
@@ -9403,117 +9597,120 @@
         <v>2</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E56" s="21"/>
+        <v>51</v>
+      </c>
+      <c r="E56" s="21" t="s">
+        <v>557</v>
+      </c>
       <c r="F56" s="32" t="s">
-        <v>532</v>
+        <v>558</v>
       </c>
       <c r="G56" s="24" t="s">
-        <v>540</v>
+        <v>427</v>
+      </c>
+      <c r="I56" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="57" spans="2:9">
       <c r="B57" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D57" s="21" t="s">
         <v>1</v>
       </c>
       <c r="E57" s="21"/>
       <c r="F57" s="32" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="G57" s="24" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="60" spans="2:9">
-      <c r="B60" t="s">
+    <row r="58" spans="2:9">
+      <c r="B58" s="20">
+        <v>3</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" s="21"/>
+      <c r="F58" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="G58" s="24" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="61" spans="2:9">
-      <c r="B61" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
     </row>
     <row r="62" spans="2:9">
       <c r="B62" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="C62" s="1"/>
+        <v>436</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>434</v>
+      </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="2:9">
-      <c r="B63" s="51" t="s">
+      <c r="B63" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="B64" s="51" t="s">
         <v>401</v>
       </c>
-      <c r="C63" s="51" t="s">
+      <c r="C64" s="51" t="s">
         <v>398</v>
       </c>
-      <c r="D63" s="51" t="s">
+      <c r="D64" s="51" t="s">
         <v>399</v>
       </c>
-      <c r="E63" s="51" t="s">
+      <c r="E64" s="51" t="s">
         <v>400</v>
       </c>
-      <c r="F63" s="52" t="s">
+      <c r="F64" s="52" t="s">
         <v>430</v>
       </c>
-      <c r="G63" s="52" t="s">
+      <c r="G64" s="52" t="s">
         <v>399</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9">
-      <c r="B64" s="20">
-        <v>1</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>530</v>
-      </c>
-      <c r="D64" s="21" t="s">
-        <v>427</v>
-      </c>
-      <c r="E64" s="21"/>
-      <c r="F64" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="G64" s="24" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="65" spans="2:7">
       <c r="B65" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>556</v>
+        <v>530</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E65" s="21" t="s">
-        <v>557</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="E65" s="21"/>
       <c r="F65" s="32" t="s">
-        <v>558</v>
+        <v>252</v>
       </c>
       <c r="G65" s="24" t="s">
         <v>427</v>
@@ -9524,117 +9721,117 @@
         <v>2</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E66" s="21"/>
+        <v>51</v>
+      </c>
+      <c r="E66" s="21" t="s">
+        <v>557</v>
+      </c>
       <c r="F66" s="32" t="s">
-        <v>532</v>
+        <v>558</v>
       </c>
       <c r="G66" s="24" t="s">
-        <v>540</v>
+        <v>427</v>
       </c>
     </row>
     <row r="67" spans="2:7">
       <c r="B67" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D67" s="21" t="s">
         <v>1</v>
       </c>
       <c r="E67" s="21"/>
       <c r="F67" s="32" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="G67" s="24" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="70" spans="2:7">
-      <c r="B70" t="s">
+    <row r="68" spans="2:7">
+      <c r="B68" s="20">
+        <v>3</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E68" s="21"/>
+      <c r="F68" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="G68" s="24" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="71" spans="2:7">
-      <c r="B71" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
     </row>
     <row r="72" spans="2:7">
       <c r="B72" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="C72" s="1"/>
+        <v>436</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>434</v>
+      </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="2:7">
-      <c r="B73" s="27" t="s">
+      <c r="B73" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="B74" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="C73" s="27" t="s">
+      <c r="C74" s="27" t="s">
         <v>398</v>
       </c>
-      <c r="D73" s="27" t="s">
+      <c r="D74" s="27" t="s">
         <v>399</v>
       </c>
-      <c r="E73" s="27" t="s">
+      <c r="E74" s="27" t="s">
         <v>400</v>
       </c>
-      <c r="F73" s="28" t="s">
+      <c r="F74" s="28" t="s">
         <v>430</v>
       </c>
-      <c r="G73" s="28" t="s">
+      <c r="G74" s="28" t="s">
         <v>399</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7">
-      <c r="B74" s="20">
-        <v>1</v>
-      </c>
-      <c r="C74" s="20" t="s">
-        <v>530</v>
-      </c>
-      <c r="D74" s="21" t="s">
-        <v>427</v>
-      </c>
-      <c r="E74" s="21"/>
-      <c r="F74" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="G74" s="24" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="75" spans="2:7">
       <c r="B75" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>556</v>
+        <v>530</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E75" s="21" t="s">
-        <v>557</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="E75" s="21"/>
       <c r="F75" s="32" t="s">
-        <v>558</v>
+        <v>252</v>
       </c>
       <c r="G75" s="24" t="s">
         <v>427</v>
@@ -9645,123 +9842,120 @@
         <v>2</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
       <c r="D76" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E76" s="21"/>
+        <v>51</v>
+      </c>
+      <c r="E76" s="21" t="s">
+        <v>557</v>
+      </c>
       <c r="F76" s="32" t="s">
-        <v>532</v>
+        <v>558</v>
       </c>
       <c r="G76" s="24" t="s">
-        <v>540</v>
+        <v>427</v>
       </c>
     </row>
     <row r="77" spans="2:7">
       <c r="B77" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D77" s="21" t="s">
         <v>1</v>
       </c>
       <c r="E77" s="21"/>
       <c r="F77" s="32" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="G77" s="24" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="79" spans="2:7">
-      <c r="B79" t="s">
+    <row r="78" spans="2:7">
+      <c r="B78" s="20">
+        <v>3</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E78" s="21"/>
+      <c r="F78" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="G78" s="24" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="B80" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="80" spans="2:7">
-      <c r="B80" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
     </row>
     <row r="81" spans="2:8">
       <c r="B81" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="C81" s="1"/>
+        <v>436</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>434</v>
+      </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="2:8">
-      <c r="B82" s="53" t="s">
+      <c r="B82" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="C82" s="53" t="s">
+      <c r="C83" s="53" t="s">
         <v>398</v>
       </c>
-      <c r="D82" s="53" t="s">
+      <c r="D83" s="53" t="s">
         <v>399</v>
       </c>
-      <c r="E82" s="53" t="s">
+      <c r="E83" s="53" t="s">
         <v>400</v>
       </c>
-      <c r="F82" s="54" t="s">
+      <c r="F83" s="54" t="s">
         <v>430</v>
       </c>
-      <c r="G82" s="54" t="s">
+      <c r="G83" s="54" t="s">
         <v>399</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8">
-      <c r="B83" s="20">
-        <v>1</v>
-      </c>
-      <c r="C83" s="20" t="s">
-        <v>530</v>
-      </c>
-      <c r="D83" s="21" t="s">
-        <v>427</v>
-      </c>
-      <c r="E83" s="21"/>
-      <c r="F83" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="G83" s="24" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="84" spans="2:8">
       <c r="B84" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>556</v>
+        <v>530</v>
       </c>
       <c r="D84" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E84" s="21" t="s">
-        <v>557</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="E84" s="21"/>
       <c r="F84" s="32" t="s">
-        <v>558</v>
+        <v>252</v>
       </c>
       <c r="G84" s="24" t="s">
         <v>427</v>
-      </c>
-      <c r="H84" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="85" spans="2:8">
@@ -9769,70 +9963,93 @@
         <v>2</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
       <c r="D85" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E85" s="21"/>
+        <v>51</v>
+      </c>
+      <c r="E85" s="21" t="s">
+        <v>557</v>
+      </c>
       <c r="F85" s="32" t="s">
-        <v>532</v>
+        <v>558</v>
       </c>
       <c r="G85" s="24" t="s">
-        <v>540</v>
+        <v>427</v>
+      </c>
+      <c r="H85" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="86" spans="2:8">
       <c r="B86" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D86" s="21" t="s">
         <v>1</v>
       </c>
       <c r="E86" s="21"/>
       <c r="F86" s="32" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="G86" s="24" t="s">
         <v>402</v>
       </c>
     </row>
+    <row r="87" spans="2:8">
+      <c r="B87" s="20">
+        <v>3</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="D87" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E87" s="21"/>
+      <c r="F87" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="G87" s="24" t="s">
+        <v>402</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="E30:G112 E16:G24">
-    <cfRule type="expression" dxfId="23" priority="7">
+  <conditionalFormatting sqref="E16:G25 E31:G113">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>$G16="日時"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:G112 F16:G24">
-    <cfRule type="expression" dxfId="22" priority="6">
+  <conditionalFormatting sqref="F16:G25 F31:G113">
+    <cfRule type="expression" dxfId="12" priority="6">
       <formula>$G16="時間"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="8">
+    <cfRule type="expression" dxfId="11" priority="8">
       <formula>$G16="通貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="9">
+    <cfRule type="expression" dxfId="10" priority="9">
       <formula>$G16="数値"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="10">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>$G16="文字列"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33:G33">
-    <cfRule type="expression" dxfId="18" priority="11">
-      <formula>$G33="日時"</formula>
+  <conditionalFormatting sqref="F34:G34">
+    <cfRule type="expression" dxfId="8" priority="11">
+      <formula>$G34="日時"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="12">
-      <formula>$G33="通貨"</formula>
+    <cfRule type="expression" dxfId="7" priority="12">
+      <formula>$G34="通貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="13">
-      <formula>$G33="数値"</formula>
+    <cfRule type="expression" dxfId="6" priority="13">
+      <formula>$G34="数値"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="14">
-      <formula>$G33="文字列"</formula>
+    <cfRule type="expression" dxfId="5" priority="14">
+      <formula>$G34="文字列"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9846,8 +10063,8 @@
   </sheetPr>
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -10250,61 +10467,23 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="E15:G27 E11:E14">
-    <cfRule type="expression" dxfId="14" priority="12">
-      <formula>$G11="日時"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15:G27">
-    <cfRule type="expression" dxfId="13" priority="11">
-      <formula>$G15="時間"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="13">
-      <formula>$G15="通貨"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="14">
-      <formula>$G15="数値"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="15">
-      <formula>$G15="文字列"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9:G10">
-    <cfRule type="expression" dxfId="9" priority="7">
+  <conditionalFormatting sqref="E9:G27">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$G9="日時"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:G10">
-    <cfRule type="expression" dxfId="8" priority="6">
+  <conditionalFormatting sqref="F9:G27">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$G9="時間"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$G9="通貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>$G9="数値"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="10">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>$G9="文字列"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:G14">
-    <cfRule type="expression" dxfId="4" priority="2">
-      <formula>$G11="日時"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:G14">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>$G11="時間"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$G11="通貨"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
-      <formula>$G11="数値"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="5">
-      <formula>$G11="文字列"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12058,7 +12237,7 @@
         <v>7</v>
       </c>
       <c r="B98" s="74" t="str">
-        <f t="shared" ref="B98:B129" si="3">VLOOKUP(A98,課コード,2,FALSE)</f>
+        <f t="shared" ref="B98:B120" si="3">VLOOKUP(A98,課コード,2,FALSE)</f>
         <v>その他</v>
       </c>
       <c r="C98" s="74">

--- a/作業伝票/◆伝票収支調査/system/伝票確認設計図.xlsx
+++ b/作業伝票/◆伝票収支調査/system/伝票確認設計図.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ShimodaPrint\作業伝票\◆伝票収支調査\system\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\【Git】ShimodaPrint\作業伝票\◆伝票収支調査\system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F448DE32-F988-4D11-A30A-E71BDF829144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA514CC7-85A3-4807-89F2-40A5993456B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要設計図" sheetId="6" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="455">
   <si>
     <t>数値</t>
   </si>
@@ -2437,34 +2437,7 @@
   <si>
     <t>運送会社</t>
     <rPh sb="0" eb="4">
-      <t>ウンソウガイシャ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>運送会社</t>
-    <rPh sb="0" eb="4">
       <t>ウンソウカイシャ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>予定金額</t>
-    <rPh sb="0" eb="2">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キンガク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>┻ 金額を優先</t>
-    <rPh sb="2" eb="4">
-      <t>キンガク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ユウセン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3033,10 +3006,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>区分ID</t>
     <rPh sb="0" eb="2">
       <t>クブン</t>
@@ -3089,35 +3058,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>材料ID.tbx</t>
-  </si>
-  <si>
-    <t>から､材料の情報を仕入れる｡</t>
-    <rPh sb="3" eb="5">
-      <t>ザイリョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>103を検知｡ 材料36で 0､2で調製する</t>
-    <rPh sb="4" eb="6">
-      <t>ケンチ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ザイリョウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>チョウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>◆サブフォームで表示する時は､集計行をうまく使って</t>
     <rPh sb="8" eb="10">
       <t>ヒョウジ</t>
@@ -3328,111 +3268,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>作業テーブルを確認する</t>
-    <rPh sb="0" eb="2">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>作業名などを受け取って情報を埋める</t>
-    <rPh sb="0" eb="2">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>直接材料の項目を確認する</t>
-    <rPh sb="0" eb="2">
-      <t>チョクセツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ザイリョウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>フラグがたっている</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>材料</t>
-    <rPh sb="0" eb="2">
-      <t>ザイリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>を変数に</t>
-    <rPh sb="1" eb="3">
-      <t>ヘンスウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>材料Idtbxを参照する</t>
-    <rPh sb="0" eb="2">
-      <t>ザイリョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>材料IDを調査して該当すれば情報を格納する。</t>
-    <rPh sb="0" eb="2">
-      <t>ザイリョウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>チョウサ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カクノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>材料tbxに反映する</t>
-    <rPh sb="0" eb="2">
-      <t>ザイリョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ハンエイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>サブID</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -3457,6 +3292,349 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作業ID.tbxと照合する</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>直接材料フラグがある</t>
+    <rPh sb="0" eb="2">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ザイリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日報に材料の情報があれば変数に代入</t>
+    <rPh sb="0" eb="2">
+      <t>ニッポウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ダイニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>材料ID.tbxの材料IDとサブIDを照合する</t>
+    <rPh sb="0" eb="2">
+      <t>ザイリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヒットすればデータ格納する</t>
+    <rPh sb="9" eb="11">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>材料数</t>
+    <rPh sb="0" eb="2">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>材料金額</t>
+    <rPh sb="0" eb="2">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>05材料調査.tbx</t>
+  </si>
+  <si>
+    <t>基本引用することはなない</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>インヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>◆動作イメージ</t>
+    <rPh sb="1" eb="3">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>◆変数</t>
+    <rPh sb="1" eb="3">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>送料,tbx</t>
+    <rPh sb="0" eb="2">
+      <t>ソウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>運送会社</t>
+    <rPh sb="0" eb="2">
+      <t>ウンソウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>送状ＮＯ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>予定金額</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金額</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 数値</t>
+    <rPh sb="1" eb="3">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日時</t>
+    <rPh sb="0" eb="1">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>送状ID</t>
+    <rPh sb="0" eb="1">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>送状ID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>運送会社</t>
+    <rPh sb="0" eb="4">
+      <t>ウンソウカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>送料金額</t>
+    <rPh sb="0" eb="2">
+      <t>ソウリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>送料ミス</t>
+    <rPh sb="0" eb="2">
+      <t>ソウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>┻ 金額が無ければ予定金額</t>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;動作&gt;</t>
+    <rPh sb="1" eb="3">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上記該当する項目を代入</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ダイニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>送料tbxを参照し､&amp;伝票ID と[伝票ＮＯ]でしぼりこむ｡複数あるかもなので､複数の場合は行数分繰り返す</t>
+    <rPh sb="0" eb="2">
+      <t>ソウリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>デンヒョウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ギョウスウ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>を開く</t>
+    <rPh sb="1" eb="2">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>で絞り込み条件を作る</t>
+    <rPh sb="1" eb="2">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>･なければ追加</t>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>･ヒットすれば行訂正</t>
+    <rPh sb="7" eb="8">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テイセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>･しぼりこむ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>06送料調査.tbx</t>
+    <rPh sb="2" eb="4">
+      <t>ソウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>送付日付</t>
+    <rPh sb="0" eb="2">
+      <t>ソウフ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>送料備考</t>
+    <rPh sb="0" eb="2">
+      <t>ソウリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作業日</t>
+    <rPh sb="0" eb="3">
+      <t>サギョウビ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3468,7 +3646,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;&amp;&quot;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3543,6 +3721,22 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="17">
@@ -3707,7 +3901,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3782,11 +3976,356 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="67">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEFE5F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEFE5F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEFE5F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEFE5F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEFE5F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEFE5F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEFE5F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEFE5F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEFE5F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4205,7 +4744,7 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="3.25" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
@@ -4379,7 +4918,7 @@
         <v>25</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="28" spans="2:6">
@@ -4589,16 +5128,16 @@
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="35.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.25" style="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4675,19 +5214,19 @@
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F7" s="51" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G7" s="52" t="s">
         <v>90</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -4708,10 +5247,10 @@
         <v>90</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -4732,10 +5271,10 @@
         <v>90</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -4756,10 +5295,10 @@
         <v>90</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -4780,7 +5319,7 @@
         <v>90</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -4803,7 +5342,7 @@
         <v>65</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -4825,7 +5364,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -4849,7 +5388,7 @@
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -4875,7 +5414,7 @@
         <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -4897,7 +5436,7 @@
         <v>4</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -4917,7 +5456,7 @@
         <v>74</v>
       </c>
       <c r="G17" s="54" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="2:9">
@@ -4936,7 +5475,7 @@
       <c r="F18" s="19"/>
       <c r="G18" s="11"/>
       <c r="I18" s="1" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="19" spans="2:9">
@@ -4978,7 +5517,7 @@
         <v>87</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="21" spans="2:9">
@@ -5239,9 +5778,9 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -5388,7 +5927,7 @@
         <v>65</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -5427,20 +5966,20 @@
         <v>3</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>1</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="48" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G10" s="49" t="s">
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -5696,11 +6235,11 @@
       <selection activeCell="G9" sqref="B9:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="10.58203125" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -5882,7 +6421,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>65</v>
@@ -6034,7 +6573,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="18.5" thickBot="1">
+    <row r="18" spans="2:7" ht="19.5" thickBot="1">
       <c r="B18" s="27"/>
       <c r="C18" s="27" t="s">
         <v>154</v>
@@ -6050,7 +6589,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="18.5" thickTop="1">
+    <row r="19" spans="2:7" ht="19.5" thickTop="1">
       <c r="B19" s="23"/>
       <c r="C19" s="23" t="s">
         <v>178</v>
@@ -6249,16 +6788,16 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="F9:G36">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="66" priority="1">
       <formula>$G9="日時"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="65" priority="2">
       <formula>$G9="通貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="64" priority="3">
       <formula>$G9="数値"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="4">
+    <cfRule type="expression" dxfId="63" priority="4">
       <formula>$G9="文字列"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6272,18 +6811,18 @@
   <sheetPr codeName="Sheet5">
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:U87"/>
+  <dimension ref="A1:U88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+      <selection activeCell="F18" sqref="F18:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.58203125" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.08203125" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -6470,7 +7009,7 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -6486,7 +7025,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>130</v>
@@ -6509,7 +7048,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>130</v>
@@ -6532,7 +7071,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -6557,12 +7096,12 @@
     <row r="14" spans="1:16">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -6604,7 +7143,7 @@
       <c r="C16" s="7"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F16" s="19" t="s">
         <v>94</v>
@@ -6628,13 +7167,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="19" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>65</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -6645,69 +7184,63 @@
     <row r="18" spans="1:21">
       <c r="A18" s="1"/>
       <c r="B18" s="7">
-        <v>2</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>397</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C18" s="7"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="8" t="s">
-        <v>382</v>
-      </c>
+      <c r="E18" s="8"/>
       <c r="F18" s="19" t="s">
-        <v>370</v>
+        <v>454</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>65</v>
+        <v>239</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="1"/>
       <c r="B19" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>378</v>
+        <v>65</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="1"/>
       <c r="B20" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>1</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="D20" s="8"/>
       <c r="E20" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>65</v>
+        <v>375</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -6719,20 +7252,22 @@
     <row r="21" spans="1:21">
       <c r="A21" s="1"/>
       <c r="B21" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="D21" s="8"/>
+        <v>219</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>1</v>
+      </c>
       <c r="E21" s="8" t="s">
-        <v>25</v>
+        <v>377</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>378</v>
+        <v>65</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -6744,20 +7279,20 @@
     <row r="22" spans="1:21">
       <c r="A22" s="1"/>
       <c r="B22" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>197</v>
+        <v>392</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8" t="s">
-        <v>198</v>
+        <v>25</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>198</v>
+        <v>370</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>65</v>
+        <v>375</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -6769,20 +7304,20 @@
     <row r="23" spans="1:21">
       <c r="A23" s="1"/>
       <c r="B23" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8" t="s">
-        <v>2</v>
+        <v>198</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>2</v>
+        <v>198</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -6794,20 +7329,20 @@
     <row r="24" spans="1:21">
       <c r="A24" s="1"/>
       <c r="B24" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8" t="s">
-        <v>203</v>
+        <v>2</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>195</v>
+        <v>2</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -6819,13 +7354,21 @@
     <row r="25" spans="1:21">
       <c r="A25" s="1"/>
       <c r="B25" s="7">
-        <v>9</v>
-      </c>
-      <c r="C25" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>194</v>
+      </c>
       <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="11"/>
+      <c r="E25" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -6835,12 +7378,6 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -6850,9 +7387,7 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
-        <v>216</v>
-      </c>
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -6868,11 +7403,9 @@
     <row r="28" spans="1:21">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>97</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -6887,9 +7420,11 @@
     <row r="29" spans="1:21">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C29" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -6899,90 +7434,56 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
+      <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="1"/>
-      <c r="B30" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>62</v>
-      </c>
+      <c r="B30" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="1" t="s">
+      <c r="M30" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="N30" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="N30" t="s">
-        <v>200</v>
-      </c>
-      <c r="O30" t="s">
-        <v>195</v>
-      </c>
-      <c r="P30" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="R30" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="T30" t="s">
-        <v>201</v>
-      </c>
-      <c r="U30" t="s">
-        <v>204</v>
-      </c>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="1"/>
-      <c r="B31" s="7">
-        <v>1</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>90</v>
+      <c r="B31" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>62</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -6990,7 +7491,7 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="N31" t="s">
         <v>200</v>
@@ -7020,27 +7521,29 @@
     <row r="32" spans="1:21">
       <c r="A32" s="1"/>
       <c r="B32" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="19" t="s">
-        <v>195</v>
+        <v>2</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+      <c r="M32" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="N32" t="s">
         <v>200</v>
       </c>
@@ -7066,20 +7569,20 @@
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="18.5" thickBot="1">
+    <row r="33" spans="1:21">
       <c r="A33" s="1"/>
       <c r="B33" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>0</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="19" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>65</v>
@@ -7089,116 +7592,128 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="43" t="s">
+      <c r="M33" s="1"/>
+      <c r="N33" t="s">
         <v>200</v>
       </c>
-      <c r="O33" s="43" t="s">
+      <c r="O33" t="s">
         <v>195</v>
       </c>
-      <c r="P33" s="44" t="s">
+      <c r="P33" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="Q33" s="42" t="s">
+      <c r="Q33" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="R33" s="44" t="s">
+      <c r="R33" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="S33" s="42" t="s">
+      <c r="S33" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="T33" s="43" t="s">
+      <c r="T33" t="s">
         <v>201</v>
       </c>
-      <c r="U33" s="43" t="s">
+      <c r="U33" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="18.5" thickTop="1">
+    <row r="34" spans="1:21" ht="19.5" thickBot="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="8"/>
+      <c r="B34" s="7">
+        <v>3</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>0</v>
+      </c>
       <c r="E34" s="8"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="11"/>
+      <c r="F34" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="1" t="s">
+      <c r="M34" s="42"/>
+      <c r="N34" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="O34" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="P34" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q34" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="R34" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="S34" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="T34" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="U34" s="43" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="19.5" thickTop="1">
+      <c r="A35" s="1"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
-      <c r="M35" s="1"/>
-    </row>
     <row r="36" spans="1:21">
-      <c r="B36" t="s">
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="B37" t="s">
         <v>217</v>
       </c>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="45"/>
-      <c r="R36" s="45"/>
-      <c r="S36" s="45"/>
-      <c r="T36" s="45"/>
-      <c r="U36" s="45"/>
-    </row>
-    <row r="37" spans="1:21">
-      <c r="B37" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="M37" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="N37" t="s">
-        <v>200</v>
-      </c>
-      <c r="O37" t="s">
-        <v>195</v>
-      </c>
-      <c r="P37" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="R37" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="T37" t="s">
-        <v>201</v>
-      </c>
-      <c r="U37" t="s">
-        <v>204</v>
-      </c>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="45"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="45"/>
+      <c r="S37" s="45"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="45"/>
     </row>
     <row r="38" spans="1:21">
       <c r="B38" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C38" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="M38" s="1" t="s">
-        <v>131</v>
+        <v>205</v>
       </c>
       <c r="N38" t="s">
         <v>200</v>
@@ -7226,25 +7741,17 @@
       </c>
     </row>
     <row r="39" spans="1:21">
-      <c r="B39" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="G39" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="M39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="M39" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="N39" t="s">
         <v>200</v>
       </c>
@@ -7270,135 +7777,155 @@
         <v>204</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="18.5" thickBot="1">
-      <c r="B40" s="7">
+    <row r="40" spans="1:21">
+      <c r="B40" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="M40" s="1"/>
+      <c r="N40" t="s">
+        <v>200</v>
+      </c>
+      <c r="O40" t="s">
+        <v>195</v>
+      </c>
+      <c r="P40" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="R40" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="T40" t="s">
+        <v>201</v>
+      </c>
+      <c r="U40" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="19.5" thickBot="1">
+      <c r="B41" s="7">
         <v>1</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C41" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D41" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="M40" s="42"/>
-      <c r="N40" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="O40" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="P40" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q40" s="42" t="s">
-        <v>203</v>
-      </c>
-      <c r="R40" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="S40" s="42" t="s">
-        <v>202</v>
-      </c>
-      <c r="T40" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="U40" s="43" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" ht="18.5" thickTop="1">
-      <c r="B41" s="7">
-        <v>2</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>0</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="M41" s="42"/>
+      <c r="N41" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="O41" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="G41" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21">
+      <c r="P41" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q41" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="R41" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="S41" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="T41" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="U41" s="43" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="19.5" thickTop="1">
       <c r="B42" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>0</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="19" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="I42">
+      <c r="M42" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="B43" s="7">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J42">
+      <c r="E43" s="8"/>
+      <c r="F43" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
         <v>2</v>
       </c>
-      <c r="M42" s="1"/>
-    </row>
-    <row r="43" spans="1:21">
-      <c r="B43" s="46">
-        <v>4</v>
-      </c>
-      <c r="C43" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="D43" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E43" s="47" t="s">
-        <v>212</v>
-      </c>
-      <c r="F43" s="48" t="s">
-        <v>210</v>
-      </c>
-      <c r="G43" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="H43" s="50" t="s">
-        <v>230</v>
-      </c>
-      <c r="I43" t="s">
-        <v>207</v>
-      </c>
-      <c r="J43" t="s">
-        <v>208</v>
-      </c>
+      <c r="M43" s="1"/>
     </row>
     <row r="44" spans="1:21">
       <c r="B44" s="46">
-        <v>5</v>
-      </c>
-      <c r="C44" s="46"/>
-      <c r="D44" s="47"/>
+        <v>4</v>
+      </c>
+      <c r="C44" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="47" t="s">
+        <v>1</v>
+      </c>
       <c r="E44" s="47" t="s">
-        <v>25</v>
+        <v>212</v>
       </c>
       <c r="F44" s="48" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G44" s="49" t="s">
         <v>90</v>
@@ -7407,46 +7934,52 @@
         <v>230</v>
       </c>
       <c r="I44" t="s">
-        <v>209</v>
-      </c>
-      <c r="M44" t="s">
-        <v>229</v>
+        <v>207</v>
+      </c>
+      <c r="J44" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="45" spans="1:21">
       <c r="B45" s="46">
-        <v>6</v>
-      </c>
-      <c r="C45" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="D45" s="47" t="s">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C45" s="46"/>
+      <c r="D45" s="47"/>
       <c r="E45" s="47" t="s">
-        <v>212</v>
+        <v>25</v>
       </c>
       <c r="F45" s="48" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G45" s="49" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="H45" s="50" t="s">
         <v>230</v>
       </c>
+      <c r="I45" t="s">
+        <v>209</v>
+      </c>
+      <c r="M45" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="46" spans="1:21">
       <c r="B46" s="46">
-        <v>7</v>
-      </c>
-      <c r="C46" s="46"/>
-      <c r="D46" s="47"/>
+        <v>6</v>
+      </c>
+      <c r="C46" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" s="47" t="s">
+        <v>1</v>
+      </c>
       <c r="E46" s="47" t="s">
-        <v>25</v>
+        <v>212</v>
       </c>
       <c r="F46" s="48" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G46" s="49" t="s">
         <v>65</v>
@@ -7456,18 +7989,27 @@
       </c>
     </row>
     <row r="47" spans="1:21">
-      <c r="B47" s="7">
-        <v>8</v>
-      </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="11"/>
+      <c r="B47" s="46">
+        <v>7</v>
+      </c>
+      <c r="C47" s="46"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="G47" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="H47" s="50" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="48" spans="1:21">
       <c r="B48" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="8"/>
@@ -7477,7 +8019,7 @@
     </row>
     <row r="49" spans="2:9">
       <c r="B49" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="8"/>
@@ -7486,99 +8028,86 @@
       <c r="G49" s="11"/>
     </row>
     <row r="50" spans="2:9">
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="37"/>
+      <c r="B50" s="7">
+        <v>10</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="11"/>
     </row>
     <row r="51" spans="2:9">
-      <c r="B51" t="s">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="37"/>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="52" spans="2:9">
-      <c r="B52" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
     </row>
     <row r="53" spans="2:9">
       <c r="B53" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C53" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="2:9">
-      <c r="B54" s="33" t="s">
+      <c r="B54" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="33" t="s">
+      <c r="C55" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="D54" s="33" t="s">
+      <c r="D55" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="E54" s="33" t="s">
+      <c r="E55" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="F54" s="34" t="s">
+      <c r="F55" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="G54" s="34" t="s">
+      <c r="G55" s="34" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9">
-      <c r="B55" s="7">
-        <v>1</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E55" s="8"/>
-      <c r="F55" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="56" spans="2:9">
       <c r="B56" s="7">
+        <v>1</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E56" s="8"/>
+      <c r="F56" s="19" t="s">
         <v>2</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="F56" s="19" t="s">
-        <v>221</v>
       </c>
       <c r="G56" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="I56" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="57" spans="2:9">
@@ -7586,117 +8115,120 @@
         <v>2</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E57" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="F57" s="19" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>65</v>
+        <v>90</v>
+      </c>
+      <c r="I57" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="58" spans="2:9">
       <c r="B58" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>0</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="19" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G58" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="2:9">
-      <c r="B61" t="s">
+    <row r="59" spans="2:9">
+      <c r="B59" s="7">
+        <v>3</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="8"/>
+      <c r="F59" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="62" spans="2:9">
-      <c r="B62" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
     </row>
     <row r="63" spans="2:9">
       <c r="B63" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C63" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="2:9">
-      <c r="B64" s="38" t="s">
+      <c r="B64" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="B65" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C64" s="38" t="s">
+      <c r="C65" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="D64" s="38" t="s">
+      <c r="D65" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E64" s="38" t="s">
+      <c r="E65" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="F64" s="39" t="s">
+      <c r="F65" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="G64" s="39" t="s">
+      <c r="G65" s="39" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7">
-      <c r="B65" s="7">
-        <v>1</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E65" s="8"/>
-      <c r="F65" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="66" spans="2:7">
       <c r="B66" s="7">
+        <v>1</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E66" s="8"/>
+      <c r="F66" s="19" t="s">
         <v>2</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="F66" s="19" t="s">
-        <v>221</v>
       </c>
       <c r="G66" s="11" t="s">
         <v>90</v>
@@ -7707,117 +8239,117 @@
         <v>2</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E67" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="F67" s="19" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>0</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="19" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G68" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="2:7">
-      <c r="B71" t="s">
+    <row r="69" spans="2:7">
+      <c r="B69" s="7">
+        <v>3</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="8"/>
+      <c r="F69" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="72" spans="2:7">
-      <c r="B72" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
     </row>
     <row r="73" spans="2:7">
       <c r="B73" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C73" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="2:7">
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="B75" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C75" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D74" s="14" t="s">
+      <c r="D75" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E74" s="14" t="s">
+      <c r="E75" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="F74" s="15" t="s">
+      <c r="F75" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G74" s="15" t="s">
+      <c r="G75" s="15" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7">
-      <c r="B75" s="7">
-        <v>1</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E75" s="8"/>
-      <c r="F75" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="G75" s="11" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="76" spans="2:7">
       <c r="B76" s="7">
+        <v>1</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E76" s="8"/>
+      <c r="F76" s="19" t="s">
         <v>2</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="F76" s="19" t="s">
-        <v>221</v>
       </c>
       <c r="G76" s="11" t="s">
         <v>90</v>
@@ -7828,123 +8360,120 @@
         <v>2</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E77" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="F77" s="19" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="2:7">
       <c r="B78" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>0</v>
       </c>
       <c r="E78" s="8"/>
       <c r="F78" s="19" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G78" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="2:7">
-      <c r="B80" t="s">
+    <row r="79" spans="2:7">
+      <c r="B79" s="7">
+        <v>3</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E79" s="8"/>
+      <c r="F79" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="81" spans="2:8">
-      <c r="B81" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
     </row>
     <row r="82" spans="2:8">
       <c r="B82" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C82" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="2:8">
-      <c r="B83" s="40" t="s">
+      <c r="B83" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="C83" s="40" t="s">
+      <c r="C84" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="D83" s="40" t="s">
+      <c r="D84" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="E83" s="40" t="s">
+      <c r="E84" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="F83" s="41" t="s">
+      <c r="F84" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="G83" s="41" t="s">
+      <c r="G84" s="41" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8">
-      <c r="B84" s="7">
-        <v>1</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E84" s="8"/>
-      <c r="F84" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="G84" s="11" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="85" spans="2:8">
       <c r="B85" s="7">
+        <v>1</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E85" s="8"/>
+      <c r="F85" s="19" t="s">
         <v>2</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="F85" s="19" t="s">
-        <v>221</v>
       </c>
       <c r="G85" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="H85" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="86" spans="2:8">
@@ -7952,70 +8481,93 @@
         <v>2</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E86" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="F86" s="19" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>65</v>
+        <v>90</v>
+      </c>
+      <c r="H86" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="87" spans="2:8">
       <c r="B87" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>0</v>
       </c>
       <c r="E87" s="8"/>
       <c r="F87" s="19" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G87" s="11" t="s">
         <v>65</v>
       </c>
     </row>
+    <row r="88" spans="2:8">
+      <c r="B88" s="7">
+        <v>3</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E88" s="8"/>
+      <c r="F88" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="E16:G25 E31:G113">
-    <cfRule type="expression" dxfId="13" priority="7">
+  <conditionalFormatting sqref="E32:G114 E16:G25">
+    <cfRule type="expression" dxfId="62" priority="7">
       <formula>$G16="日時"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16:G25 F31:G113">
-    <cfRule type="expression" dxfId="12" priority="6">
+  <conditionalFormatting sqref="F32:G114 F16:G25">
+    <cfRule type="expression" dxfId="61" priority="6">
       <formula>$G16="時間"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="8">
+    <cfRule type="expression" dxfId="60" priority="8">
       <formula>$G16="通貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="9">
+    <cfRule type="expression" dxfId="59" priority="9">
       <formula>$G16="数値"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="58" priority="10">
       <formula>$G16="文字列"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34:G34">
-    <cfRule type="expression" dxfId="8" priority="11">
-      <formula>$G34="日時"</formula>
+  <conditionalFormatting sqref="F35:G35">
+    <cfRule type="expression" dxfId="57" priority="11">
+      <formula>$G35="日時"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="12">
-      <formula>$G34="通貨"</formula>
+    <cfRule type="expression" dxfId="56" priority="12">
+      <formula>$G35="通貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="13">
-      <formula>$G34="数値"</formula>
+    <cfRule type="expression" dxfId="55" priority="13">
+      <formula>$G35="数値"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="14">
-      <formula>$G34="文字列"</formula>
+    <cfRule type="expression" dxfId="54" priority="14">
+      <formula>$G35="文字列"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8027,21 +8579,26 @@
   <sheetPr codeName="Sheet6">
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="10.58203125" customWidth="1"/>
-    <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.875" customWidth="1"/>
+    <col min="8" max="8" width="10.625" customWidth="1"/>
+    <col min="10" max="10" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.75" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="16" t="s">
         <v>232</v>
       </c>
@@ -8049,17 +8606,513 @@
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
       <c r="L1" s="16"/>
       <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-    </row>
-    <row r="2" spans="1:17">
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="1"/>
+      <c r="B7" s="64" t="s">
+        <v>424</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="G7" s="65" t="s">
+        <v>415</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="O7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="1"/>
+      <c r="B8" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="1"/>
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="L9" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="P9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="1"/>
+      <c r="B10" s="7">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="G10" s="7">
+        <v>2</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="L10" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>25</v>
+      </c>
+      <c r="R10" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="1"/>
+      <c r="B11" s="7">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="G11" s="7">
+        <v>3</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="L11" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="1"/>
+      <c r="B12" s="7">
+        <v>4</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="G12" s="7">
+        <v>4</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="L12" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="M12" s="49" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="1"/>
+      <c r="B13" s="7">
+        <v>5</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="G13" s="7">
+        <v>5</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="L13" s="48" t="s">
+        <v>386</v>
+      </c>
+      <c r="M13" s="49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="B14" s="7">
+        <v>6</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="G14" s="7">
+        <v>6</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="L14" s="48" t="s">
+        <v>387</v>
+      </c>
+      <c r="M14" s="49" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="B15" s="7">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="L15" s="48" t="s">
+        <v>388</v>
+      </c>
+      <c r="M15" s="49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="B16" s="7">
+        <v>8</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="L16" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="7">
+        <v>9</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="L17" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="11"/>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="E9:E19 L9:M19">
+    <cfRule type="expression" dxfId="53" priority="3">
+      <formula>$M9="日時"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9:M19">
+    <cfRule type="expression" dxfId="52" priority="2">
+      <formula>$M9="時間"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="4">
+      <formula>$M9="通貨"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="5">
+      <formula>$M9="数値"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="6">
+      <formula>$M9="文字列"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:J19">
+    <cfRule type="expression" dxfId="48" priority="1">
+      <formula>$M9="日時"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F2027C-E6DF-48E7-A1F4-0F2CFF13C2A9}">
+  <sheetPr codeName="Sheet7">
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:R20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12:M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.75" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="1.625" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -8073,517 +9126,8 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M4" t="s">
-        <v>384</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="Q5" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="Q7" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1"/>
-      <c r="B8" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1"/>
-      <c r="B9" s="7">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="Q9" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1"/>
-      <c r="B10" s="7">
-        <v>2</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="Q10" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1"/>
-      <c r="B11" s="7">
-        <v>3</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>418</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1"/>
-      <c r="B12" s="7">
-        <v>4</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="48" t="s">
-        <v>387</v>
-      </c>
-      <c r="G12" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="Q12" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1"/>
-      <c r="B13" s="7">
-        <v>5</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="48" t="s">
-        <v>390</v>
-      </c>
-      <c r="G13" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="48" t="s">
-        <v>391</v>
-      </c>
-      <c r="G14" s="49" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="48" t="s">
-        <v>392</v>
-      </c>
-      <c r="G15" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="11"/>
-      <c r="Q17" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="2:17">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="11"/>
-      <c r="Q19" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="2:17">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="11"/>
-      <c r="Q21" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="2:17">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="11"/>
-      <c r="Q23" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="2:17">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="2:17">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="2:17">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="2:17">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="11"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="E9:G28">
-    <cfRule type="expression" dxfId="4" priority="2">
-      <formula>$G9="日時"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9:G28">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>$G9="時間"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$G9="通貨"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
-      <formula>$G9="数値"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="5">
-      <formula>$G9="文字列"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F2027C-E6DF-48E7-A1F4-0F2CFF13C2A9}">
-  <sheetPr codeName="Sheet7">
-    <tabColor theme="7" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:N12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <cols>
-    <col min="3" max="3" width="10.58203125" customWidth="1"/>
-    <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:14">
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>236</v>
@@ -8602,7 +9146,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:18">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -8614,177 +9158,463 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="P4" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="B5" s="64" t="s">
+        <v>428</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="64" t="s">
+        <v>451</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1"/>
-      <c r="B8" s="20" t="s">
+      <c r="L5" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="P5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="B6" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C6" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D6" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E6" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="G6" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="M6" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1"/>
-      <c r="B9" s="7"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="L7" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="B8" s="7">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="G8" s="7">
+        <v>2</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="L8" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" s="19" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="B9" s="7">
+        <v>3</v>
+      </c>
       <c r="C9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="G9" s="7">
+        <v>3</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="L9" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="P9" s="19" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="B10" s="7">
+        <v>4</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="G10" s="7">
+        <v>4</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="I10" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="G9" s="11" t="s">
+      <c r="J10" s="8"/>
+      <c r="L10" s="19" t="s">
+        <v>440</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="B11" s="7">
+        <v>5</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="1"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7" t="s">
+      <c r="E11" s="8"/>
+      <c r="G11" s="7">
+        <v>5</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="G11" s="11" t="s">
+      <c r="I11" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="1"/>
-      <c r="B12" s="7"/>
+      <c r="J11" s="8"/>
+      <c r="L11" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="B12" s="7">
+        <v>6</v>
+      </c>
       <c r="C12" s="7" t="s">
-        <v>198</v>
+        <v>431</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>65</v>
       </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="19" t="s">
+      <c r="G12" s="7">
+        <v>6</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="L12" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="B13" s="7">
+        <v>7</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" s="7">
+        <v>7</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="I13" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="J13" s="8"/>
+      <c r="L13" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="P13" s="64" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="B14" s="7">
+        <v>8</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="P14" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="B15" s="7">
+        <v>9</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="B16" s="7">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="R16" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="P17" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="P19" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="P20" t="s">
+        <v>448</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="E7:E17 J7:J9">
+    <cfRule type="expression" dxfId="47" priority="22">
+      <formula>$M7="日時"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L7:M8 P7:P8">
+    <cfRule type="expression" dxfId="46" priority="12">
+      <formula>$G7="日時"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L7:M8 P7:P8">
+    <cfRule type="expression" dxfId="45" priority="11">
+      <formula>$G7="時間"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="13">
+      <formula>$G7="通貨"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="14">
+      <formula>$G7="数値"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="15">
+      <formula>$G7="文字列"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10:J11">
+    <cfRule type="expression" dxfId="41" priority="24">
+      <formula>$M9="日時"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P9:P10 L9:M10">
+    <cfRule type="expression" dxfId="40" priority="27">
+      <formula>$G10="日時"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P9:P10 L9:M10">
+    <cfRule type="expression" dxfId="39" priority="32">
+      <formula>$G10="時間"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="33">
+      <formula>$G10="通貨"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="34">
+      <formula>$G10="数値"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="35">
+      <formula>$G10="文字列"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12:J13">
+    <cfRule type="expression" dxfId="35" priority="37">
+      <formula>$M10="日時"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11:M11">
+    <cfRule type="expression" dxfId="34" priority="39">
+      <formula>$G13="日時"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12:M12">
+    <cfRule type="expression" dxfId="33" priority="40">
+      <formula>#REF!="日時"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11:M11">
+    <cfRule type="expression" dxfId="32" priority="45">
+      <formula>$G13="時間"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="46">
+      <formula>$G13="通貨"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="47">
+      <formula>$G13="数値"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="48">
+      <formula>$G13="文字列"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12:M12">
+    <cfRule type="expression" dxfId="28" priority="49">
+      <formula>#REF!="時間"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="50">
+      <formula>#REF!="通貨"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="51">
+      <formula>#REF!="数値"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="52">
+      <formula>#REF!="文字列"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13:M13">
+    <cfRule type="expression" dxfId="24" priority="1">
+      <formula>#REF!="日時"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13:M13">
+    <cfRule type="expression" dxfId="23" priority="2">
+      <formula>#REF!="時間"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="3">
+      <formula>#REF!="通貨"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="4">
+      <formula>#REF!="数値"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="5">
+      <formula>#REF!="文字列"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8800,29 +9630,29 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="11.5" style="60" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.25" style="60" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="60" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" style="60" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="60" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="60" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="62" t="s">
+        <v>367</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="D1" s="62" t="s">
         <v>370</v>
-      </c>
-      <c r="B1" s="62" t="s">
-        <v>371</v>
-      </c>
-      <c r="C1" s="62" t="s">
-        <v>372</v>
-      </c>
-      <c r="D1" s="62" t="s">
-        <v>373</v>
       </c>
       <c r="E1" s="62" t="s">
         <v>230</v>
@@ -8840,11 +9670,11 @@
         <v>101</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E2" s="61"/>
       <c r="F2" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -8859,11 +9689,11 @@
         <v>102</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E3" s="61"/>
       <c r="F3" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -8878,10 +9708,10 @@
         <v>103</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E4" s="61" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="F4" s="63">
         <v>45801</v>
@@ -8899,7 +9729,7 @@
         <v>104</v>
       </c>
       <c r="D5" s="61" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E5" s="61"/>
     </row>
@@ -8915,11 +9745,11 @@
         <v>105</v>
       </c>
       <c r="D6" s="61" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E6" s="61"/>
       <c r="G6" s="1" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -8934,7 +9764,7 @@
         <v>106</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E7" s="61"/>
     </row>
@@ -8950,7 +9780,7 @@
         <v>107</v>
       </c>
       <c r="D8" s="61" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E8" s="61"/>
     </row>
@@ -8966,7 +9796,7 @@
         <v>108</v>
       </c>
       <c r="D9" s="61" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E9" s="61"/>
     </row>
@@ -8982,7 +9812,7 @@
         <v>109</v>
       </c>
       <c r="D10" s="61" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E10" s="61"/>
     </row>
@@ -8998,7 +9828,7 @@
         <v>110</v>
       </c>
       <c r="D11" s="61" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E11" s="61"/>
     </row>
@@ -9014,7 +9844,7 @@
         <v>111</v>
       </c>
       <c r="D12" s="61" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E12" s="61"/>
     </row>
@@ -9030,7 +9860,7 @@
         <v>112</v>
       </c>
       <c r="D13" s="61" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E13" s="61"/>
     </row>
@@ -9046,7 +9876,7 @@
         <v>113</v>
       </c>
       <c r="D14" s="61" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E14" s="61"/>
     </row>
@@ -9062,7 +9892,7 @@
         <v>114</v>
       </c>
       <c r="D15" s="61" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E15" s="61"/>
     </row>
@@ -9078,7 +9908,7 @@
         <v>115</v>
       </c>
       <c r="D16" s="61" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E16" s="61"/>
     </row>
@@ -9094,7 +9924,7 @@
         <v>116</v>
       </c>
       <c r="D17" s="61" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E17" s="61"/>
     </row>
@@ -9110,7 +9940,7 @@
         <v>117</v>
       </c>
       <c r="D18" s="61" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E18" s="61"/>
     </row>
@@ -9126,7 +9956,7 @@
         <v>118</v>
       </c>
       <c r="D19" s="61" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E19" s="61"/>
     </row>
@@ -9142,7 +9972,7 @@
         <v>120</v>
       </c>
       <c r="D20" s="61" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E20" s="61"/>
     </row>
@@ -9158,7 +9988,7 @@
         <v>124</v>
       </c>
       <c r="D21" s="61" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E21" s="61"/>
     </row>
@@ -9174,7 +10004,7 @@
         <v>125</v>
       </c>
       <c r="D22" s="61" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E22" s="61"/>
     </row>
@@ -9190,7 +10020,7 @@
         <v>141</v>
       </c>
       <c r="D23" s="61" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E23" s="61"/>
     </row>
@@ -9206,7 +10036,7 @@
         <v>152</v>
       </c>
       <c r="D24" s="61" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E24" s="61"/>
     </row>
@@ -9222,7 +10052,7 @@
         <v>153</v>
       </c>
       <c r="D25" s="61" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E25" s="61"/>
     </row>
@@ -9238,7 +10068,7 @@
         <v>157</v>
       </c>
       <c r="D26" s="61" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E26" s="61"/>
     </row>
@@ -9254,7 +10084,7 @@
         <v>191</v>
       </c>
       <c r="D27" s="61" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E27" s="61"/>
     </row>
@@ -9270,7 +10100,7 @@
         <v>192</v>
       </c>
       <c r="D28" s="61" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E28" s="61"/>
     </row>
@@ -9286,7 +10116,7 @@
         <v>401</v>
       </c>
       <c r="D29" s="61" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E29" s="61"/>
     </row>
@@ -9302,7 +10132,7 @@
         <v>402</v>
       </c>
       <c r="D30" s="61" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E30" s="61"/>
     </row>
@@ -9318,7 +10148,7 @@
         <v>403</v>
       </c>
       <c r="D31" s="61" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E31" s="61"/>
     </row>
@@ -9334,7 +10164,7 @@
         <v>404</v>
       </c>
       <c r="D32" s="61" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E32" s="61"/>
     </row>
@@ -9350,7 +10180,7 @@
         <v>405</v>
       </c>
       <c r="D33" s="61" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E33" s="61"/>
     </row>
@@ -9366,7 +10196,7 @@
         <v>406</v>
       </c>
       <c r="D34" s="61" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E34" s="61"/>
     </row>
@@ -9382,7 +10212,7 @@
         <v>407</v>
       </c>
       <c r="D35" s="61" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E35" s="61"/>
     </row>
@@ -9398,7 +10228,7 @@
         <v>408</v>
       </c>
       <c r="D36" s="61" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E36" s="61"/>
     </row>
@@ -9414,7 +10244,7 @@
         <v>409</v>
       </c>
       <c r="D37" s="61" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E37" s="61"/>
     </row>
@@ -9430,7 +10260,7 @@
         <v>410</v>
       </c>
       <c r="D38" s="61" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E38" s="61"/>
     </row>
@@ -9446,7 +10276,7 @@
         <v>411</v>
       </c>
       <c r="D39" s="61" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E39" s="61"/>
     </row>
@@ -9462,7 +10292,7 @@
         <v>412</v>
       </c>
       <c r="D40" s="61" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E40" s="61"/>
     </row>
@@ -9478,7 +10308,7 @@
         <v>413</v>
       </c>
       <c r="D41" s="61" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E41" s="61"/>
     </row>
@@ -9494,7 +10324,7 @@
         <v>414</v>
       </c>
       <c r="D42" s="61" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E42" s="61"/>
     </row>
@@ -9510,7 +10340,7 @@
         <v>415</v>
       </c>
       <c r="D43" s="61" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E43" s="61"/>
     </row>
@@ -9526,7 +10356,7 @@
         <v>416</v>
       </c>
       <c r="D44" s="61" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E44" s="61"/>
     </row>
@@ -9542,7 +10372,7 @@
         <v>417</v>
       </c>
       <c r="D45" s="61" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E45" s="61"/>
     </row>
@@ -9558,7 +10388,7 @@
         <v>418</v>
       </c>
       <c r="D46" s="61" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E46" s="61"/>
     </row>
@@ -9574,7 +10404,7 @@
         <v>419</v>
       </c>
       <c r="D47" s="61" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E47" s="61"/>
     </row>
@@ -9590,7 +10420,7 @@
         <v>420</v>
       </c>
       <c r="D48" s="61" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E48" s="61"/>
     </row>
@@ -9606,7 +10436,7 @@
         <v>431</v>
       </c>
       <c r="D49" s="61" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E49" s="61"/>
     </row>
@@ -9622,7 +10452,7 @@
         <v>432</v>
       </c>
       <c r="D50" s="61" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E50" s="61"/>
     </row>
@@ -9638,7 +10468,7 @@
         <v>433</v>
       </c>
       <c r="D51" s="61" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E51" s="61"/>
     </row>
@@ -9654,7 +10484,7 @@
         <v>434</v>
       </c>
       <c r="D52" s="61" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E52" s="61"/>
     </row>
@@ -9670,7 +10500,7 @@
         <v>435</v>
       </c>
       <c r="D53" s="61" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E53" s="61"/>
     </row>
@@ -9686,7 +10516,7 @@
         <v>436</v>
       </c>
       <c r="D54" s="61" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E54" s="61"/>
     </row>
@@ -9702,7 +10532,7 @@
         <v>437</v>
       </c>
       <c r="D55" s="61" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E55" s="61"/>
     </row>
@@ -9718,7 +10548,7 @@
         <v>438</v>
       </c>
       <c r="D56" s="61" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E56" s="61"/>
     </row>
@@ -9734,7 +10564,7 @@
         <v>439</v>
       </c>
       <c r="D57" s="61" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E57" s="61"/>
     </row>
@@ -9750,7 +10580,7 @@
         <v>440</v>
       </c>
       <c r="D58" s="61" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E58" s="61"/>
     </row>
@@ -9766,7 +10596,7 @@
         <v>441</v>
       </c>
       <c r="D59" s="61" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E59" s="61"/>
     </row>
@@ -9782,7 +10612,7 @@
         <v>442</v>
       </c>
       <c r="D60" s="61" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E60" s="61"/>
     </row>
@@ -9798,7 +10628,7 @@
         <v>443</v>
       </c>
       <c r="D61" s="61" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E61" s="61"/>
     </row>
@@ -9814,7 +10644,7 @@
         <v>444</v>
       </c>
       <c r="D62" s="61" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E62" s="61"/>
     </row>
@@ -9830,7 +10660,7 @@
         <v>445</v>
       </c>
       <c r="D63" s="61" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E63" s="61"/>
     </row>
@@ -9846,7 +10676,7 @@
         <v>446</v>
       </c>
       <c r="D64" s="61" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E64" s="61"/>
     </row>
@@ -9862,7 +10692,7 @@
         <v>447</v>
       </c>
       <c r="D65" s="61" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E65" s="61"/>
     </row>
@@ -9878,7 +10708,7 @@
         <v>448</v>
       </c>
       <c r="D66" s="61" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E66" s="61"/>
     </row>
@@ -9894,7 +10724,7 @@
         <v>449</v>
       </c>
       <c r="D67" s="61" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E67" s="61"/>
     </row>
@@ -9910,7 +10740,7 @@
         <v>450</v>
       </c>
       <c r="D68" s="61" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E68" s="61"/>
     </row>
@@ -9926,7 +10756,7 @@
         <v>301</v>
       </c>
       <c r="D69" s="61" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E69" s="61"/>
     </row>
@@ -9942,7 +10772,7 @@
         <v>302</v>
       </c>
       <c r="D70" s="61" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E70" s="61"/>
     </row>
@@ -9958,7 +10788,7 @@
         <v>304</v>
       </c>
       <c r="D71" s="61" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E71" s="61"/>
     </row>
@@ -9974,7 +10804,7 @@
         <v>305</v>
       </c>
       <c r="D72" s="61" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E72" s="61"/>
     </row>
@@ -9990,7 +10820,7 @@
         <v>320</v>
       </c>
       <c r="D73" s="61" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E73" s="61"/>
     </row>
@@ -10006,7 +10836,7 @@
         <v>311</v>
       </c>
       <c r="D74" s="61" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E74" s="61"/>
     </row>
@@ -10022,7 +10852,7 @@
         <v>312</v>
       </c>
       <c r="D75" s="61" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E75" s="61"/>
     </row>
@@ -10038,7 +10868,7 @@
         <v>313</v>
       </c>
       <c r="D76" s="61" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E76" s="61"/>
     </row>
@@ -10054,7 +10884,7 @@
         <v>314</v>
       </c>
       <c r="D77" s="61" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E77" s="61"/>
     </row>
@@ -10070,7 +10900,7 @@
         <v>315</v>
       </c>
       <c r="D78" s="61" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E78" s="61"/>
     </row>
@@ -10086,7 +10916,7 @@
         <v>316</v>
       </c>
       <c r="D79" s="61" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E79" s="61"/>
     </row>
@@ -10102,7 +10932,7 @@
         <v>317</v>
       </c>
       <c r="D80" s="61" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E80" s="61"/>
     </row>
@@ -10118,7 +10948,7 @@
         <v>318</v>
       </c>
       <c r="D81" s="61" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E81" s="61"/>
     </row>
@@ -10134,7 +10964,7 @@
         <v>321</v>
       </c>
       <c r="D82" s="61" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E82" s="61"/>
     </row>
@@ -10150,7 +10980,7 @@
         <v>331</v>
       </c>
       <c r="D83" s="61" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E83" s="61"/>
     </row>
@@ -10166,7 +10996,7 @@
         <v>332</v>
       </c>
       <c r="D84" s="61" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E84" s="61"/>
     </row>
@@ -10182,7 +11012,7 @@
         <v>333</v>
       </c>
       <c r="D85" s="61" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E85" s="61"/>
     </row>
@@ -10198,7 +11028,7 @@
         <v>334</v>
       </c>
       <c r="D86" s="61" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E86" s="61"/>
     </row>
@@ -10214,7 +11044,7 @@
         <v>335</v>
       </c>
       <c r="D87" s="61" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E87" s="61"/>
     </row>
@@ -10230,7 +11060,7 @@
         <v>336</v>
       </c>
       <c r="D88" s="61" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E88" s="61"/>
     </row>
@@ -10246,7 +11076,7 @@
         <v>337</v>
       </c>
       <c r="D89" s="61" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E89" s="61"/>
     </row>
@@ -10262,7 +11092,7 @@
         <v>338</v>
       </c>
       <c r="D90" s="61" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E90" s="61"/>
     </row>
@@ -10278,7 +11108,7 @@
         <v>339</v>
       </c>
       <c r="D91" s="61" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E91" s="61"/>
     </row>
@@ -10294,7 +11124,7 @@
         <v>340</v>
       </c>
       <c r="D92" s="61" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E92" s="61"/>
     </row>
@@ -10310,7 +11140,7 @@
         <v>341</v>
       </c>
       <c r="D93" s="61" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E93" s="61"/>
     </row>
@@ -10326,7 +11156,7 @@
         <v>342</v>
       </c>
       <c r="D94" s="61" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E94" s="61"/>
     </row>
@@ -10342,7 +11172,7 @@
         <v>347</v>
       </c>
       <c r="D95" s="61" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E95" s="61"/>
     </row>
@@ -10358,7 +11188,7 @@
         <v>348</v>
       </c>
       <c r="D96" s="61" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E96" s="61"/>
     </row>
@@ -10374,7 +11204,7 @@
         <v>349</v>
       </c>
       <c r="D97" s="61" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E97" s="61"/>
     </row>
@@ -10390,7 +11220,7 @@
         <v>901</v>
       </c>
       <c r="D98" s="61" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E98" s="61"/>
     </row>
@@ -10406,7 +11236,7 @@
         <v>902</v>
       </c>
       <c r="D99" s="61" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E99" s="61"/>
     </row>
@@ -10422,7 +11252,7 @@
         <v>903</v>
       </c>
       <c r="D100" s="61" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E100" s="61"/>
     </row>
@@ -10438,7 +11268,7 @@
         <v>904</v>
       </c>
       <c r="D101" s="61" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E101" s="61"/>
     </row>
@@ -10454,7 +11284,7 @@
         <v>905</v>
       </c>
       <c r="D102" s="61" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E102" s="61"/>
     </row>
@@ -10470,7 +11300,7 @@
         <v>906</v>
       </c>
       <c r="D103" s="61" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E103" s="61"/>
     </row>
@@ -10486,7 +11316,7 @@
         <v>907</v>
       </c>
       <c r="D104" s="61" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E104" s="61"/>
     </row>
@@ -10502,7 +11332,7 @@
         <v>908</v>
       </c>
       <c r="D105" s="61" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E105" s="61"/>
     </row>
@@ -10518,7 +11348,7 @@
         <v>909</v>
       </c>
       <c r="D106" s="61" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E106" s="61"/>
     </row>
@@ -10534,7 +11364,7 @@
         <v>910</v>
       </c>
       <c r="D107" s="61" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E107" s="61"/>
     </row>
@@ -10550,7 +11380,7 @@
         <v>911</v>
       </c>
       <c r="D108" s="61" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E108" s="61"/>
     </row>
@@ -10566,7 +11396,7 @@
         <v>912</v>
       </c>
       <c r="D109" s="61" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E109" s="61"/>
     </row>
@@ -10582,7 +11412,7 @@
         <v>913</v>
       </c>
       <c r="D110" s="61" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E110" s="61"/>
     </row>
@@ -10598,7 +11428,7 @@
         <v>915</v>
       </c>
       <c r="D111" s="61" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E111" s="61"/>
     </row>
@@ -10614,7 +11444,7 @@
         <v>916</v>
       </c>
       <c r="D112" s="61" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E112" s="61"/>
     </row>
@@ -10630,7 +11460,7 @@
         <v>917</v>
       </c>
       <c r="D113" s="61" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E113" s="61"/>
     </row>
@@ -10646,7 +11476,7 @@
         <v>918</v>
       </c>
       <c r="D114" s="61" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E114" s="61"/>
     </row>
@@ -10662,7 +11492,7 @@
         <v>919</v>
       </c>
       <c r="D115" s="61" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E115" s="61"/>
     </row>
@@ -10678,7 +11508,7 @@
         <v>920</v>
       </c>
       <c r="D116" s="61" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E116" s="61"/>
     </row>
@@ -10694,7 +11524,7 @@
         <v>921</v>
       </c>
       <c r="D117" s="61" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E117" s="61"/>
     </row>
@@ -10710,7 +11540,7 @@
         <v>922</v>
       </c>
       <c r="D118" s="61" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E118" s="61"/>
     </row>
@@ -10726,7 +11556,7 @@
         <v>923</v>
       </c>
       <c r="D119" s="61" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E119" s="61"/>
     </row>
@@ -10742,7 +11572,7 @@
         <v>930</v>
       </c>
       <c r="D120" s="61" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E120" s="61"/>
     </row>

--- a/作業伝票/◆伝票収支調査/system/伝票確認設計図.xlsx
+++ b/作業伝票/◆伝票収支調査/system/伝票確認設計図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\【Git】ShimodaPrint\作業伝票\◆伝票収支調査\system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA514CC7-85A3-4807-89F2-40A5993456B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BD2FDC-B122-43BD-A05F-A03C7D9AB101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要設計図" sheetId="6" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="5-材料情報" sheetId="11" r:id="rId6"/>
     <sheet name="6-送料情報" sheetId="12" r:id="rId7"/>
     <sheet name="作業コード" sheetId="5" r:id="rId8"/>
+    <sheet name="フォーム動作" sheetId="13" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="課コード">'4-作業情報'!$B$6:$C$12</definedName>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="458">
   <si>
     <t>数値</t>
   </si>
@@ -3635,6 +3636,60 @@
     <t>作業日</t>
     <rPh sb="0" eb="3">
       <t>サギョウビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>◆基本動作</t>
+    <rPh sb="1" eb="5">
+      <t>キホンドウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>伝票番号を入れて､調査開始を押すと各テーブルから必要情報を取ってくる処理が走る</t>
+    <rPh sb="0" eb="2">
+      <t>デンヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ハシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プリントアウトで出力できる</t>
+    <rPh sb="8" eb="10">
+      <t>シュツリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3982,7 +4037,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="67">
+  <dxfs count="42">
     <dxf>
       <fill>
         <patternFill>
@@ -4112,98 +4167,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFEFE5F7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEFE5F7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEFE5F7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDDDD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4267,90 +4231,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEFE5F7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEFE5F7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6788,16 +6668,16 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="F9:G36">
-    <cfRule type="expression" dxfId="66" priority="1">
+    <cfRule type="expression" dxfId="41" priority="1">
       <formula>$G9="日時"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="2">
+    <cfRule type="expression" dxfId="40" priority="2">
       <formula>$G9="通貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="3">
+    <cfRule type="expression" dxfId="39" priority="3">
       <formula>$G9="数値"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="4">
+    <cfRule type="expression" dxfId="38" priority="4">
       <formula>$G9="文字列"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8537,36 +8417,36 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="E32:G114 E16:G25">
-    <cfRule type="expression" dxfId="62" priority="7">
+  <conditionalFormatting sqref="E16:G25 E32:G114">
+    <cfRule type="expression" dxfId="37" priority="7">
       <formula>$G16="日時"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:G114 F16:G25">
-    <cfRule type="expression" dxfId="61" priority="6">
+  <conditionalFormatting sqref="F16:G25 F32:G114">
+    <cfRule type="expression" dxfId="36" priority="6">
       <formula>$G16="時間"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="8">
+    <cfRule type="expression" dxfId="35" priority="8">
       <formula>$G16="通貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="9">
+    <cfRule type="expression" dxfId="34" priority="9">
       <formula>$G16="数値"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="10">
+    <cfRule type="expression" dxfId="33" priority="10">
       <formula>$G16="文字列"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:G35">
-    <cfRule type="expression" dxfId="57" priority="11">
+    <cfRule type="expression" dxfId="32" priority="11">
       <formula>$G35="日時"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="12">
+    <cfRule type="expression" dxfId="31" priority="12">
       <formula>$G35="通貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="13">
+    <cfRule type="expression" dxfId="30" priority="13">
       <formula>$G35="数値"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="14">
+    <cfRule type="expression" dxfId="29" priority="14">
       <formula>$G35="文字列"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8581,7 +8461,7 @@
   </sheetPr>
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
@@ -9045,28 +8925,28 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="E9:E19 L9:M19">
-    <cfRule type="expression" dxfId="53" priority="3">
+  <conditionalFormatting sqref="J9:J19">
+    <cfRule type="expression" dxfId="28" priority="1">
+      <formula>$M9="日時"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9:M19 E9:E19">
+    <cfRule type="expression" dxfId="27" priority="3">
       <formula>$M9="日時"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:M19">
-    <cfRule type="expression" dxfId="52" priority="2">
+    <cfRule type="expression" dxfId="26" priority="2">
       <formula>$M9="時間"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="4">
+    <cfRule type="expression" dxfId="25" priority="4">
       <formula>$M9="通貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="5">
+    <cfRule type="expression" dxfId="24" priority="5">
       <formula>$M9="数値"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="6">
+    <cfRule type="expression" dxfId="23" priority="6">
       <formula>$M9="文字列"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9:J19">
-    <cfRule type="expression" dxfId="48" priority="1">
-      <formula>$M9="日時"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9505,113 +9385,86 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="E7:E17 J7:J9">
-    <cfRule type="expression" dxfId="47" priority="22">
+  <conditionalFormatting sqref="J7:J9 E7:E17">
+    <cfRule type="expression" dxfId="22" priority="22">
       <formula>$M7="日時"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7:M8 P7:P8">
-    <cfRule type="expression" dxfId="46" priority="12">
-      <formula>$G7="日時"</formula>
+  <conditionalFormatting sqref="J10:J11">
+    <cfRule type="expression" dxfId="21" priority="24">
+      <formula>$M9="日時"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12:J13">
+    <cfRule type="expression" dxfId="20" priority="37">
+      <formula>$M10="日時"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7:M8 P7:P8">
-    <cfRule type="expression" dxfId="45" priority="11">
+    <cfRule type="expression" dxfId="19" priority="11">
       <formula>$G7="時間"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="13">
+    <cfRule type="expression" dxfId="18" priority="12">
+      <formula>$G7="日時"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="13">
       <formula>$G7="通貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="14">
+    <cfRule type="expression" dxfId="16" priority="14">
       <formula>$G7="数値"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="15">
+    <cfRule type="expression" dxfId="15" priority="15">
       <formula>$G7="文字列"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10:J11">
-    <cfRule type="expression" dxfId="41" priority="24">
-      <formula>$M9="日時"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P9:P10 L9:M10">
-    <cfRule type="expression" dxfId="40" priority="27">
+  <conditionalFormatting sqref="L9:M10 P9:P10">
+    <cfRule type="expression" dxfId="14" priority="27">
       <formula>$G10="日時"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P9:P10 L9:M10">
-    <cfRule type="expression" dxfId="39" priority="32">
+    <cfRule type="expression" dxfId="13" priority="32">
       <formula>$G10="時間"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="33">
+    <cfRule type="expression" dxfId="12" priority="33">
       <formula>$G10="通貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="34">
+    <cfRule type="expression" dxfId="11" priority="34">
       <formula>$G10="数値"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="35">
+    <cfRule type="expression" dxfId="10" priority="35">
       <formula>$G10="文字列"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12:J13">
-    <cfRule type="expression" dxfId="35" priority="37">
-      <formula>$M10="日時"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="L11:M11">
-    <cfRule type="expression" dxfId="34" priority="39">
+    <cfRule type="expression" dxfId="9" priority="39">
       <formula>$G13="日時"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L12:M12">
-    <cfRule type="expression" dxfId="33" priority="40">
-      <formula>#REF!="日時"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L11:M11">
-    <cfRule type="expression" dxfId="32" priority="45">
+    <cfRule type="expression" dxfId="8" priority="45">
       <formula>$G13="時間"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="46">
+    <cfRule type="expression" dxfId="7" priority="46">
       <formula>$G13="通貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="47">
+    <cfRule type="expression" dxfId="6" priority="47">
       <formula>$G13="数値"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="48">
+    <cfRule type="expression" dxfId="5" priority="48">
       <formula>$G13="文字列"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L12:M12">
-    <cfRule type="expression" dxfId="28" priority="49">
+  <conditionalFormatting sqref="L12:M13">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>#REF!="日時"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>#REF!="時間"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="50">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>#REF!="通貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="51">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>#REF!="数値"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="52">
-      <formula>#REF!="文字列"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L13:M13">
-    <cfRule type="expression" dxfId="24" priority="1">
-      <formula>#REF!="日時"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L13:M13">
-    <cfRule type="expression" dxfId="23" priority="2">
-      <formula>#REF!="時間"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="3">
-      <formula>#REF!="通貨"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="4">
-      <formula>#REF!="数値"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="5">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>#REF!="文字列"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11587,4 +11440,49 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C604A4D2-2379-461F-8E6F-B9BFF119B3C5}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="B2:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/作業伝票/◆伝票収支調査/system/伝票確認設計図.xlsx
+++ b/作業伝票/◆伝票収支調査/system/伝票確認設計図.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\【Git】ShimodaPrint\作業伝票\◆伝票収支調査\system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BD2FDC-B122-43BD-A05F-A03C7D9AB101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EE8C90-D6C9-43E0-A2DA-1D37C68A1EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要設計図" sheetId="6" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="470">
   <si>
     <t>数値</t>
   </si>
@@ -3690,6 +3690,129 @@
     <t>プリントアウトで出力できる</t>
     <rPh sb="8" eb="10">
       <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステップ2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>04作業時間.tbx に書き出したら､各課の合計値を｢04作業時間-課集計.tbx｣に書き出す</t>
+    <rPh sb="12" eb="13">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ゴウケイチ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>伝票番号でしぼりこむ</t>
+    <rPh sb="0" eb="2">
+      <t>デンヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>行集計する</t>
+    <rPh sb="0" eb="1">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>シュウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>集計行だけ表示する</t>
+    <rPh sb="0" eb="2">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ループ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>併合する</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>処理完了</t>
+    <rPh sb="0" eb="4">
+      <t>ショリカンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>並べ替え</t>
+    <rPh sb="0" eb="1">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>条件名</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>伝票作業順</t>
+    <rPh sb="0" eb="2">
+      <t>デンヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジュン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作業IDごと集計</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウケイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3701,7 +3824,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;&amp;&quot;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3718,15 +3841,6 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -3770,14 +3884,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -3793,8 +3899,52 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3891,6 +4041,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -3956,71 +4112,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="176" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="5" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4031,8 +4160,47 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="14" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4631,19 +4799,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="1" t="s">
@@ -4671,19 +4839,19 @@
       </c>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="1" t="s">
@@ -4696,19 +4864,19 @@
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
     </row>
     <row r="17" spans="2:6">
       <c r="C17" s="1" t="s">
@@ -4833,19 +5001,19 @@
       </c>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
     </row>
     <row r="42" spans="2:12">
       <c r="B42" s="1" t="s">
@@ -5022,21 +5190,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13">
       <c r="B2" s="1" t="s">
@@ -5049,57 +5217,57 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="21" customHeight="1">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="48" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="55"/>
+      <c r="I6" s="33"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="29" t="s">
         <v>395</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="30" t="s">
         <v>90</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -5110,20 +5278,20 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <v>3</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="51" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="52" t="s">
+      <c r="G8" s="30" t="s">
         <v>90</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -5134,20 +5302,20 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>4</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="51" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="52" t="s">
+      <c r="G9" s="30" t="s">
         <v>90</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -5158,20 +5326,20 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>5</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="51" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="52" t="s">
+      <c r="G10" s="30" t="s">
         <v>90</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -5182,20 +5350,20 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <v>6</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="51" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="52" t="s">
+      <c r="G11" s="30" t="s">
         <v>90</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -5203,22 +5371,22 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="B12" s="7">
+      <c r="B12" s="5">
         <v>7</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F12" s="48" t="s">
+      <c r="F12" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="28" t="s">
         <v>65</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -5226,20 +5394,20 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="B13" s="7">
+      <c r="B13" s="5">
         <v>8</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="11"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="9"/>
       <c r="I13" s="1">
         <v>1</v>
       </c>
@@ -5248,20 +5416,20 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="B14" s="7">
+      <c r="B14" s="5">
         <v>9</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="51" t="s">
+      <c r="E14" s="6"/>
+      <c r="F14" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="52" t="s">
+      <c r="G14" s="30" t="s">
         <v>90</v>
       </c>
       <c r="I14" s="1">
@@ -5272,22 +5440,22 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="B15" s="7">
+      <c r="B15" s="5">
         <v>10</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="F15" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="49" t="s">
+      <c r="G15" s="28" t="s">
         <v>65</v>
       </c>
       <c r="I15" s="1">
@@ -5298,20 +5466,20 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="B16" s="7">
+      <c r="B16" s="5">
         <v>11</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="11"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="9"/>
       <c r="I16" s="1">
         <v>4</v>
       </c>
@@ -5320,59 +5488,59 @@
       </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="7">
+      <c r="B17" s="5">
         <v>12</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F17" s="53" t="s">
+      <c r="F17" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="54" t="s">
+      <c r="G17" s="32" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="7">
+      <c r="B18" s="5">
         <v>13</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="11"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="9"/>
       <c r="I18" s="1" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="7">
+      <c r="B19" s="5">
         <v>14</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="56" t="s">
+      <c r="E19" s="6"/>
+      <c r="F19" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="G19" s="57" t="s">
+      <c r="G19" s="35" t="s">
         <v>87</v>
       </c>
       <c r="I19" s="1">
@@ -5380,20 +5548,20 @@
       </c>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="7">
+      <c r="B20" s="5">
         <v>15</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="56" t="s">
+      <c r="E20" s="6"/>
+      <c r="F20" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="G20" s="57" t="s">
+      <c r="G20" s="35" t="s">
         <v>87</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -5401,244 +5569,244 @@
       </c>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="7">
+      <c r="B21" s="5">
         <v>16</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="56" t="s">
+      <c r="E21" s="6"/>
+      <c r="F21" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="57" t="s">
+      <c r="G21" s="35" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="7">
+      <c r="B22" s="5">
         <v>17</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="56" t="s">
+      <c r="E22" s="6"/>
+      <c r="F22" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="G22" s="57" t="s">
+      <c r="G22" s="35" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="7">
+      <c r="B23" s="5">
         <v>18</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="56" t="s">
+      <c r="E23" s="6"/>
+      <c r="F23" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="G23" s="57" t="s">
+      <c r="G23" s="35" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="7">
+      <c r="B24" s="5">
         <v>19</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="56" t="s">
+      <c r="E24" s="6"/>
+      <c r="F24" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="G24" s="57" t="s">
+      <c r="G24" s="35" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="7">
+      <c r="B25" s="5">
         <v>20</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="56" t="s">
+      <c r="E25" s="6"/>
+      <c r="F25" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G25" s="57" t="s">
+      <c r="G25" s="35" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="7">
+      <c r="B26" s="5">
         <v>21</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="56" t="s">
+      <c r="E26" s="6"/>
+      <c r="F26" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="G26" s="57" t="s">
+      <c r="G26" s="35" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="7">
+      <c r="B27" s="5">
         <v>22</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="56" t="s">
+      <c r="E27" s="6"/>
+      <c r="F27" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="G27" s="57" t="s">
+      <c r="G27" s="35" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="7">
+      <c r="B28" s="5">
         <v>23</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="56" t="s">
+      <c r="E28" s="6"/>
+      <c r="F28" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="G28" s="57" t="s">
+      <c r="G28" s="35" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="7">
+      <c r="B29" s="5">
         <v>24</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="56" t="s">
+      <c r="E29" s="6"/>
+      <c r="F29" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="G29" s="57" t="s">
+      <c r="G29" s="35" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="7">
+      <c r="B30" s="5">
         <v>25</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="56" t="s">
+      <c r="E30" s="6"/>
+      <c r="F30" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="G30" s="57" t="s">
+      <c r="G30" s="35" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="7">
+      <c r="B31" s="5">
         <v>26</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F31" s="48" t="s">
+      <c r="F31" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="G31" s="49" t="s">
+      <c r="G31" s="28" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -5767,22 +5935,22 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1"/>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="17" t="s">
         <v>62</v>
       </c>
       <c r="H7" s="1"/>
@@ -5794,16 +5962,16 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1"/>
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <v>1</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="48" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="28" t="s">
         <v>65</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -5817,20 +5985,20 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1"/>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>2</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="48" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="28" t="s">
         <v>1</v>
       </c>
       <c r="H9" s="1"/>
@@ -5842,20 +6010,20 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1"/>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>3</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="48" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="28" t="s">
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -5869,20 +6037,20 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1"/>
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <v>4</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="51" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="G11" s="52" t="s">
+      <c r="G11" s="30" t="s">
         <v>112</v>
       </c>
       <c r="H11" s="1"/>
@@ -5894,20 +6062,20 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1"/>
-      <c r="B12" s="7">
+      <c r="B12" s="5">
         <v>5</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="51" t="s">
+      <c r="E12" s="6"/>
+      <c r="F12" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="G12" s="52" t="s">
+      <c r="G12" s="30" t="s">
         <v>112</v>
       </c>
       <c r="H12" s="1"/>
@@ -5919,20 +6087,20 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1"/>
-      <c r="B13" s="7">
+      <c r="B13" s="5">
         <v>6</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="48" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="G13" s="49" t="s">
+      <c r="G13" s="28" t="s">
         <v>1</v>
       </c>
       <c r="H13" s="1"/>
@@ -5943,160 +6111,160 @@
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="B14" s="7">
+      <c r="B14" s="5">
         <v>7</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="51" t="s">
+      <c r="E14" s="6"/>
+      <c r="F14" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="G14" s="52" t="s">
+      <c r="G14" s="30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="B15" s="7">
+      <c r="B15" s="5">
         <v>8</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="51" t="s">
+      <c r="E15" s="6"/>
+      <c r="F15" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="G15" s="52" t="s">
+      <c r="G15" s="30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="B16" s="7">
+      <c r="B16" s="5">
         <v>9</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="48" t="s">
+      <c r="E16" s="6"/>
+      <c r="F16" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="G16" s="49" t="s">
+      <c r="G16" s="28" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="7">
+      <c r="B17" s="5">
         <v>10</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="48" t="s">
+      <c r="E17" s="6"/>
+      <c r="F17" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="G17" s="49" t="s">
+      <c r="G17" s="28" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="7">
+      <c r="B18" s="5">
         <v>11</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="56" t="s">
+      <c r="E18" s="6"/>
+      <c r="F18" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="G18" s="57" t="s">
+      <c r="G18" s="35" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="7">
+      <c r="B19" s="5">
         <v>12</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="56" t="s">
+      <c r="E19" s="6"/>
+      <c r="F19" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="G19" s="57" t="s">
+      <c r="G19" s="35" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="11"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="11"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="11"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="11"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="11"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="11"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -6123,21 +6291,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1"/>
@@ -6250,22 +6418,22 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1"/>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="13" t="s">
         <v>62</v>
       </c>
       <c r="H8" s="1"/>
@@ -6277,14 +6445,14 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="19" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="9" t="s">
         <v>65</v>
       </c>
       <c r="H9" s="1"/>
@@ -6296,14 +6464,14 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="19" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="9" t="s">
         <v>65</v>
       </c>
       <c r="H10" s="1"/>
@@ -6315,18 +6483,18 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="19" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="9" t="s">
         <v>90</v>
       </c>
       <c r="H11" s="1"/>
@@ -6338,18 +6506,18 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="19" t="s">
+      <c r="E12" s="6"/>
+      <c r="F12" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="9" t="s">
         <v>90</v>
       </c>
       <c r="H12" s="1"/>
@@ -6361,18 +6529,18 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="19" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="9" t="s">
         <v>90</v>
       </c>
       <c r="H13" s="1"/>
@@ -6384,18 +6552,18 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="19" t="s">
+      <c r="E14" s="6"/>
+      <c r="F14" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="9" t="s">
         <v>65</v>
       </c>
       <c r="H14" s="1"/>
@@ -6406,264 +6574,264 @@
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="19" t="s">
+      <c r="E15" s="6"/>
+      <c r="F15" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="11"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="9" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="19.5" thickBot="1">
-      <c r="B18" s="27"/>
-      <c r="C18" s="27" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="29" t="s">
+      <c r="E18" s="23"/>
+      <c r="F18" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="25" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="19.5" thickTop="1">
-      <c r="B19" s="23"/>
-      <c r="C19" s="23" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="25" t="s">
+      <c r="E19" s="19"/>
+      <c r="F19" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="G19" s="26"/>
+      <c r="G19" s="21"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="19" t="s">
+      <c r="E20" s="6"/>
+      <c r="F20" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="G20" s="11"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="19" t="s">
+      <c r="E21" s="6"/>
+      <c r="F21" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="G21" s="11"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="19" t="s">
+      <c r="E22" s="6"/>
+      <c r="F22" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="G22" s="11"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="19" t="s">
+      <c r="E23" s="6"/>
+      <c r="F23" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="G23" s="11"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="11"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="G25" s="11"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="19" t="s">
+      <c r="E26" s="6"/>
+      <c r="F26" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="G26" s="11"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8" t="s">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="11"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="11"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="11"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="11"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="11"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="9"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="11"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="11"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="11"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="11"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="9"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="11"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -6691,1738 +6859,1479 @@
   <sheetPr codeName="Sheet5">
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:U88"/>
+  <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:G18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.125" customWidth="1"/>
+    <col min="1" max="1" width="9" style="44"/>
+    <col min="2" max="2" width="14.875" style="44" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="44" customWidth="1"/>
+    <col min="4" max="5" width="9" style="44"/>
+    <col min="6" max="6" width="13.375" style="44" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="44"/>
+    <col min="8" max="8" width="26.125" style="44" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="P4" s="22" t="s">
+      <c r="P4" s="44" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1">
+      <c r="B6" s="44">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1">
+      <c r="B7" s="44">
         <v>2</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="P7" s="4"/>
+      <c r="P7" s="45"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1">
+      <c r="B8" s="44">
         <v>3</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1">
+      <c r="B9" s="44">
         <v>4</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="44" t="s">
         <v>365</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1">
+      <c r="B10" s="44">
         <v>5</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="44" t="s">
         <v>363</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1">
+      <c r="B11" s="44">
         <v>6</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="44" t="s">
         <v>364</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1">
+      <c r="B12" s="44">
         <v>7</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="44" t="s">
         <v>366</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="1"/>
-      <c r="B14" t="s">
+      <c r="B14" s="44" t="s">
         <v>244</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="44" t="s">
         <v>389</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="1"/>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="59" t="s">
+      <c r="F15" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="59" t="s">
+      <c r="G15" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="1"/>
-      <c r="B16" s="7">
+      <c r="B16" s="48">
         <v>1</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8" t="s">
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49" t="s">
         <v>376</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:21">
-      <c r="A17" s="1"/>
-      <c r="B17" s="7">
+    </row>
+    <row r="17" spans="2:21">
+      <c r="B17" s="48">
         <v>2</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="19" t="s">
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="50" t="s">
         <v>393</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="44" t="s">
         <v>394</v>
       </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:21">
-      <c r="A18" s="1"/>
-      <c r="B18" s="7">
+    </row>
+    <row r="18" spans="2:21">
+      <c r="B18" s="48">
         <v>9</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="19" t="s">
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="50" t="s">
         <v>454</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="51" t="s">
         <v>239</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:21">
-      <c r="A19" s="1"/>
-      <c r="B19" s="7">
+    </row>
+    <row r="19" spans="2:21">
+      <c r="B19" s="48">
         <v>2</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8" t="s">
+      <c r="D19" s="49"/>
+      <c r="E19" s="49" t="s">
         <v>379</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="50" t="s">
         <v>367</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="1:21">
-      <c r="A20" s="1"/>
-      <c r="B20" s="7">
+    </row>
+    <row r="20" spans="2:21">
+      <c r="B20" s="48">
         <v>3</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="48" t="s">
         <v>391</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8" t="s">
+      <c r="D20" s="49"/>
+      <c r="E20" s="49" t="s">
         <v>378</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="50" t="s">
         <v>374</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="51" t="s">
         <v>375</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="1:21">
-      <c r="A21" s="1"/>
-      <c r="B21" s="7">
+    </row>
+    <row r="21" spans="2:21">
+      <c r="B21" s="48">
         <v>4</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="49" t="s">
         <v>377</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="50" t="s">
         <v>369</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="1:21">
-      <c r="A22" s="1"/>
-      <c r="B22" s="7">
+    </row>
+    <row r="22" spans="2:21">
+      <c r="B22" s="48">
         <v>5</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="48" t="s">
         <v>392</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8" t="s">
+      <c r="D22" s="49"/>
+      <c r="E22" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="50" t="s">
         <v>370</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="51" t="s">
         <v>375</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="1:21">
-      <c r="A23" s="1"/>
-      <c r="B23" s="7">
+    </row>
+    <row r="23" spans="2:21">
+      <c r="B23" s="48">
         <v>6</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8" t="s">
+      <c r="D23" s="49"/>
+      <c r="E23" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="1:21">
-      <c r="A24" s="1"/>
-      <c r="B24" s="7">
+    </row>
+    <row r="24" spans="2:21">
+      <c r="B24" s="48">
         <v>7</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8" t="s">
+      <c r="D24" s="49"/>
+      <c r="E24" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="1:21">
-      <c r="A25" s="1"/>
-      <c r="B25" s="7">
+    </row>
+    <row r="25" spans="2:21">
+      <c r="B25" s="48">
         <v>8</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8" t="s">
+      <c r="D25" s="49"/>
+      <c r="E25" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="1:21">
-      <c r="A26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="1:21">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="1:21">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1" t="s">
+    </row>
+    <row r="28" spans="2:21">
+      <c r="B28" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-    </row>
-    <row r="29" spans="1:21">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1" t="s">
+    </row>
+    <row r="29" spans="2:21">
+      <c r="B29" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-    </row>
-    <row r="30" spans="1:21">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1" t="s">
+    </row>
+    <row r="30" spans="2:21">
+      <c r="B30" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="32" t="s">
+      <c r="M30" s="52" t="s">
         <v>199</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="N30" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-    </row>
-    <row r="31" spans="1:21">
-      <c r="A31" s="1"/>
-      <c r="B31" s="17" t="s">
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="52"/>
+      <c r="T30" s="52"/>
+      <c r="U30" s="52"/>
+    </row>
+    <row r="31" spans="2:21">
+      <c r="B31" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="G31" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1" t="s">
+      <c r="M31" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N31" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="O31" t="s">
+      <c r="O31" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="P31" s="31" t="s">
+      <c r="P31" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="Q31" s="1" t="s">
+      <c r="Q31" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="R31" s="31" t="s">
+      <c r="R31" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="S31" s="1" t="s">
+      <c r="S31" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="T31" t="s">
+      <c r="T31" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="U31" t="s">
+      <c r="U31" s="44" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
-      <c r="A32" s="1"/>
-      <c r="B32" s="7">
+    <row r="32" spans="2:21">
+      <c r="B32" s="48">
         <v>1</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="19" t="s">
+      <c r="E32" s="49"/>
+      <c r="F32" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1" t="s">
+      <c r="M32" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="N32" t="s">
+      <c r="N32" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="O32" t="s">
+      <c r="O32" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="P32" s="31" t="s">
+      <c r="P32" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="Q32" s="1" t="s">
+      <c r="Q32" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="R32" s="31" t="s">
+      <c r="R32" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="S32" s="1" t="s">
+      <c r="S32" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="T32" t="s">
+      <c r="T32" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="U32" t="s">
+      <c r="U32" s="44" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
-      <c r="A33" s="1"/>
-      <c r="B33" s="7">
+    <row r="33" spans="2:21">
+      <c r="B33" s="48">
         <v>2</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="19" t="s">
+      <c r="E33" s="49"/>
+      <c r="F33" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" t="s">
+      <c r="N33" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="O33" t="s">
+      <c r="O33" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="P33" s="31" t="s">
+      <c r="P33" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="Q33" s="1" t="s">
+      <c r="Q33" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="R33" s="31" t="s">
+      <c r="R33" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="S33" s="1" t="s">
+      <c r="S33" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="T33" t="s">
+      <c r="T33" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="U33" t="s">
+      <c r="U33" s="44" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="19.5" thickBot="1">
-      <c r="A34" s="1"/>
-      <c r="B34" s="7">
+    <row r="34" spans="2:21" ht="19.5" thickBot="1">
+      <c r="B34" s="48">
         <v>3</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="19" t="s">
+      <c r="E34" s="49"/>
+      <c r="F34" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="43" t="s">
+      <c r="M34" s="56"/>
+      <c r="N34" s="56" t="s">
         <v>200</v>
       </c>
-      <c r="O34" s="43" t="s">
+      <c r="O34" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="P34" s="44" t="s">
+      <c r="P34" s="57" t="s">
         <v>201</v>
       </c>
-      <c r="Q34" s="42" t="s">
+      <c r="Q34" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="R34" s="44" t="s">
+      <c r="R34" s="57" t="s">
         <v>201</v>
       </c>
-      <c r="S34" s="42" t="s">
+      <c r="S34" s="56" t="s">
         <v>202</v>
       </c>
-      <c r="T34" s="43" t="s">
+      <c r="T34" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="U34" s="43" t="s">
+      <c r="U34" s="56" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="19.5" thickTop="1">
-      <c r="A35" s="1"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1" t="s">
+    <row r="35" spans="2:21" ht="19.5" thickTop="1">
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="51"/>
+      <c r="M35" s="44" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
-      <c r="M36" s="1"/>
-    </row>
-    <row r="37" spans="1:21">
-      <c r="B37" t="s">
+    <row r="37" spans="2:21">
+      <c r="B37" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="45"/>
-      <c r="P37" s="45"/>
-      <c r="Q37" s="45"/>
-      <c r="R37" s="45"/>
-      <c r="S37" s="45"/>
-      <c r="T37" s="45"/>
-      <c r="U37" s="45"/>
-    </row>
-    <row r="38" spans="1:21">
-      <c r="B38" s="1" t="s">
+      <c r="M37" s="58"/>
+      <c r="N37" s="58"/>
+      <c r="O37" s="58"/>
+      <c r="P37" s="58"/>
+      <c r="Q37" s="58"/>
+      <c r="R37" s="58"/>
+      <c r="S37" s="58"/>
+      <c r="T37" s="58"/>
+      <c r="U37" s="58"/>
+    </row>
+    <row r="38" spans="2:21">
+      <c r="B38" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="M38" s="1" t="s">
+      <c r="M38" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="N38" t="s">
+      <c r="N38" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="O38" t="s">
+      <c r="O38" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="P38" s="31" t="s">
+      <c r="P38" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="Q38" s="1" t="s">
+      <c r="Q38" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="R38" s="31" t="s">
+      <c r="R38" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="S38" s="1" t="s">
+      <c r="S38" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="T38" t="s">
+      <c r="T38" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="U38" t="s">
+      <c r="U38" s="44" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
-      <c r="B39" s="1" t="s">
+    <row r="39" spans="2:21">
+      <c r="B39" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="M39" s="1" t="s">
+      <c r="M39" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="N39" t="s">
+      <c r="N39" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="O39" t="s">
+      <c r="O39" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="P39" s="31" t="s">
+      <c r="P39" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="Q39" s="1" t="s">
+      <c r="Q39" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="R39" s="31" t="s">
+      <c r="R39" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="S39" s="1" t="s">
+      <c r="S39" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="T39" t="s">
+      <c r="T39" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="U39" t="s">
+      <c r="U39" s="44" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
-      <c r="B40" s="20" t="s">
+    <row r="40" spans="2:21">
+      <c r="B40" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="E40" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="F40" s="21" t="s">
+      <c r="F40" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="G40" s="21" t="s">
+      <c r="G40" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="M40" s="1"/>
-      <c r="N40" t="s">
+      <c r="N40" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="O40" t="s">
+      <c r="O40" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="P40" s="31" t="s">
+      <c r="P40" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="Q40" s="1" t="s">
+      <c r="Q40" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="R40" s="31" t="s">
+      <c r="R40" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="S40" s="1" t="s">
+      <c r="S40" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="T40" t="s">
+      <c r="T40" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="U40" t="s">
+      <c r="U40" s="44" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="19.5" thickBot="1">
-      <c r="B41" s="7">
+    <row r="41" spans="2:21" ht="19.5" thickBot="1">
+      <c r="B41" s="48">
         <v>1</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="19" t="s">
+      <c r="E41" s="49"/>
+      <c r="F41" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="G41" s="11" t="s">
+      <c r="G41" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="M41" s="42"/>
-      <c r="N41" s="43" t="s">
+      <c r="M41" s="56"/>
+      <c r="N41" s="56" t="s">
         <v>200</v>
       </c>
-      <c r="O41" s="43" t="s">
+      <c r="O41" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="P41" s="44" t="s">
+      <c r="P41" s="57" t="s">
         <v>201</v>
       </c>
-      <c r="Q41" s="42" t="s">
+      <c r="Q41" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="R41" s="44" t="s">
+      <c r="R41" s="57" t="s">
         <v>201</v>
       </c>
-      <c r="S41" s="42" t="s">
+      <c r="S41" s="56" t="s">
         <v>202</v>
       </c>
-      <c r="T41" s="43" t="s">
+      <c r="T41" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="U41" s="43" t="s">
+      <c r="U41" s="56" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="19.5" thickTop="1">
-      <c r="B42" s="7">
+    <row r="42" spans="2:21" ht="19.5" thickTop="1">
+      <c r="B42" s="48">
         <v>2</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="19" t="s">
+      <c r="E42" s="49"/>
+      <c r="F42" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="G42" s="11" t="s">
+      <c r="G42" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="M42" s="44" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="43" spans="1:21">
-      <c r="B43" s="7">
+    <row r="43" spans="2:21">
+      <c r="B43" s="48">
         <v>3</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="19" t="s">
+      <c r="E43" s="49"/>
+      <c r="F43" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="G43" s="11" t="s">
+      <c r="G43" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="44">
         <v>0</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="44">
         <v>2</v>
       </c>
-      <c r="M43" s="1"/>
-    </row>
-    <row r="44" spans="1:21">
-      <c r="B44" s="46">
+    </row>
+    <row r="44" spans="2:21">
+      <c r="B44" s="61">
         <v>4</v>
       </c>
-      <c r="C44" s="46" t="s">
+      <c r="C44" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="D44" s="47" t="s">
+      <c r="D44" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="E44" s="47" t="s">
+      <c r="E44" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="F44" s="48" t="s">
+      <c r="F44" s="63" t="s">
         <v>210</v>
       </c>
-      <c r="G44" s="49" t="s">
+      <c r="G44" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="H44" s="50" t="s">
+      <c r="H44" s="65" t="s">
         <v>230</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44" s="44" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
-      <c r="B45" s="46">
+    <row r="45" spans="2:21">
+      <c r="B45" s="61">
         <v>5</v>
       </c>
-      <c r="C45" s="46"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47" t="s">
+      <c r="C45" s="61"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="48" t="s">
+      <c r="F45" s="63" t="s">
         <v>211</v>
       </c>
-      <c r="G45" s="49" t="s">
+      <c r="G45" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="H45" s="50" t="s">
+      <c r="H45" s="65" t="s">
         <v>230</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="M45" t="s">
+      <c r="M45" s="44" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
-      <c r="B46" s="46">
+    <row r="46" spans="2:21">
+      <c r="B46" s="61">
         <v>6</v>
       </c>
-      <c r="C46" s="46" t="s">
+      <c r="C46" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="D46" s="47" t="s">
+      <c r="D46" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="E46" s="47" t="s">
+      <c r="E46" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="F46" s="48" t="s">
+      <c r="F46" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="G46" s="49" t="s">
+      <c r="G46" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="H46" s="50" t="s">
+      <c r="H46" s="65" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="47" spans="1:21">
-      <c r="B47" s="46">
+    <row r="47" spans="2:21">
+      <c r="B47" s="61">
         <v>7</v>
       </c>
-      <c r="C47" s="46"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47" t="s">
+      <c r="C47" s="61"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="F47" s="48" t="s">
+      <c r="F47" s="63" t="s">
         <v>214</v>
       </c>
-      <c r="G47" s="49" t="s">
+      <c r="G47" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="H47" s="50" t="s">
+      <c r="H47" s="65" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
-      <c r="B48" s="7">
+    <row r="48" spans="2:21">
+      <c r="B48" s="48">
         <v>8</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="11"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="51"/>
     </row>
     <row r="49" spans="2:9">
-      <c r="B49" s="7">
+      <c r="B49" s="48">
         <v>9</v>
       </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="11"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="51"/>
     </row>
     <row r="50" spans="2:9">
-      <c r="B50" s="7">
+      <c r="B50" s="48">
         <v>10</v>
       </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="11"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="51"/>
     </row>
     <row r="51" spans="2:9">
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="37"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="68"/>
     </row>
     <row r="52" spans="2:9">
-      <c r="B52" t="s">
+      <c r="B52" s="44" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="53" spans="2:9">
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
     </row>
     <row r="54" spans="2:9">
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
     </row>
     <row r="55" spans="2:9">
-      <c r="B55" s="33" t="s">
+      <c r="B55" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="33" t="s">
+      <c r="C55" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="D55" s="33" t="s">
+      <c r="D55" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="E55" s="33" t="s">
+      <c r="E55" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="F55" s="34" t="s">
+      <c r="F55" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="G55" s="34" t="s">
+      <c r="G55" s="70" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="56" spans="2:9">
-      <c r="B56" s="7">
+      <c r="B56" s="48">
         <v>1</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="E56" s="8"/>
-      <c r="F56" s="19" t="s">
+      <c r="E56" s="49"/>
+      <c r="F56" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="G56" s="11" t="s">
+      <c r="G56" s="51" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="57" spans="2:9">
-      <c r="B57" s="7">
+      <c r="B57" s="48">
         <v>2</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="F57" s="19" t="s">
+      <c r="F57" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="G57" s="11" t="s">
+      <c r="G57" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I57" s="44" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="58" spans="2:9">
-      <c r="B58" s="7">
+      <c r="B58" s="48">
         <v>2</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E58" s="8"/>
-      <c r="F58" s="19" t="s">
+      <c r="E58" s="49"/>
+      <c r="F58" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="G58" s="11" t="s">
+      <c r="G58" s="51" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="59" spans="2:9">
-      <c r="B59" s="7">
+      <c r="B59" s="48">
         <v>3</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E59" s="8"/>
-      <c r="F59" s="19" t="s">
+      <c r="E59" s="49"/>
+      <c r="F59" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="G59" s="11" t="s">
+      <c r="G59" s="51" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="62" spans="2:9">
-      <c r="B62" t="s">
+      <c r="B62" s="44" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="63" spans="2:9">
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
     </row>
     <row r="64" spans="2:9">
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="38" t="s">
+      <c r="B65" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="C65" s="38" t="s">
+      <c r="C65" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="D65" s="38" t="s">
+      <c r="D65" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="E65" s="38" t="s">
+      <c r="E65" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="F65" s="39" t="s">
+      <c r="F65" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="G65" s="39" t="s">
+      <c r="G65" s="72" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="66" spans="2:7">
-      <c r="B66" s="7">
+      <c r="B66" s="48">
         <v>1</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="E66" s="8"/>
-      <c r="F66" s="19" t="s">
+      <c r="E66" s="49"/>
+      <c r="F66" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="G66" s="11" t="s">
+      <c r="G66" s="51" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="67" spans="2:7">
-      <c r="B67" s="7">
+      <c r="B67" s="48">
         <v>2</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="F67" s="19" t="s">
+      <c r="F67" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="G67" s="11" t="s">
+      <c r="G67" s="51" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="68" spans="2:7">
-      <c r="B68" s="7">
+      <c r="B68" s="48">
         <v>2</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E68" s="8"/>
-      <c r="F68" s="19" t="s">
+      <c r="E68" s="49"/>
+      <c r="F68" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="G68" s="11" t="s">
+      <c r="G68" s="51" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="7">
+      <c r="B69" s="48">
         <v>3</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E69" s="8"/>
-      <c r="F69" s="19" t="s">
+      <c r="E69" s="49"/>
+      <c r="F69" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="G69" s="11" t="s">
+      <c r="G69" s="51" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="72" spans="2:7">
-      <c r="B72" t="s">
+      <c r="B72" s="44" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="73" spans="2:7">
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
     </row>
     <row r="74" spans="2:7">
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="C75" s="14" t="s">
+      <c r="C75" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="D75" s="14" t="s">
+      <c r="D75" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="E75" s="14" t="s">
+      <c r="E75" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="F75" s="15" t="s">
+      <c r="F75" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="G75" s="15" t="s">
+      <c r="G75" s="74" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="7">
+      <c r="B76" s="48">
         <v>1</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="E76" s="8"/>
-      <c r="F76" s="19" t="s">
+      <c r="E76" s="49"/>
+      <c r="F76" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="G76" s="11" t="s">
+      <c r="G76" s="51" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="7">
+      <c r="B77" s="48">
         <v>2</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="E77" s="8" t="s">
+      <c r="E77" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="F77" s="19" t="s">
+      <c r="F77" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="G77" s="11" t="s">
+      <c r="G77" s="51" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="7">
+      <c r="B78" s="48">
         <v>2</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="D78" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E78" s="8"/>
-      <c r="F78" s="19" t="s">
+      <c r="E78" s="49"/>
+      <c r="F78" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="G78" s="11" t="s">
+      <c r="G78" s="51" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="7">
+      <c r="B79" s="48">
         <v>3</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D79" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E79" s="8"/>
-      <c r="F79" s="19" t="s">
+      <c r="E79" s="49"/>
+      <c r="F79" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="G79" s="11" t="s">
+      <c r="G79" s="51" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="2:8">
-      <c r="B81" t="s">
+    <row r="81" spans="2:20">
+      <c r="B81" s="44" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="82" spans="2:8">
-      <c r="B82" s="1" t="s">
+    <row r="82" spans="2:20">
+      <c r="B82" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-    </row>
-    <row r="83" spans="2:8">
-      <c r="B83" s="1" t="s">
+    </row>
+    <row r="83" spans="2:20">
+      <c r="B83" s="44" t="s">
         <v>226</v>
       </c>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-    </row>
-    <row r="84" spans="2:8">
-      <c r="B84" s="40" t="s">
+    </row>
+    <row r="84" spans="2:20">
+      <c r="B84" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="C84" s="40" t="s">
+      <c r="C84" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="D84" s="40" t="s">
+      <c r="D84" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="E84" s="40" t="s">
+      <c r="E84" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="F84" s="41" t="s">
+      <c r="F84" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="G84" s="41" t="s">
+      <c r="G84" s="76" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="85" spans="2:8">
-      <c r="B85" s="7">
+    <row r="85" spans="2:20">
+      <c r="B85" s="48">
         <v>1</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="D85" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="E85" s="8"/>
-      <c r="F85" s="19" t="s">
+      <c r="E85" s="49"/>
+      <c r="F85" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="G85" s="11" t="s">
+      <c r="G85" s="51" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="86" spans="2:8">
-      <c r="B86" s="7">
+    <row r="86" spans="2:20">
+      <c r="B86" s="48">
         <v>2</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D86" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="E86" s="8" t="s">
+      <c r="E86" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="F86" s="19" t="s">
+      <c r="F86" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="G86" s="11" t="s">
+      <c r="G86" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="H86" t="s">
+      <c r="H86" s="44" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="87" spans="2:8">
-      <c r="B87" s="7">
+    <row r="87" spans="2:20">
+      <c r="B87" s="48">
         <v>2</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E87" s="8"/>
-      <c r="F87" s="19" t="s">
+      <c r="E87" s="49"/>
+      <c r="F87" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="G87" s="11" t="s">
+      <c r="G87" s="51" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="88" spans="2:8">
-      <c r="B88" s="7">
+    <row r="88" spans="2:20">
+      <c r="B88" s="48">
         <v>3</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="D88" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E88" s="8"/>
-      <c r="F88" s="19" t="s">
+      <c r="E88" s="49"/>
+      <c r="F88" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="G88" s="11" t="s">
+      <c r="G88" s="51" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="93" spans="2:20">
+      <c r="B93" s="77" t="s">
+        <v>458</v>
+      </c>
+      <c r="C93" s="77"/>
+      <c r="D93" s="77"/>
+      <c r="E93" s="77"/>
+      <c r="F93" s="77"/>
+      <c r="G93" s="77"/>
+      <c r="H93" s="77"/>
+      <c r="I93" s="77"/>
+      <c r="J93" s="77"/>
+      <c r="K93" s="77"/>
+      <c r="L93" s="77"/>
+      <c r="M93" s="77"/>
+      <c r="N93" s="77"/>
+      <c r="O93" s="77"/>
+      <c r="P93" s="77"/>
+      <c r="Q93" s="77"/>
+      <c r="R93" s="77"/>
+      <c r="S93" s="77"/>
+      <c r="T93" s="77"/>
+    </row>
+    <row r="94" spans="2:20">
+      <c r="B94" s="44" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="95" spans="2:20">
+      <c r="B95" s="44" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="96" spans="2:20">
+      <c r="B96" s="44" t="s">
+        <v>466</v>
+      </c>
+      <c r="C96" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="D96" s="44" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="B97" s="44" t="s">
+        <v>461</v>
+      </c>
+      <c r="C97" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="D97" s="44" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98" s="44" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99" s="44" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="B100" s="44" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="B101" s="44" t="s">
+        <v>465</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="E16:G25 E32:G114">
+  <conditionalFormatting sqref="E16:G25 E32:G115">
     <cfRule type="expression" dxfId="37" priority="7">
       <formula>$G16="日時"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16:G25 F32:G114">
+  <conditionalFormatting sqref="F16:G25 F32:G115">
     <cfRule type="expression" dxfId="36" priority="6">
       <formula>$G16="時間"</formula>
     </cfRule>
@@ -8479,19 +8388,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1"/>
@@ -8578,13 +8487,13 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1"/>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="41" t="s">
         <v>424</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="G7" s="65" t="s">
+      <c r="G7" s="42" t="s">
         <v>415</v>
       </c>
       <c r="H7" s="1"/>
@@ -8603,34 +8512,34 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1"/>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="L8" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="M8" s="13" t="s">
         <v>62</v>
       </c>
       <c r="P8" t="s">
@@ -8642,30 +8551,30 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1"/>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>1</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="G9" s="7">
+      <c r="E9" s="6"/>
+      <c r="G9" s="5">
         <v>1</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="L9" s="19" t="s">
+      <c r="J9" s="6"/>
+      <c r="L9" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="9" t="s">
         <v>65</v>
       </c>
       <c r="P9" t="s">
@@ -8677,30 +8586,30 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1"/>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>2</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="G10" s="7">
+      <c r="E10" s="6"/>
+      <c r="G10" s="5">
         <v>2</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="L10" s="19" t="s">
+      <c r="J10" s="6"/>
+      <c r="L10" s="15" t="s">
         <v>385</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="9" t="s">
         <v>65</v>
       </c>
       <c r="Q10" t="s">
@@ -8712,216 +8621,216 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1"/>
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <v>3</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="5">
         <v>3</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J11" s="8"/>
-      <c r="L11" s="19" t="s">
+      <c r="J11" s="6"/>
+      <c r="L11" s="15" t="s">
         <v>411</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="1"/>
-      <c r="B12" s="7">
+      <c r="B12" s="5">
         <v>4</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="G12" s="7">
+      <c r="E12" s="6"/>
+      <c r="G12" s="5">
         <v>4</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="J12" s="8"/>
-      <c r="L12" s="48" t="s">
+      <c r="J12" s="6"/>
+      <c r="L12" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="M12" s="49" t="s">
+      <c r="M12" s="28" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="1"/>
-      <c r="B13" s="7">
+      <c r="B13" s="5">
         <v>5</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="G13" s="7">
+      <c r="E13" s="6"/>
+      <c r="G13" s="5">
         <v>5</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="J13" s="8"/>
-      <c r="L13" s="48" t="s">
+      <c r="J13" s="6"/>
+      <c r="L13" s="27" t="s">
         <v>386</v>
       </c>
-      <c r="M13" s="49" t="s">
+      <c r="M13" s="28" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="B14" s="7">
+      <c r="B14" s="5">
         <v>6</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="G14" s="7">
+      <c r="E14" s="6"/>
+      <c r="G14" s="5">
         <v>6</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="L14" s="48" t="s">
+      <c r="L14" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="M14" s="49" t="s">
+      <c r="M14" s="28" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="B15" s="7">
+      <c r="B15" s="5">
         <v>7</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="L15" s="48" t="s">
+      <c r="E15" s="6"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="L15" s="27" t="s">
         <v>388</v>
       </c>
-      <c r="M15" s="49" t="s">
+      <c r="M15" s="28" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="B16" s="7">
+      <c r="B16" s="5">
         <v>8</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="L16" s="19" t="s">
+      <c r="E16" s="6"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="L16" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="M16" s="11" t="s">
+      <c r="M16" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="7">
+      <c r="B17" s="5">
         <v>9</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="L17" s="19" t="s">
+      <c r="E17" s="6"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="L17" s="15" t="s">
         <v>454</v>
       </c>
-      <c r="M17" s="11" t="s">
+      <c r="M17" s="9" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="11"/>
+      <c r="E18" s="6"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="9"/>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="11"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -8976,21 +8885,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1"/>
@@ -9044,14 +8953,14 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1"/>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="41" t="s">
         <v>428</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="41" t="s">
         <v>451</v>
       </c>
       <c r="H5" s="1"/>
@@ -9067,186 +8976,186 @@
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="L6" s="59" t="s">
+      <c r="L6" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="M6" s="59" t="s">
+      <c r="M6" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>1</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="G7" s="7">
+      <c r="E7" s="6"/>
+      <c r="G7" s="5">
         <v>1</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="L7" s="19" t="s">
+      <c r="J7" s="6"/>
+      <c r="L7" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="P7" s="19" t="s">
+      <c r="P7" s="15" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <v>2</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="G8" s="7">
+      <c r="E8" s="6"/>
+      <c r="G8" s="5">
         <v>2</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="L8" s="19" t="s">
+      <c r="J8" s="6"/>
+      <c r="L8" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="P8" s="19" t="s">
+      <c r="P8" s="15" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>3</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="G9" s="7">
+      <c r="E9" s="6"/>
+      <c r="G9" s="5">
         <v>3</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="L9" s="19" t="s">
+      <c r="J9" s="6"/>
+      <c r="L9" s="15" t="s">
         <v>439</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="P9" s="19" t="s">
+      <c r="P9" s="15" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>4</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="G10" s="7">
+      <c r="E10" s="6"/>
+      <c r="G10" s="5">
         <v>4</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="L10" s="19" t="s">
+      <c r="J10" s="6"/>
+      <c r="L10" s="15" t="s">
         <v>440</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="P10" s="19" t="s">
+      <c r="P10" s="15" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <v>5</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="G11" s="7">
+      <c r="E11" s="6"/>
+      <c r="G11" s="5">
         <v>5</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="J11" s="8"/>
-      <c r="L11" s="19" t="s">
+      <c r="J11" s="6"/>
+      <c r="L11" s="15" t="s">
         <v>441</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="9" t="s">
         <v>65</v>
       </c>
       <c r="P11" t="s">
@@ -9254,77 +9163,77 @@
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="B12" s="7">
+      <c r="B12" s="5">
         <v>6</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="G12" s="7">
+      <c r="E12" s="6"/>
+      <c r="G12" s="5">
         <v>6</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="8"/>
-      <c r="L12" s="19" t="s">
+      <c r="J12" s="6"/>
+      <c r="L12" s="15" t="s">
         <v>452</v>
       </c>
-      <c r="M12" s="11" t="s">
+      <c r="M12" s="9" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="B13" s="7">
+      <c r="B13" s="5">
         <v>7</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="5">
         <v>7</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="8"/>
-      <c r="L13" s="19" t="s">
+      <c r="J13" s="6"/>
+      <c r="L13" s="15" t="s">
         <v>453</v>
       </c>
-      <c r="M13" s="11" t="s">
+      <c r="M13" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="P13" s="64" t="s">
+      <c r="P13" s="41" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="B14" s="7">
+      <c r="B14" s="5">
         <v>8</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="6" t="s">
         <v>442</v>
       </c>
       <c r="P14" t="s">
@@ -9332,32 +9241,32 @@
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="B15" s="7">
+      <c r="B15" s="5">
         <v>9</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="B16" s="7">
+      <c r="B16" s="5">
         <v>10</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="P16" s="7" t="s">
+      <c r="E16" s="6"/>
+      <c r="P16" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="Q16" s="7" t="s">
+      <c r="Q16" s="5" t="s">
         <v>437</v>
       </c>
       <c r="R16" t="s">
@@ -9365,10 +9274,10 @@
       </c>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
       <c r="P17" t="s">
         <v>450</v>
       </c>
@@ -9485,1956 +9394,1956 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="60" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="60" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="60" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.875" style="60" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="60" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="37" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="37" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="39" t="s">
         <v>367</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="39" t="s">
         <v>368</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="39" t="s">
         <v>369</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="39" t="s">
         <v>370</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="39" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="61">
+      <c r="A2" s="38">
         <v>1</v>
       </c>
-      <c r="B2" s="61" t="str">
+      <c r="B2" s="38" t="str">
         <f t="shared" ref="B2:B33" si="0">VLOOKUP(A2,課コード,2,FALSE)</f>
         <v>DTP</v>
       </c>
-      <c r="C2" s="61">
+      <c r="C2" s="38">
         <v>101</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="E2" s="61"/>
+      <c r="E2" s="38"/>
       <c r="F2" s="1" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="61">
+      <c r="A3" s="38">
         <v>1</v>
       </c>
-      <c r="B3" s="61" t="str">
+      <c r="B3" s="38" t="str">
         <f t="shared" si="0"/>
         <v>DTP</v>
       </c>
-      <c r="C3" s="61">
+      <c r="C3" s="38">
         <v>102</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="E3" s="61"/>
+      <c r="E3" s="38"/>
       <c r="F3" s="1" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="61">
+      <c r="A4" s="38">
         <v>2</v>
       </c>
-      <c r="B4" s="61" t="str">
+      <c r="B4" s="38" t="str">
         <f t="shared" si="0"/>
         <v>製版</v>
       </c>
-      <c r="C4" s="61">
+      <c r="C4" s="38">
         <v>103</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="38" t="s">
         <v>409</v>
       </c>
-      <c r="F4" s="63">
+      <c r="F4" s="40">
         <v>45801</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61">
+      <c r="A5" s="38">
         <v>1</v>
       </c>
-      <c r="B5" s="61" t="str">
+      <c r="B5" s="38" t="str">
         <f t="shared" si="0"/>
         <v>DTP</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="38">
         <v>104</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="E5" s="61"/>
+      <c r="E5" s="38"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61">
+      <c r="A6" s="38">
         <v>1</v>
       </c>
-      <c r="B6" s="61" t="str">
+      <c r="B6" s="38" t="str">
         <f t="shared" si="0"/>
         <v>DTP</v>
       </c>
-      <c r="C6" s="61">
+      <c r="C6" s="38">
         <v>105</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="38" t="s">
         <v>249</v>
       </c>
-      <c r="E6" s="61"/>
+      <c r="E6" s="38"/>
       <c r="G6" s="1" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="61">
+      <c r="A7" s="38">
         <v>1</v>
       </c>
-      <c r="B7" s="61" t="str">
+      <c r="B7" s="38" t="str">
         <f t="shared" si="0"/>
         <v>DTP</v>
       </c>
-      <c r="C7" s="61">
+      <c r="C7" s="38">
         <v>106</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="38" t="s">
         <v>250</v>
       </c>
-      <c r="E7" s="61"/>
+      <c r="E7" s="38"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="61">
+      <c r="A8" s="38">
         <v>1</v>
       </c>
-      <c r="B8" s="61" t="str">
+      <c r="B8" s="38" t="str">
         <f t="shared" si="0"/>
         <v>DTP</v>
       </c>
-      <c r="C8" s="61">
+      <c r="C8" s="38">
         <v>107</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="E8" s="61"/>
+      <c r="E8" s="38"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="61">
+      <c r="A9" s="38">
         <v>4</v>
       </c>
-      <c r="B9" s="61" t="str">
+      <c r="B9" s="38" t="str">
         <f t="shared" si="0"/>
         <v>印刷</v>
       </c>
-      <c r="C9" s="61">
+      <c r="C9" s="38">
         <v>108</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="38" t="s">
         <v>252</v>
       </c>
-      <c r="E9" s="61"/>
+      <c r="E9" s="38"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="61">
+      <c r="A10" s="38">
         <v>4</v>
       </c>
-      <c r="B10" s="61" t="str">
+      <c r="B10" s="38" t="str">
         <f t="shared" si="0"/>
         <v>印刷</v>
       </c>
-      <c r="C10" s="61">
+      <c r="C10" s="38">
         <v>109</v>
       </c>
-      <c r="D10" s="61" t="s">
+      <c r="D10" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="E10" s="61"/>
+      <c r="E10" s="38"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="61">
+      <c r="A11" s="38">
         <v>4</v>
       </c>
-      <c r="B11" s="61" t="str">
+      <c r="B11" s="38" t="str">
         <f t="shared" si="0"/>
         <v>印刷</v>
       </c>
-      <c r="C11" s="61">
+      <c r="C11" s="38">
         <v>110</v>
       </c>
-      <c r="D11" s="61" t="s">
+      <c r="D11" s="38" t="s">
         <v>254</v>
       </c>
-      <c r="E11" s="61"/>
+      <c r="E11" s="38"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="61">
+      <c r="A12" s="38">
         <v>4</v>
       </c>
-      <c r="B12" s="61" t="str">
+      <c r="B12" s="38" t="str">
         <f t="shared" si="0"/>
         <v>印刷</v>
       </c>
-      <c r="C12" s="61">
+      <c r="C12" s="38">
         <v>111</v>
       </c>
-      <c r="D12" s="61" t="s">
+      <c r="D12" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="E12" s="61"/>
+      <c r="E12" s="38"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="61">
+      <c r="A13" s="38">
         <v>4</v>
       </c>
-      <c r="B13" s="61" t="str">
+      <c r="B13" s="38" t="str">
         <f t="shared" si="0"/>
         <v>印刷</v>
       </c>
-      <c r="C13" s="61">
+      <c r="C13" s="38">
         <v>112</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="D13" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="E13" s="61"/>
+      <c r="E13" s="38"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="61">
+      <c r="A14" s="38">
         <v>1</v>
       </c>
-      <c r="B14" s="61" t="str">
+      <c r="B14" s="38" t="str">
         <f t="shared" si="0"/>
         <v>DTP</v>
       </c>
-      <c r="C14" s="61">
+      <c r="C14" s="38">
         <v>113</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="D14" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="E14" s="61"/>
+      <c r="E14" s="38"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="61">
+      <c r="A15" s="38">
         <v>1</v>
       </c>
-      <c r="B15" s="61" t="str">
+      <c r="B15" s="38" t="str">
         <f t="shared" si="0"/>
         <v>DTP</v>
       </c>
-      <c r="C15" s="61">
+      <c r="C15" s="38">
         <v>114</v>
       </c>
-      <c r="D15" s="61" t="s">
+      <c r="D15" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="E15" s="61"/>
+      <c r="E15" s="38"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="61">
+      <c r="A16" s="38">
         <v>1</v>
       </c>
-      <c r="B16" s="61" t="str">
+      <c r="B16" s="38" t="str">
         <f t="shared" si="0"/>
         <v>DTP</v>
       </c>
-      <c r="C16" s="61">
+      <c r="C16" s="38">
         <v>115</v>
       </c>
-      <c r="D16" s="61" t="s">
+      <c r="D16" s="38" t="s">
         <v>259</v>
       </c>
-      <c r="E16" s="61"/>
+      <c r="E16" s="38"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="61">
+      <c r="A17" s="38">
         <v>1</v>
       </c>
-      <c r="B17" s="61" t="str">
+      <c r="B17" s="38" t="str">
         <f t="shared" si="0"/>
         <v>DTP</v>
       </c>
-      <c r="C17" s="61">
+      <c r="C17" s="38">
         <v>116</v>
       </c>
-      <c r="D17" s="61" t="s">
+      <c r="D17" s="38" t="s">
         <v>260</v>
       </c>
-      <c r="E17" s="61"/>
+      <c r="E17" s="38"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="61">
+      <c r="A18" s="38">
         <v>1</v>
       </c>
-      <c r="B18" s="61" t="str">
+      <c r="B18" s="38" t="str">
         <f t="shared" si="0"/>
         <v>DTP</v>
       </c>
-      <c r="C18" s="61">
+      <c r="C18" s="38">
         <v>117</v>
       </c>
-      <c r="D18" s="61" t="s">
+      <c r="D18" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="E18" s="61"/>
+      <c r="E18" s="38"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="61">
+      <c r="A19" s="38">
         <v>5</v>
       </c>
-      <c r="B19" s="61" t="str">
+      <c r="B19" s="38" t="str">
         <f t="shared" si="0"/>
         <v>加工</v>
       </c>
-      <c r="C19" s="61">
+      <c r="C19" s="38">
         <v>118</v>
       </c>
-      <c r="D19" s="61" t="s">
+      <c r="D19" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="E19" s="61"/>
+      <c r="E19" s="38"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="61">
+      <c r="A20" s="38">
         <v>5</v>
       </c>
-      <c r="B20" s="61" t="str">
+      <c r="B20" s="38" t="str">
         <f t="shared" si="0"/>
         <v>加工</v>
       </c>
-      <c r="C20" s="61">
+      <c r="C20" s="38">
         <v>120</v>
       </c>
-      <c r="D20" s="61" t="s">
+      <c r="D20" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="E20" s="61"/>
+      <c r="E20" s="38"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="61">
+      <c r="A21" s="38">
         <v>1</v>
       </c>
-      <c r="B21" s="61" t="str">
+      <c r="B21" s="38" t="str">
         <f t="shared" si="0"/>
         <v>DTP</v>
       </c>
-      <c r="C21" s="61">
+      <c r="C21" s="38">
         <v>124</v>
       </c>
-      <c r="D21" s="61" t="s">
+      <c r="D21" s="38" t="s">
         <v>264</v>
       </c>
-      <c r="E21" s="61"/>
+      <c r="E21" s="38"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="61">
+      <c r="A22" s="38">
         <v>1</v>
       </c>
-      <c r="B22" s="61" t="str">
+      <c r="B22" s="38" t="str">
         <f t="shared" si="0"/>
         <v>DTP</v>
       </c>
-      <c r="C22" s="61">
+      <c r="C22" s="38">
         <v>125</v>
       </c>
-      <c r="D22" s="61" t="s">
+      <c r="D22" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="E22" s="61"/>
+      <c r="E22" s="38"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="61">
+      <c r="A23" s="38">
         <v>1</v>
       </c>
-      <c r="B23" s="61" t="str">
+      <c r="B23" s="38" t="str">
         <f t="shared" si="0"/>
         <v>DTP</v>
       </c>
-      <c r="C23" s="61">
+      <c r="C23" s="38">
         <v>141</v>
       </c>
-      <c r="D23" s="61" t="s">
+      <c r="D23" s="38" t="s">
         <v>266</v>
       </c>
-      <c r="E23" s="61"/>
+      <c r="E23" s="38"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="61">
+      <c r="A24" s="38">
         <v>2</v>
       </c>
-      <c r="B24" s="61" t="str">
+      <c r="B24" s="38" t="str">
         <f t="shared" si="0"/>
         <v>製版</v>
       </c>
-      <c r="C24" s="61">
+      <c r="C24" s="38">
         <v>152</v>
       </c>
-      <c r="D24" s="61" t="s">
+      <c r="D24" s="38" t="s">
         <v>267</v>
       </c>
-      <c r="E24" s="61"/>
+      <c r="E24" s="38"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="61">
+      <c r="A25" s="38">
         <v>1</v>
       </c>
-      <c r="B25" s="61" t="str">
+      <c r="B25" s="38" t="str">
         <f t="shared" si="0"/>
         <v>DTP</v>
       </c>
-      <c r="C25" s="61">
+      <c r="C25" s="38">
         <v>153</v>
       </c>
-      <c r="D25" s="61" t="s">
+      <c r="D25" s="38" t="s">
         <v>268</v>
       </c>
-      <c r="E25" s="61"/>
+      <c r="E25" s="38"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="61">
+      <c r="A26" s="38">
         <v>2</v>
       </c>
-      <c r="B26" s="61" t="str">
+      <c r="B26" s="38" t="str">
         <f t="shared" si="0"/>
         <v>製版</v>
       </c>
-      <c r="C26" s="61">
+      <c r="C26" s="38">
         <v>157</v>
       </c>
-      <c r="D26" s="61" t="s">
+      <c r="D26" s="38" t="s">
         <v>269</v>
       </c>
-      <c r="E26" s="61"/>
+      <c r="E26" s="38"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="61">
+      <c r="A27" s="38">
         <v>1</v>
       </c>
-      <c r="B27" s="61" t="str">
+      <c r="B27" s="38" t="str">
         <f t="shared" si="0"/>
         <v>DTP</v>
       </c>
-      <c r="C27" s="61">
+      <c r="C27" s="38">
         <v>191</v>
       </c>
-      <c r="D27" s="61" t="s">
+      <c r="D27" s="38" t="s">
         <v>270</v>
       </c>
-      <c r="E27" s="61"/>
+      <c r="E27" s="38"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="61">
+      <c r="A28" s="38">
         <v>1</v>
       </c>
-      <c r="B28" s="61" t="str">
+      <c r="B28" s="38" t="str">
         <f t="shared" si="0"/>
         <v>DTP</v>
       </c>
-      <c r="C28" s="61">
+      <c r="C28" s="38">
         <v>192</v>
       </c>
-      <c r="D28" s="61" t="s">
+      <c r="D28" s="38" t="s">
         <v>271</v>
       </c>
-      <c r="E28" s="61"/>
+      <c r="E28" s="38"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="61">
+      <c r="A29" s="38">
         <v>5</v>
       </c>
-      <c r="B29" s="61" t="str">
+      <c r="B29" s="38" t="str">
         <f t="shared" si="0"/>
         <v>加工</v>
       </c>
-      <c r="C29" s="61">
+      <c r="C29" s="38">
         <v>401</v>
       </c>
-      <c r="D29" s="61" t="s">
+      <c r="D29" s="38" t="s">
         <v>272</v>
       </c>
-      <c r="E29" s="61"/>
+      <c r="E29" s="38"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="61">
+      <c r="A30" s="38">
         <v>5</v>
       </c>
-      <c r="B30" s="61" t="str">
+      <c r="B30" s="38" t="str">
         <f t="shared" si="0"/>
         <v>加工</v>
       </c>
-      <c r="C30" s="61">
+      <c r="C30" s="38">
         <v>402</v>
       </c>
-      <c r="D30" s="61" t="s">
+      <c r="D30" s="38" t="s">
         <v>273</v>
       </c>
-      <c r="E30" s="61"/>
+      <c r="E30" s="38"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="61">
+      <c r="A31" s="38">
         <v>5</v>
       </c>
-      <c r="B31" s="61" t="str">
+      <c r="B31" s="38" t="str">
         <f t="shared" si="0"/>
         <v>加工</v>
       </c>
-      <c r="C31" s="61">
+      <c r="C31" s="38">
         <v>403</v>
       </c>
-      <c r="D31" s="61" t="s">
+      <c r="D31" s="38" t="s">
         <v>274</v>
       </c>
-      <c r="E31" s="61"/>
+      <c r="E31" s="38"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="61">
+      <c r="A32" s="38">
         <v>5</v>
       </c>
-      <c r="B32" s="61" t="str">
+      <c r="B32" s="38" t="str">
         <f t="shared" si="0"/>
         <v>加工</v>
       </c>
-      <c r="C32" s="61">
+      <c r="C32" s="38">
         <v>404</v>
       </c>
-      <c r="D32" s="61" t="s">
+      <c r="D32" s="38" t="s">
         <v>275</v>
       </c>
-      <c r="E32" s="61"/>
+      <c r="E32" s="38"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="61">
+      <c r="A33" s="38">
         <v>5</v>
       </c>
-      <c r="B33" s="61" t="str">
+      <c r="B33" s="38" t="str">
         <f t="shared" si="0"/>
         <v>加工</v>
       </c>
-      <c r="C33" s="61">
+      <c r="C33" s="38">
         <v>405</v>
       </c>
-      <c r="D33" s="61" t="s">
+      <c r="D33" s="38" t="s">
         <v>276</v>
       </c>
-      <c r="E33" s="61"/>
+      <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="61">
+      <c r="A34" s="38">
         <v>5</v>
       </c>
-      <c r="B34" s="61" t="str">
+      <c r="B34" s="38" t="str">
         <f t="shared" ref="B34:B65" si="1">VLOOKUP(A34,課コード,2,FALSE)</f>
         <v>加工</v>
       </c>
-      <c r="C34" s="61">
+      <c r="C34" s="38">
         <v>406</v>
       </c>
-      <c r="D34" s="61" t="s">
+      <c r="D34" s="38" t="s">
         <v>277</v>
       </c>
-      <c r="E34" s="61"/>
+      <c r="E34" s="38"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="61">
+      <c r="A35" s="38">
         <v>5</v>
       </c>
-      <c r="B35" s="61" t="str">
+      <c r="B35" s="38" t="str">
         <f t="shared" si="1"/>
         <v>加工</v>
       </c>
-      <c r="C35" s="61">
+      <c r="C35" s="38">
         <v>407</v>
       </c>
-      <c r="D35" s="61" t="s">
+      <c r="D35" s="38" t="s">
         <v>278</v>
       </c>
-      <c r="E35" s="61"/>
+      <c r="E35" s="38"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="61">
+      <c r="A36" s="38">
         <v>5</v>
       </c>
-      <c r="B36" s="61" t="str">
+      <c r="B36" s="38" t="str">
         <f t="shared" si="1"/>
         <v>加工</v>
       </c>
-      <c r="C36" s="61">
+      <c r="C36" s="38">
         <v>408</v>
       </c>
-      <c r="D36" s="61" t="s">
+      <c r="D36" s="38" t="s">
         <v>279</v>
       </c>
-      <c r="E36" s="61"/>
+      <c r="E36" s="38"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="61">
+      <c r="A37" s="38">
         <v>5</v>
       </c>
-      <c r="B37" s="61" t="str">
+      <c r="B37" s="38" t="str">
         <f t="shared" si="1"/>
         <v>加工</v>
       </c>
-      <c r="C37" s="61">
+      <c r="C37" s="38">
         <v>409</v>
       </c>
-      <c r="D37" s="61" t="s">
+      <c r="D37" s="38" t="s">
         <v>280</v>
       </c>
-      <c r="E37" s="61"/>
+      <c r="E37" s="38"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="61">
+      <c r="A38" s="38">
         <v>5</v>
       </c>
-      <c r="B38" s="61" t="str">
+      <c r="B38" s="38" t="str">
         <f t="shared" si="1"/>
         <v>加工</v>
       </c>
-      <c r="C38" s="61">
+      <c r="C38" s="38">
         <v>410</v>
       </c>
-      <c r="D38" s="61" t="s">
+      <c r="D38" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="E38" s="61"/>
+      <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="61">
+      <c r="A39" s="38">
         <v>5</v>
       </c>
-      <c r="B39" s="61" t="str">
+      <c r="B39" s="38" t="str">
         <f t="shared" si="1"/>
         <v>加工</v>
       </c>
-      <c r="C39" s="61">
+      <c r="C39" s="38">
         <v>411</v>
       </c>
-      <c r="D39" s="61" t="s">
+      <c r="D39" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="E39" s="61"/>
+      <c r="E39" s="38"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="61">
+      <c r="A40" s="38">
         <v>5</v>
       </c>
-      <c r="B40" s="61" t="str">
+      <c r="B40" s="38" t="str">
         <f t="shared" si="1"/>
         <v>加工</v>
       </c>
-      <c r="C40" s="61">
+      <c r="C40" s="38">
         <v>412</v>
       </c>
-      <c r="D40" s="61" t="s">
+      <c r="D40" s="38" t="s">
         <v>283</v>
       </c>
-      <c r="E40" s="61"/>
+      <c r="E40" s="38"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="61">
+      <c r="A41" s="38">
         <v>5</v>
       </c>
-      <c r="B41" s="61" t="str">
+      <c r="B41" s="38" t="str">
         <f t="shared" si="1"/>
         <v>加工</v>
       </c>
-      <c r="C41" s="61">
+      <c r="C41" s="38">
         <v>413</v>
       </c>
-      <c r="D41" s="61" t="s">
+      <c r="D41" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="E41" s="61"/>
+      <c r="E41" s="38"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="61">
+      <c r="A42" s="38">
         <v>5</v>
       </c>
-      <c r="B42" s="61" t="str">
+      <c r="B42" s="38" t="str">
         <f t="shared" si="1"/>
         <v>加工</v>
       </c>
-      <c r="C42" s="61">
+      <c r="C42" s="38">
         <v>414</v>
       </c>
-      <c r="D42" s="61" t="s">
+      <c r="D42" s="38" t="s">
         <v>285</v>
       </c>
-      <c r="E42" s="61"/>
+      <c r="E42" s="38"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="61">
+      <c r="A43" s="38">
         <v>5</v>
       </c>
-      <c r="B43" s="61" t="str">
+      <c r="B43" s="38" t="str">
         <f t="shared" si="1"/>
         <v>加工</v>
       </c>
-      <c r="C43" s="61">
+      <c r="C43" s="38">
         <v>415</v>
       </c>
-      <c r="D43" s="61" t="s">
+      <c r="D43" s="38" t="s">
         <v>286</v>
       </c>
-      <c r="E43" s="61"/>
+      <c r="E43" s="38"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="61">
+      <c r="A44" s="38">
         <v>5</v>
       </c>
-      <c r="B44" s="61" t="str">
+      <c r="B44" s="38" t="str">
         <f t="shared" si="1"/>
         <v>加工</v>
       </c>
-      <c r="C44" s="61">
+      <c r="C44" s="38">
         <v>416</v>
       </c>
-      <c r="D44" s="61" t="s">
+      <c r="D44" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="E44" s="61"/>
+      <c r="E44" s="38"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="61">
+      <c r="A45" s="38">
         <v>5</v>
       </c>
-      <c r="B45" s="61" t="str">
+      <c r="B45" s="38" t="str">
         <f t="shared" si="1"/>
         <v>加工</v>
       </c>
-      <c r="C45" s="61">
+      <c r="C45" s="38">
         <v>417</v>
       </c>
-      <c r="D45" s="61" t="s">
+      <c r="D45" s="38" t="s">
         <v>288</v>
       </c>
-      <c r="E45" s="61"/>
+      <c r="E45" s="38"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="61">
+      <c r="A46" s="38">
         <v>5</v>
       </c>
-      <c r="B46" s="61" t="str">
+      <c r="B46" s="38" t="str">
         <f t="shared" si="1"/>
         <v>加工</v>
       </c>
-      <c r="C46" s="61">
+      <c r="C46" s="38">
         <v>418</v>
       </c>
-      <c r="D46" s="61" t="s">
+      <c r="D46" s="38" t="s">
         <v>289</v>
       </c>
-      <c r="E46" s="61"/>
+      <c r="E46" s="38"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="61">
+      <c r="A47" s="38">
         <v>5</v>
       </c>
-      <c r="B47" s="61" t="str">
+      <c r="B47" s="38" t="str">
         <f t="shared" si="1"/>
         <v>加工</v>
       </c>
-      <c r="C47" s="61">
+      <c r="C47" s="38">
         <v>419</v>
       </c>
-      <c r="D47" s="61" t="s">
+      <c r="D47" s="38" t="s">
         <v>290</v>
       </c>
-      <c r="E47" s="61"/>
+      <c r="E47" s="38"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="61">
+      <c r="A48" s="38">
         <v>5</v>
       </c>
-      <c r="B48" s="61" t="str">
+      <c r="B48" s="38" t="str">
         <f t="shared" si="1"/>
         <v>加工</v>
       </c>
-      <c r="C48" s="61">
+      <c r="C48" s="38">
         <v>420</v>
       </c>
-      <c r="D48" s="61" t="s">
+      <c r="D48" s="38" t="s">
         <v>291</v>
       </c>
-      <c r="E48" s="61"/>
+      <c r="E48" s="38"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="61">
+      <c r="A49" s="38">
         <v>5</v>
       </c>
-      <c r="B49" s="61" t="str">
+      <c r="B49" s="38" t="str">
         <f t="shared" si="1"/>
         <v>加工</v>
       </c>
-      <c r="C49" s="61">
+      <c r="C49" s="38">
         <v>431</v>
       </c>
-      <c r="D49" s="61" t="s">
+      <c r="D49" s="38" t="s">
         <v>292</v>
       </c>
-      <c r="E49" s="61"/>
+      <c r="E49" s="38"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="61">
+      <c r="A50" s="38">
         <v>5</v>
       </c>
-      <c r="B50" s="61" t="str">
+      <c r="B50" s="38" t="str">
         <f t="shared" si="1"/>
         <v>加工</v>
       </c>
-      <c r="C50" s="61">
+      <c r="C50" s="38">
         <v>432</v>
       </c>
-      <c r="D50" s="61" t="s">
+      <c r="D50" s="38" t="s">
         <v>293</v>
       </c>
-      <c r="E50" s="61"/>
+      <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="61">
+      <c r="A51" s="38">
         <v>5</v>
       </c>
-      <c r="B51" s="61" t="str">
+      <c r="B51" s="38" t="str">
         <f t="shared" si="1"/>
         <v>加工</v>
       </c>
-      <c r="C51" s="61">
+      <c r="C51" s="38">
         <v>433</v>
       </c>
-      <c r="D51" s="61" t="s">
+      <c r="D51" s="38" t="s">
         <v>294</v>
       </c>
-      <c r="E51" s="61"/>
+      <c r="E51" s="38"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="61">
+      <c r="A52" s="38">
         <v>5</v>
       </c>
-      <c r="B52" s="61" t="str">
+      <c r="B52" s="38" t="str">
         <f t="shared" si="1"/>
         <v>加工</v>
       </c>
-      <c r="C52" s="61">
+      <c r="C52" s="38">
         <v>434</v>
       </c>
-      <c r="D52" s="61" t="s">
+      <c r="D52" s="38" t="s">
         <v>295</v>
       </c>
-      <c r="E52" s="61"/>
+      <c r="E52" s="38"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="61">
+      <c r="A53" s="38">
         <v>6</v>
       </c>
-      <c r="B53" s="61" t="str">
+      <c r="B53" s="38" t="str">
         <f t="shared" si="1"/>
         <v>包装</v>
       </c>
-      <c r="C53" s="61">
+      <c r="C53" s="38">
         <v>435</v>
       </c>
-      <c r="D53" s="61" t="s">
+      <c r="D53" s="38" t="s">
         <v>296</v>
       </c>
-      <c r="E53" s="61"/>
+      <c r="E53" s="38"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="61">
+      <c r="A54" s="38">
         <v>6</v>
       </c>
-      <c r="B54" s="61" t="str">
+      <c r="B54" s="38" t="str">
         <f t="shared" si="1"/>
         <v>包装</v>
       </c>
-      <c r="C54" s="61">
+      <c r="C54" s="38">
         <v>436</v>
       </c>
-      <c r="D54" s="61" t="s">
+      <c r="D54" s="38" t="s">
         <v>297</v>
       </c>
-      <c r="E54" s="61"/>
+      <c r="E54" s="38"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="61">
+      <c r="A55" s="38">
         <v>5</v>
       </c>
-      <c r="B55" s="61" t="str">
+      <c r="B55" s="38" t="str">
         <f t="shared" si="1"/>
         <v>加工</v>
       </c>
-      <c r="C55" s="61">
+      <c r="C55" s="38">
         <v>437</v>
       </c>
-      <c r="D55" s="61" t="s">
+      <c r="D55" s="38" t="s">
         <v>298</v>
       </c>
-      <c r="E55" s="61"/>
+      <c r="E55" s="38"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="61">
+      <c r="A56" s="38">
         <v>5</v>
       </c>
-      <c r="B56" s="61" t="str">
+      <c r="B56" s="38" t="str">
         <f t="shared" si="1"/>
         <v>加工</v>
       </c>
-      <c r="C56" s="61">
+      <c r="C56" s="38">
         <v>438</v>
       </c>
-      <c r="D56" s="61" t="s">
+      <c r="D56" s="38" t="s">
         <v>299</v>
       </c>
-      <c r="E56" s="61"/>
+      <c r="E56" s="38"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="61">
+      <c r="A57" s="38">
         <v>5</v>
       </c>
-      <c r="B57" s="61" t="str">
+      <c r="B57" s="38" t="str">
         <f t="shared" si="1"/>
         <v>加工</v>
       </c>
-      <c r="C57" s="61">
+      <c r="C57" s="38">
         <v>439</v>
       </c>
-      <c r="D57" s="61" t="s">
+      <c r="D57" s="38" t="s">
         <v>300</v>
       </c>
-      <c r="E57" s="61"/>
+      <c r="E57" s="38"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="61">
+      <c r="A58" s="38">
         <v>5</v>
       </c>
-      <c r="B58" s="61" t="str">
+      <c r="B58" s="38" t="str">
         <f t="shared" si="1"/>
         <v>加工</v>
       </c>
-      <c r="C58" s="61">
+      <c r="C58" s="38">
         <v>440</v>
       </c>
-      <c r="D58" s="61" t="s">
+      <c r="D58" s="38" t="s">
         <v>301</v>
       </c>
-      <c r="E58" s="61"/>
+      <c r="E58" s="38"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="61">
+      <c r="A59" s="38">
         <v>5</v>
       </c>
-      <c r="B59" s="61" t="str">
+      <c r="B59" s="38" t="str">
         <f t="shared" si="1"/>
         <v>加工</v>
       </c>
-      <c r="C59" s="61">
+      <c r="C59" s="38">
         <v>441</v>
       </c>
-      <c r="D59" s="61" t="s">
+      <c r="D59" s="38" t="s">
         <v>302</v>
       </c>
-      <c r="E59" s="61"/>
+      <c r="E59" s="38"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="61">
+      <c r="A60" s="38">
         <v>5</v>
       </c>
-      <c r="B60" s="61" t="str">
+      <c r="B60" s="38" t="str">
         <f t="shared" si="1"/>
         <v>加工</v>
       </c>
-      <c r="C60" s="61">
+      <c r="C60" s="38">
         <v>442</v>
       </c>
-      <c r="D60" s="61" t="s">
+      <c r="D60" s="38" t="s">
         <v>303</v>
       </c>
-      <c r="E60" s="61"/>
+      <c r="E60" s="38"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="61">
+      <c r="A61" s="38">
         <v>5</v>
       </c>
-      <c r="B61" s="61" t="str">
+      <c r="B61" s="38" t="str">
         <f t="shared" si="1"/>
         <v>加工</v>
       </c>
-      <c r="C61" s="61">
+      <c r="C61" s="38">
         <v>443</v>
       </c>
-      <c r="D61" s="61" t="s">
+      <c r="D61" s="38" t="s">
         <v>304</v>
       </c>
-      <c r="E61" s="61"/>
+      <c r="E61" s="38"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="61">
+      <c r="A62" s="38">
         <v>5</v>
       </c>
-      <c r="B62" s="61" t="str">
+      <c r="B62" s="38" t="str">
         <f t="shared" si="1"/>
         <v>加工</v>
       </c>
-      <c r="C62" s="61">
+      <c r="C62" s="38">
         <v>444</v>
       </c>
-      <c r="D62" s="61" t="s">
+      <c r="D62" s="38" t="s">
         <v>305</v>
       </c>
-      <c r="E62" s="61"/>
+      <c r="E62" s="38"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="61">
+      <c r="A63" s="38">
         <v>5</v>
       </c>
-      <c r="B63" s="61" t="str">
+      <c r="B63" s="38" t="str">
         <f t="shared" si="1"/>
         <v>加工</v>
       </c>
-      <c r="C63" s="61">
+      <c r="C63" s="38">
         <v>445</v>
       </c>
-      <c r="D63" s="61" t="s">
+      <c r="D63" s="38" t="s">
         <v>306</v>
       </c>
-      <c r="E63" s="61"/>
+      <c r="E63" s="38"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="61">
+      <c r="A64" s="38">
         <v>5</v>
       </c>
-      <c r="B64" s="61" t="str">
+      <c r="B64" s="38" t="str">
         <f t="shared" si="1"/>
         <v>加工</v>
       </c>
-      <c r="C64" s="61">
+      <c r="C64" s="38">
         <v>446</v>
       </c>
-      <c r="D64" s="61" t="s">
+      <c r="D64" s="38" t="s">
         <v>307</v>
       </c>
-      <c r="E64" s="61"/>
+      <c r="E64" s="38"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="61">
+      <c r="A65" s="38">
         <v>5</v>
       </c>
-      <c r="B65" s="61" t="str">
+      <c r="B65" s="38" t="str">
         <f t="shared" si="1"/>
         <v>加工</v>
       </c>
-      <c r="C65" s="61">
+      <c r="C65" s="38">
         <v>447</v>
       </c>
-      <c r="D65" s="61" t="s">
+      <c r="D65" s="38" t="s">
         <v>308</v>
       </c>
-      <c r="E65" s="61"/>
+      <c r="E65" s="38"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="61">
+      <c r="A66" s="38">
         <v>5</v>
       </c>
-      <c r="B66" s="61" t="str">
+      <c r="B66" s="38" t="str">
         <f t="shared" ref="B66:B97" si="2">VLOOKUP(A66,課コード,2,FALSE)</f>
         <v>加工</v>
       </c>
-      <c r="C66" s="61">
+      <c r="C66" s="38">
         <v>448</v>
       </c>
-      <c r="D66" s="61" t="s">
+      <c r="D66" s="38" t="s">
         <v>309</v>
       </c>
-      <c r="E66" s="61"/>
+      <c r="E66" s="38"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="61">
+      <c r="A67" s="38">
         <v>5</v>
       </c>
-      <c r="B67" s="61" t="str">
+      <c r="B67" s="38" t="str">
         <f t="shared" si="2"/>
         <v>加工</v>
       </c>
-      <c r="C67" s="61">
+      <c r="C67" s="38">
         <v>449</v>
       </c>
-      <c r="D67" s="61" t="s">
+      <c r="D67" s="38" t="s">
         <v>310</v>
       </c>
-      <c r="E67" s="61"/>
+      <c r="E67" s="38"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="61">
+      <c r="A68" s="38">
         <v>5</v>
       </c>
-      <c r="B68" s="61" t="str">
+      <c r="B68" s="38" t="str">
         <f t="shared" si="2"/>
         <v>加工</v>
       </c>
-      <c r="C68" s="61">
+      <c r="C68" s="38">
         <v>450</v>
       </c>
-      <c r="D68" s="61" t="s">
+      <c r="D68" s="38" t="s">
         <v>311</v>
       </c>
-      <c r="E68" s="61"/>
+      <c r="E68" s="38"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="61">
+      <c r="A69" s="38">
         <v>4</v>
       </c>
-      <c r="B69" s="61" t="str">
+      <c r="B69" s="38" t="str">
         <f t="shared" si="2"/>
         <v>印刷</v>
       </c>
-      <c r="C69" s="61">
+      <c r="C69" s="38">
         <v>301</v>
       </c>
-      <c r="D69" s="61" t="s">
+      <c r="D69" s="38" t="s">
         <v>312</v>
       </c>
-      <c r="E69" s="61"/>
+      <c r="E69" s="38"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="61">
+      <c r="A70" s="38">
         <v>4</v>
       </c>
-      <c r="B70" s="61" t="str">
+      <c r="B70" s="38" t="str">
         <f t="shared" si="2"/>
         <v>印刷</v>
       </c>
-      <c r="C70" s="61">
+      <c r="C70" s="38">
         <v>302</v>
       </c>
-      <c r="D70" s="61" t="s">
+      <c r="D70" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="E70" s="61"/>
+      <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="61">
+      <c r="A71" s="38">
         <v>4</v>
       </c>
-      <c r="B71" s="61" t="str">
+      <c r="B71" s="38" t="str">
         <f t="shared" si="2"/>
         <v>印刷</v>
       </c>
-      <c r="C71" s="61">
+      <c r="C71" s="38">
         <v>304</v>
       </c>
-      <c r="D71" s="61" t="s">
+      <c r="D71" s="38" t="s">
         <v>314</v>
       </c>
-      <c r="E71" s="61"/>
+      <c r="E71" s="38"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="61">
+      <c r="A72" s="38">
         <v>4</v>
       </c>
-      <c r="B72" s="61" t="str">
+      <c r="B72" s="38" t="str">
         <f t="shared" si="2"/>
         <v>印刷</v>
       </c>
-      <c r="C72" s="61">
+      <c r="C72" s="38">
         <v>305</v>
       </c>
-      <c r="D72" s="61" t="s">
+      <c r="D72" s="38" t="s">
         <v>315</v>
       </c>
-      <c r="E72" s="61"/>
+      <c r="E72" s="38"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="61">
+      <c r="A73" s="38">
         <v>3</v>
       </c>
-      <c r="B73" s="61" t="str">
+      <c r="B73" s="38" t="str">
         <f t="shared" si="2"/>
         <v>資材</v>
       </c>
-      <c r="C73" s="61">
+      <c r="C73" s="38">
         <v>320</v>
       </c>
-      <c r="D73" s="61" t="s">
+      <c r="D73" s="38" t="s">
         <v>316</v>
       </c>
-      <c r="E73" s="61"/>
+      <c r="E73" s="38"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="61">
+      <c r="A74" s="38">
         <v>4</v>
       </c>
-      <c r="B74" s="61" t="str">
+      <c r="B74" s="38" t="str">
         <f t="shared" si="2"/>
         <v>印刷</v>
       </c>
-      <c r="C74" s="61">
+      <c r="C74" s="38">
         <v>311</v>
       </c>
-      <c r="D74" s="61" t="s">
+      <c r="D74" s="38" t="s">
         <v>317</v>
       </c>
-      <c r="E74" s="61"/>
+      <c r="E74" s="38"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="61">
+      <c r="A75" s="38">
         <v>4</v>
       </c>
-      <c r="B75" s="61" t="str">
+      <c r="B75" s="38" t="str">
         <f t="shared" si="2"/>
         <v>印刷</v>
       </c>
-      <c r="C75" s="61">
+      <c r="C75" s="38">
         <v>312</v>
       </c>
-      <c r="D75" s="61" t="s">
+      <c r="D75" s="38" t="s">
         <v>318</v>
       </c>
-      <c r="E75" s="61"/>
+      <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="61">
+      <c r="A76" s="38">
         <v>4</v>
       </c>
-      <c r="B76" s="61" t="str">
+      <c r="B76" s="38" t="str">
         <f t="shared" si="2"/>
         <v>印刷</v>
       </c>
-      <c r="C76" s="61">
+      <c r="C76" s="38">
         <v>313</v>
       </c>
-      <c r="D76" s="61" t="s">
+      <c r="D76" s="38" t="s">
         <v>319</v>
       </c>
-      <c r="E76" s="61"/>
+      <c r="E76" s="38"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="61">
+      <c r="A77" s="38">
         <v>4</v>
       </c>
-      <c r="B77" s="61" t="str">
+      <c r="B77" s="38" t="str">
         <f t="shared" si="2"/>
         <v>印刷</v>
       </c>
-      <c r="C77" s="61">
+      <c r="C77" s="38">
         <v>314</v>
       </c>
-      <c r="D77" s="61" t="s">
+      <c r="D77" s="38" t="s">
         <v>320</v>
       </c>
-      <c r="E77" s="61"/>
+      <c r="E77" s="38"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="61">
+      <c r="A78" s="38">
         <v>4</v>
       </c>
-      <c r="B78" s="61" t="str">
+      <c r="B78" s="38" t="str">
         <f t="shared" si="2"/>
         <v>印刷</v>
       </c>
-      <c r="C78" s="61">
+      <c r="C78" s="38">
         <v>315</v>
       </c>
-      <c r="D78" s="61" t="s">
+      <c r="D78" s="38" t="s">
         <v>321</v>
       </c>
-      <c r="E78" s="61"/>
+      <c r="E78" s="38"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="61">
+      <c r="A79" s="38">
         <v>4</v>
       </c>
-      <c r="B79" s="61" t="str">
+      <c r="B79" s="38" t="str">
         <f t="shared" si="2"/>
         <v>印刷</v>
       </c>
-      <c r="C79" s="61">
+      <c r="C79" s="38">
         <v>316</v>
       </c>
-      <c r="D79" s="61" t="s">
+      <c r="D79" s="38" t="s">
         <v>322</v>
       </c>
-      <c r="E79" s="61"/>
+      <c r="E79" s="38"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="61">
+      <c r="A80" s="38">
         <v>4</v>
       </c>
-      <c r="B80" s="61" t="str">
+      <c r="B80" s="38" t="str">
         <f t="shared" si="2"/>
         <v>印刷</v>
       </c>
-      <c r="C80" s="61">
+      <c r="C80" s="38">
         <v>317</v>
       </c>
-      <c r="D80" s="61" t="s">
+      <c r="D80" s="38" t="s">
         <v>323</v>
       </c>
-      <c r="E80" s="61"/>
+      <c r="E80" s="38"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="61">
+      <c r="A81" s="38">
         <v>4</v>
       </c>
-      <c r="B81" s="61" t="str">
+      <c r="B81" s="38" t="str">
         <f t="shared" si="2"/>
         <v>印刷</v>
       </c>
-      <c r="C81" s="61">
+      <c r="C81" s="38">
         <v>318</v>
       </c>
-      <c r="D81" s="61" t="s">
+      <c r="D81" s="38" t="s">
         <v>324</v>
       </c>
-      <c r="E81" s="61"/>
+      <c r="E81" s="38"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="61">
+      <c r="A82" s="38">
         <v>4</v>
       </c>
-      <c r="B82" s="61" t="str">
+      <c r="B82" s="38" t="str">
         <f t="shared" si="2"/>
         <v>印刷</v>
       </c>
-      <c r="C82" s="61">
+      <c r="C82" s="38">
         <v>321</v>
       </c>
-      <c r="D82" s="61" t="s">
+      <c r="D82" s="38" t="s">
         <v>325</v>
       </c>
-      <c r="E82" s="61"/>
+      <c r="E82" s="38"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="61">
+      <c r="A83" s="38">
         <v>4</v>
       </c>
-      <c r="B83" s="61" t="str">
+      <c r="B83" s="38" t="str">
         <f t="shared" si="2"/>
         <v>印刷</v>
       </c>
-      <c r="C83" s="61">
+      <c r="C83" s="38">
         <v>331</v>
       </c>
-      <c r="D83" s="61" t="s">
+      <c r="D83" s="38" t="s">
         <v>326</v>
       </c>
-      <c r="E83" s="61"/>
+      <c r="E83" s="38"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="61">
+      <c r="A84" s="38">
         <v>4</v>
       </c>
-      <c r="B84" s="61" t="str">
+      <c r="B84" s="38" t="str">
         <f t="shared" si="2"/>
         <v>印刷</v>
       </c>
-      <c r="C84" s="61">
+      <c r="C84" s="38">
         <v>332</v>
       </c>
-      <c r="D84" s="61" t="s">
+      <c r="D84" s="38" t="s">
         <v>327</v>
       </c>
-      <c r="E84" s="61"/>
+      <c r="E84" s="38"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="61">
+      <c r="A85" s="38">
         <v>4</v>
       </c>
-      <c r="B85" s="61" t="str">
+      <c r="B85" s="38" t="str">
         <f t="shared" si="2"/>
         <v>印刷</v>
       </c>
-      <c r="C85" s="61">
+      <c r="C85" s="38">
         <v>333</v>
       </c>
-      <c r="D85" s="61" t="s">
+      <c r="D85" s="38" t="s">
         <v>328</v>
       </c>
-      <c r="E85" s="61"/>
+      <c r="E85" s="38"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="61">
+      <c r="A86" s="38">
         <v>4</v>
       </c>
-      <c r="B86" s="61" t="str">
+      <c r="B86" s="38" t="str">
         <f t="shared" si="2"/>
         <v>印刷</v>
       </c>
-      <c r="C86" s="61">
+      <c r="C86" s="38">
         <v>334</v>
       </c>
-      <c r="D86" s="61" t="s">
+      <c r="D86" s="38" t="s">
         <v>329</v>
       </c>
-      <c r="E86" s="61"/>
+      <c r="E86" s="38"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="61">
+      <c r="A87" s="38">
         <v>4</v>
       </c>
-      <c r="B87" s="61" t="str">
+      <c r="B87" s="38" t="str">
         <f t="shared" si="2"/>
         <v>印刷</v>
       </c>
-      <c r="C87" s="61">
+      <c r="C87" s="38">
         <v>335</v>
       </c>
-      <c r="D87" s="61" t="s">
+      <c r="D87" s="38" t="s">
         <v>330</v>
       </c>
-      <c r="E87" s="61"/>
+      <c r="E87" s="38"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="61">
+      <c r="A88" s="38">
         <v>4</v>
       </c>
-      <c r="B88" s="61" t="str">
+      <c r="B88" s="38" t="str">
         <f t="shared" si="2"/>
         <v>印刷</v>
       </c>
-      <c r="C88" s="61">
+      <c r="C88" s="38">
         <v>336</v>
       </c>
-      <c r="D88" s="61" t="s">
+      <c r="D88" s="38" t="s">
         <v>331</v>
       </c>
-      <c r="E88" s="61"/>
+      <c r="E88" s="38"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="61">
+      <c r="A89" s="38">
         <v>4</v>
       </c>
-      <c r="B89" s="61" t="str">
+      <c r="B89" s="38" t="str">
         <f t="shared" si="2"/>
         <v>印刷</v>
       </c>
-      <c r="C89" s="61">
+      <c r="C89" s="38">
         <v>337</v>
       </c>
-      <c r="D89" s="61" t="s">
+      <c r="D89" s="38" t="s">
         <v>332</v>
       </c>
-      <c r="E89" s="61"/>
+      <c r="E89" s="38"/>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="61">
+      <c r="A90" s="38">
         <v>4</v>
       </c>
-      <c r="B90" s="61" t="str">
+      <c r="B90" s="38" t="str">
         <f t="shared" si="2"/>
         <v>印刷</v>
       </c>
-      <c r="C90" s="61">
+      <c r="C90" s="38">
         <v>338</v>
       </c>
-      <c r="D90" s="61" t="s">
+      <c r="D90" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E90" s="61"/>
+      <c r="E90" s="38"/>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="61">
+      <c r="A91" s="38">
         <v>4</v>
       </c>
-      <c r="B91" s="61" t="str">
+      <c r="B91" s="38" t="str">
         <f t="shared" si="2"/>
         <v>印刷</v>
       </c>
-      <c r="C91" s="61">
+      <c r="C91" s="38">
         <v>339</v>
       </c>
-      <c r="D91" s="61" t="s">
+      <c r="D91" s="38" t="s">
         <v>334</v>
       </c>
-      <c r="E91" s="61"/>
+      <c r="E91" s="38"/>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="61">
+      <c r="A92" s="38">
         <v>4</v>
       </c>
-      <c r="B92" s="61" t="str">
+      <c r="B92" s="38" t="str">
         <f t="shared" si="2"/>
         <v>印刷</v>
       </c>
-      <c r="C92" s="61">
+      <c r="C92" s="38">
         <v>340</v>
       </c>
-      <c r="D92" s="61" t="s">
+      <c r="D92" s="38" t="s">
         <v>335</v>
       </c>
-      <c r="E92" s="61"/>
+      <c r="E92" s="38"/>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="61">
+      <c r="A93" s="38">
         <v>4</v>
       </c>
-      <c r="B93" s="61" t="str">
+      <c r="B93" s="38" t="str">
         <f t="shared" si="2"/>
         <v>印刷</v>
       </c>
-      <c r="C93" s="61">
+      <c r="C93" s="38">
         <v>341</v>
       </c>
-      <c r="D93" s="61" t="s">
+      <c r="D93" s="38" t="s">
         <v>336</v>
       </c>
-      <c r="E93" s="61"/>
+      <c r="E93" s="38"/>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="61">
+      <c r="A94" s="38">
         <v>4</v>
       </c>
-      <c r="B94" s="61" t="str">
+      <c r="B94" s="38" t="str">
         <f t="shared" si="2"/>
         <v>印刷</v>
       </c>
-      <c r="C94" s="61">
+      <c r="C94" s="38">
         <v>342</v>
       </c>
-      <c r="D94" s="61" t="s">
+      <c r="D94" s="38" t="s">
         <v>337</v>
       </c>
-      <c r="E94" s="61"/>
+      <c r="E94" s="38"/>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="61">
+      <c r="A95" s="38">
         <v>4</v>
       </c>
-      <c r="B95" s="61" t="str">
+      <c r="B95" s="38" t="str">
         <f t="shared" si="2"/>
         <v>印刷</v>
       </c>
-      <c r="C95" s="61">
+      <c r="C95" s="38">
         <v>347</v>
       </c>
-      <c r="D95" s="61" t="s">
+      <c r="D95" s="38" t="s">
         <v>338</v>
       </c>
-      <c r="E95" s="61"/>
+      <c r="E95" s="38"/>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="61">
+      <c r="A96" s="38">
         <v>4</v>
       </c>
-      <c r="B96" s="61" t="str">
+      <c r="B96" s="38" t="str">
         <f t="shared" si="2"/>
         <v>印刷</v>
       </c>
-      <c r="C96" s="61">
+      <c r="C96" s="38">
         <v>348</v>
       </c>
-      <c r="D96" s="61" t="s">
+      <c r="D96" s="38" t="s">
         <v>339</v>
       </c>
-      <c r="E96" s="61"/>
+      <c r="E96" s="38"/>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="61">
+      <c r="A97" s="38">
         <v>4</v>
       </c>
-      <c r="B97" s="61" t="str">
+      <c r="B97" s="38" t="str">
         <f t="shared" si="2"/>
         <v>印刷</v>
       </c>
-      <c r="C97" s="61">
+      <c r="C97" s="38">
         <v>349</v>
       </c>
-      <c r="D97" s="61" t="s">
+      <c r="D97" s="38" t="s">
         <v>340</v>
       </c>
-      <c r="E97" s="61"/>
+      <c r="E97" s="38"/>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="61">
+      <c r="A98" s="38">
         <v>7</v>
       </c>
-      <c r="B98" s="61" t="str">
+      <c r="B98" s="38" t="str">
         <f t="shared" ref="B98:B120" si="3">VLOOKUP(A98,課コード,2,FALSE)</f>
         <v>その他</v>
       </c>
-      <c r="C98" s="61">
+      <c r="C98" s="38">
         <v>901</v>
       </c>
-      <c r="D98" s="61" t="s">
+      <c r="D98" s="38" t="s">
         <v>341</v>
       </c>
-      <c r="E98" s="61"/>
+      <c r="E98" s="38"/>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="61">
+      <c r="A99" s="38">
         <v>7</v>
       </c>
-      <c r="B99" s="61" t="str">
+      <c r="B99" s="38" t="str">
         <f t="shared" si="3"/>
         <v>その他</v>
       </c>
-      <c r="C99" s="61">
+      <c r="C99" s="38">
         <v>902</v>
       </c>
-      <c r="D99" s="61" t="s">
+      <c r="D99" s="38" t="s">
         <v>342</v>
       </c>
-      <c r="E99" s="61"/>
+      <c r="E99" s="38"/>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="61">
+      <c r="A100" s="38">
         <v>7</v>
       </c>
-      <c r="B100" s="61" t="str">
+      <c r="B100" s="38" t="str">
         <f t="shared" si="3"/>
         <v>その他</v>
       </c>
-      <c r="C100" s="61">
+      <c r="C100" s="38">
         <v>903</v>
       </c>
-      <c r="D100" s="61" t="s">
+      <c r="D100" s="38" t="s">
         <v>343</v>
       </c>
-      <c r="E100" s="61"/>
+      <c r="E100" s="38"/>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="61">
+      <c r="A101" s="38">
         <v>7</v>
       </c>
-      <c r="B101" s="61" t="str">
+      <c r="B101" s="38" t="str">
         <f t="shared" si="3"/>
         <v>その他</v>
       </c>
-      <c r="C101" s="61">
+      <c r="C101" s="38">
         <v>904</v>
       </c>
-      <c r="D101" s="61" t="s">
+      <c r="D101" s="38" t="s">
         <v>344</v>
       </c>
-      <c r="E101" s="61"/>
+      <c r="E101" s="38"/>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="61">
+      <c r="A102" s="38">
         <v>7</v>
       </c>
-      <c r="B102" s="61" t="str">
+      <c r="B102" s="38" t="str">
         <f t="shared" si="3"/>
         <v>その他</v>
       </c>
-      <c r="C102" s="61">
+      <c r="C102" s="38">
         <v>905</v>
       </c>
-      <c r="D102" s="61" t="s">
+      <c r="D102" s="38" t="s">
         <v>345</v>
       </c>
-      <c r="E102" s="61"/>
+      <c r="E102" s="38"/>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="61">
+      <c r="A103" s="38">
         <v>7</v>
       </c>
-      <c r="B103" s="61" t="str">
+      <c r="B103" s="38" t="str">
         <f t="shared" si="3"/>
         <v>その他</v>
       </c>
-      <c r="C103" s="61">
+      <c r="C103" s="38">
         <v>906</v>
       </c>
-      <c r="D103" s="61" t="s">
+      <c r="D103" s="38" t="s">
         <v>346</v>
       </c>
-      <c r="E103" s="61"/>
+      <c r="E103" s="38"/>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="61">
+      <c r="A104" s="38">
         <v>7</v>
       </c>
-      <c r="B104" s="61" t="str">
+      <c r="B104" s="38" t="str">
         <f t="shared" si="3"/>
         <v>その他</v>
       </c>
-      <c r="C104" s="61">
+      <c r="C104" s="38">
         <v>907</v>
       </c>
-      <c r="D104" s="61" t="s">
+      <c r="D104" s="38" t="s">
         <v>347</v>
       </c>
-      <c r="E104" s="61"/>
+      <c r="E104" s="38"/>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="61">
+      <c r="A105" s="38">
         <v>7</v>
       </c>
-      <c r="B105" s="61" t="str">
+      <c r="B105" s="38" t="str">
         <f t="shared" si="3"/>
         <v>その他</v>
       </c>
-      <c r="C105" s="61">
+      <c r="C105" s="38">
         <v>908</v>
       </c>
-      <c r="D105" s="61" t="s">
+      <c r="D105" s="38" t="s">
         <v>348</v>
       </c>
-      <c r="E105" s="61"/>
+      <c r="E105" s="38"/>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="61">
+      <c r="A106" s="38">
         <v>7</v>
       </c>
-      <c r="B106" s="61" t="str">
+      <c r="B106" s="38" t="str">
         <f t="shared" si="3"/>
         <v>その他</v>
       </c>
-      <c r="C106" s="61">
+      <c r="C106" s="38">
         <v>909</v>
       </c>
-      <c r="D106" s="61" t="s">
+      <c r="D106" s="38" t="s">
         <v>349</v>
       </c>
-      <c r="E106" s="61"/>
+      <c r="E106" s="38"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="61">
+      <c r="A107" s="38">
         <v>7</v>
       </c>
-      <c r="B107" s="61" t="str">
+      <c r="B107" s="38" t="str">
         <f t="shared" si="3"/>
         <v>その他</v>
       </c>
-      <c r="C107" s="61">
+      <c r="C107" s="38">
         <v>910</v>
       </c>
-      <c r="D107" s="61" t="s">
+      <c r="D107" s="38" t="s">
         <v>350</v>
       </c>
-      <c r="E107" s="61"/>
+      <c r="E107" s="38"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="61">
+      <c r="A108" s="38">
         <v>7</v>
       </c>
-      <c r="B108" s="61" t="str">
+      <c r="B108" s="38" t="str">
         <f t="shared" si="3"/>
         <v>その他</v>
       </c>
-      <c r="C108" s="61">
+      <c r="C108" s="38">
         <v>911</v>
       </c>
-      <c r="D108" s="61" t="s">
+      <c r="D108" s="38" t="s">
         <v>351</v>
       </c>
-      <c r="E108" s="61"/>
+      <c r="E108" s="38"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="61">
+      <c r="A109" s="38">
         <v>7</v>
       </c>
-      <c r="B109" s="61" t="str">
+      <c r="B109" s="38" t="str">
         <f t="shared" si="3"/>
         <v>その他</v>
       </c>
-      <c r="C109" s="61">
+      <c r="C109" s="38">
         <v>912</v>
       </c>
-      <c r="D109" s="61" t="s">
+      <c r="D109" s="38" t="s">
         <v>352</v>
       </c>
-      <c r="E109" s="61"/>
+      <c r="E109" s="38"/>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="61">
+      <c r="A110" s="38">
         <v>7</v>
       </c>
-      <c r="B110" s="61" t="str">
+      <c r="B110" s="38" t="str">
         <f t="shared" si="3"/>
         <v>その他</v>
       </c>
-      <c r="C110" s="61">
+      <c r="C110" s="38">
         <v>913</v>
       </c>
-      <c r="D110" s="61" t="s">
+      <c r="D110" s="38" t="s">
         <v>353</v>
       </c>
-      <c r="E110" s="61"/>
+      <c r="E110" s="38"/>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="61">
+      <c r="A111" s="38">
         <v>7</v>
       </c>
-      <c r="B111" s="61" t="str">
+      <c r="B111" s="38" t="str">
         <f t="shared" si="3"/>
         <v>その他</v>
       </c>
-      <c r="C111" s="61">
+      <c r="C111" s="38">
         <v>915</v>
       </c>
-      <c r="D111" s="61" t="s">
+      <c r="D111" s="38" t="s">
         <v>354</v>
       </c>
-      <c r="E111" s="61"/>
+      <c r="E111" s="38"/>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="61">
+      <c r="A112" s="38">
         <v>7</v>
       </c>
-      <c r="B112" s="61" t="str">
+      <c r="B112" s="38" t="str">
         <f t="shared" si="3"/>
         <v>その他</v>
       </c>
-      <c r="C112" s="61">
+      <c r="C112" s="38">
         <v>916</v>
       </c>
-      <c r="D112" s="61" t="s">
+      <c r="D112" s="38" t="s">
         <v>355</v>
       </c>
-      <c r="E112" s="61"/>
+      <c r="E112" s="38"/>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="61">
+      <c r="A113" s="38">
         <v>7</v>
       </c>
-      <c r="B113" s="61" t="str">
+      <c r="B113" s="38" t="str">
         <f t="shared" si="3"/>
         <v>その他</v>
       </c>
-      <c r="C113" s="61">
+      <c r="C113" s="38">
         <v>917</v>
       </c>
-      <c r="D113" s="61" t="s">
+      <c r="D113" s="38" t="s">
         <v>356</v>
       </c>
-      <c r="E113" s="61"/>
+      <c r="E113" s="38"/>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="61">
+      <c r="A114" s="38">
         <v>7</v>
       </c>
-      <c r="B114" s="61" t="str">
+      <c r="B114" s="38" t="str">
         <f t="shared" si="3"/>
         <v>その他</v>
       </c>
-      <c r="C114" s="61">
+      <c r="C114" s="38">
         <v>918</v>
       </c>
-      <c r="D114" s="61" t="s">
+      <c r="D114" s="38" t="s">
         <v>357</v>
       </c>
-      <c r="E114" s="61"/>
+      <c r="E114" s="38"/>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="61">
+      <c r="A115" s="38">
         <v>7</v>
       </c>
-      <c r="B115" s="61" t="str">
+      <c r="B115" s="38" t="str">
         <f t="shared" si="3"/>
         <v>その他</v>
       </c>
-      <c r="C115" s="61">
+      <c r="C115" s="38">
         <v>919</v>
       </c>
-      <c r="D115" s="61" t="s">
+      <c r="D115" s="38" t="s">
         <v>358</v>
       </c>
-      <c r="E115" s="61"/>
+      <c r="E115" s="38"/>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="61">
+      <c r="A116" s="38">
         <v>7</v>
       </c>
-      <c r="B116" s="61" t="str">
+      <c r="B116" s="38" t="str">
         <f t="shared" si="3"/>
         <v>その他</v>
       </c>
-      <c r="C116" s="61">
+      <c r="C116" s="38">
         <v>920</v>
       </c>
-      <c r="D116" s="61" t="s">
+      <c r="D116" s="38" t="s">
         <v>359</v>
       </c>
-      <c r="E116" s="61"/>
+      <c r="E116" s="38"/>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="61">
+      <c r="A117" s="38">
         <v>7</v>
       </c>
-      <c r="B117" s="61" t="str">
+      <c r="B117" s="38" t="str">
         <f t="shared" si="3"/>
         <v>その他</v>
       </c>
-      <c r="C117" s="61">
+      <c r="C117" s="38">
         <v>921</v>
       </c>
-      <c r="D117" s="61" t="s">
+      <c r="D117" s="38" t="s">
         <v>360</v>
       </c>
-      <c r="E117" s="61"/>
+      <c r="E117" s="38"/>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="61">
+      <c r="A118" s="38">
         <v>7</v>
       </c>
-      <c r="B118" s="61" t="str">
+      <c r="B118" s="38" t="str">
         <f t="shared" si="3"/>
         <v>その他</v>
       </c>
-      <c r="C118" s="61">
+      <c r="C118" s="38">
         <v>922</v>
       </c>
-      <c r="D118" s="61" t="s">
+      <c r="D118" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="E118" s="61"/>
+      <c r="E118" s="38"/>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="61">
+      <c r="A119" s="38">
         <v>7</v>
       </c>
-      <c r="B119" s="61" t="str">
+      <c r="B119" s="38" t="str">
         <f t="shared" si="3"/>
         <v>その他</v>
       </c>
-      <c r="C119" s="61">
+      <c r="C119" s="38">
         <v>923</v>
       </c>
-      <c r="D119" s="61" t="s">
+      <c r="D119" s="38" t="s">
         <v>361</v>
       </c>
-      <c r="E119" s="61"/>
+      <c r="E119" s="38"/>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="61">
+      <c r="A120" s="38">
         <v>7</v>
       </c>
-      <c r="B120" s="61" t="str">
+      <c r="B120" s="38" t="str">
         <f t="shared" si="3"/>
         <v>その他</v>
       </c>
-      <c r="C120" s="61">
+      <c r="C120" s="38">
         <v>930</v>
       </c>
-      <c r="D120" s="61" t="s">
+      <c r="D120" s="38" t="s">
         <v>362</v>
       </c>
-      <c r="E120" s="61"/>
+      <c r="E120" s="38"/>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="61"/>
-      <c r="B121" s="61"/>
-      <c r="C121" s="61"/>
-      <c r="D121" s="61"/>
-      <c r="E121" s="61"/>
+      <c r="A121" s="38"/>
+      <c r="B121" s="38"/>
+      <c r="C121" s="38"/>
+      <c r="D121" s="38"/>
+      <c r="E121" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -11449,7 +11358,7 @@
   </sheetPr>
   <dimension ref="B2:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>

--- a/作業伝票/◆伝票収支調査/system/伝票確認設計図.xlsx
+++ b/作業伝票/◆伝票収支調査/system/伝票確認設計図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\【Git】ShimodaPrint\作業伝票\◆伝票収支調査\system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EE8C90-D6C9-43E0-A2DA-1D37C68A1EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3618322-27C6-42BD-AA31-5074D1227865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,8 @@
     <sheet name="5-材料情報" sheetId="11" r:id="rId6"/>
     <sheet name="6-送料情報" sheetId="12" r:id="rId7"/>
     <sheet name="作業コード" sheetId="5" r:id="rId8"/>
-    <sheet name="フォーム動作" sheetId="13" r:id="rId9"/>
+    <sheet name="人件費単価(分)" sheetId="14" r:id="rId9"/>
+    <sheet name="フォーム動作" sheetId="13" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="課コード">'4-作業情報'!$B$6:$C$12</definedName>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="474">
   <si>
     <t>数値</t>
   </si>
@@ -3813,6 +3814,34 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>シュウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名目</t>
+    <rPh sb="0" eb="2">
+      <t>メイモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全般</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンパン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>増設しました</t>
+    <rPh sb="0" eb="2">
+      <t>ゾウセツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>人件費</t>
+    <rPh sb="0" eb="3">
+      <t>ジンケンヒ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3821,10 +3850,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="&quot;&amp;&quot;@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3942,6 +3972,13 @@
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="18">
@@ -4109,10 +4146,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="6" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4201,11 +4241,50 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="6" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="通貨" xfId="1" builtinId="7"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="47">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEFE5F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5165,6 +5244,51 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C604A4D2-2379-461F-8E6F-B9BFF119B3C5}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="B2:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0512C66D-A180-4EBF-A044-4C390943B5F9}">
   <sheetPr codeName="Sheet2">
@@ -6836,16 +6960,16 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="F9:G36">
-    <cfRule type="expression" dxfId="41" priority="1">
+    <cfRule type="expression" dxfId="46" priority="1">
       <formula>$G9="日時"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="2">
+    <cfRule type="expression" dxfId="45" priority="2">
       <formula>$G9="通貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="3">
+    <cfRule type="expression" dxfId="44" priority="3">
       <formula>$G9="数値"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="4">
+    <cfRule type="expression" dxfId="43" priority="4">
       <formula>$G9="文字列"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6862,7 +6986,7 @@
   <dimension ref="A1:U101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7229,6 +7353,27 @@
       </c>
       <c r="G25" s="51" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21">
+      <c r="B26" s="48">
+        <v>9</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="50" t="s">
+        <v>473</v>
+      </c>
+      <c r="G26" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26" s="44" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="28" spans="2:21">
@@ -8327,36 +8472,55 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="E16:G25 E32:G115">
-    <cfRule type="expression" dxfId="37" priority="7">
+    <cfRule type="expression" dxfId="42" priority="12">
       <formula>$G16="日時"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:G25 F32:G115">
-    <cfRule type="expression" dxfId="36" priority="6">
+    <cfRule type="expression" dxfId="41" priority="11">
       <formula>$G16="時間"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="8">
+    <cfRule type="expression" dxfId="40" priority="13">
       <formula>$G16="通貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="9">
+    <cfRule type="expression" dxfId="39" priority="14">
       <formula>$G16="数値"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="10">
+    <cfRule type="expression" dxfId="38" priority="15">
       <formula>$G16="文字列"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:G35">
-    <cfRule type="expression" dxfId="32" priority="11">
+    <cfRule type="expression" dxfId="37" priority="16">
       <formula>$G35="日時"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="12">
+    <cfRule type="expression" dxfId="36" priority="17">
       <formula>$G35="通貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="13">
+    <cfRule type="expression" dxfId="35" priority="18">
       <formula>$G35="数値"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="14">
+    <cfRule type="expression" dxfId="34" priority="19">
       <formula>$G35="文字列"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:G26">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>$G26="日時"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26:G26">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$G26="時間"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$G26="通貨"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>$G26="数値"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>$G26="文字列"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8835,26 +8999,26 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="J9:J19">
-    <cfRule type="expression" dxfId="28" priority="1">
+    <cfRule type="expression" dxfId="33" priority="1">
       <formula>$M9="日時"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:M19 E9:E19">
-    <cfRule type="expression" dxfId="27" priority="3">
+    <cfRule type="expression" dxfId="32" priority="3">
       <formula>$M9="日時"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:M19">
-    <cfRule type="expression" dxfId="26" priority="2">
+    <cfRule type="expression" dxfId="31" priority="2">
       <formula>$M9="時間"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="4">
+    <cfRule type="expression" dxfId="30" priority="4">
       <formula>$M9="通貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="5">
+    <cfRule type="expression" dxfId="29" priority="5">
       <formula>$M9="数値"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="6">
+    <cfRule type="expression" dxfId="28" priority="6">
       <formula>$M9="文字列"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9295,85 +9459,85 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="J7:J9 E7:E17">
-    <cfRule type="expression" dxfId="22" priority="22">
+    <cfRule type="expression" dxfId="27" priority="22">
       <formula>$M7="日時"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:J11">
-    <cfRule type="expression" dxfId="21" priority="24">
+    <cfRule type="expression" dxfId="26" priority="24">
       <formula>$M9="日時"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:J13">
-    <cfRule type="expression" dxfId="20" priority="37">
+    <cfRule type="expression" dxfId="25" priority="37">
       <formula>$M10="日時"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7:M8 P7:P8">
-    <cfRule type="expression" dxfId="19" priority="11">
+    <cfRule type="expression" dxfId="24" priority="11">
       <formula>$G7="時間"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="12">
+    <cfRule type="expression" dxfId="23" priority="12">
       <formula>$G7="日時"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="13">
+    <cfRule type="expression" dxfId="22" priority="13">
       <formula>$G7="通貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="14">
+    <cfRule type="expression" dxfId="21" priority="14">
       <formula>$G7="数値"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="15">
+    <cfRule type="expression" dxfId="20" priority="15">
       <formula>$G7="文字列"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:M10 P9:P10">
-    <cfRule type="expression" dxfId="14" priority="27">
+    <cfRule type="expression" dxfId="19" priority="27">
       <formula>$G10="日時"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="32">
+    <cfRule type="expression" dxfId="18" priority="32">
       <formula>$G10="時間"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="33">
+    <cfRule type="expression" dxfId="17" priority="33">
       <formula>$G10="通貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="34">
+    <cfRule type="expression" dxfId="16" priority="34">
       <formula>$G10="数値"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="35">
+    <cfRule type="expression" dxfId="15" priority="35">
       <formula>$G10="文字列"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:M11">
-    <cfRule type="expression" dxfId="9" priority="39">
+    <cfRule type="expression" dxfId="14" priority="39">
       <formula>$G13="日時"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="45">
+    <cfRule type="expression" dxfId="13" priority="45">
       <formula>$G13="時間"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="46">
+    <cfRule type="expression" dxfId="12" priority="46">
       <formula>$G13="通貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="47">
+    <cfRule type="expression" dxfId="11" priority="47">
       <formula>$G13="数値"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="48">
+    <cfRule type="expression" dxfId="10" priority="48">
       <formula>$G13="文字列"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:M13">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>#REF!="日時"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>#REF!="時間"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>#REF!="通貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>#REF!="数値"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>#REF!="文字列"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11352,42 +11516,38 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C604A4D2-2379-461F-8E6F-B9BFF119B3C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58082E31-8457-4B00-BBBA-1D956EB29F7B}">
   <sheetPr>
-    <tabColor rgb="FF0070C0"/>
+    <tabColor theme="8" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B2:C9"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9">
-        <v>3</v>
+    <row r="1" spans="1:2">
+      <c r="A1" s="39" t="s">
+        <v>470</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="38" t="s">
+        <v>471</v>
+      </c>
+      <c r="B2" s="78">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/作業伝票/◆伝票収支調査/system/伝票確認設計図.xlsx
+++ b/作業伝票/◆伝票収支調査/system/伝票確認設計図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\【Git】ShimodaPrint\作業伝票\◆伝票収支調査\system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3618322-27C6-42BD-AA31-5074D1227865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B95B91-45DF-40F4-880F-5FD987342329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要設計図" sheetId="6" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="498">
   <si>
     <t>数値</t>
   </si>
@@ -3842,6 +3842,246 @@
     <t>人件費</t>
     <rPh sb="0" eb="3">
       <t>ジンケンヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>◆用紙単価計算方法</t>
+    <rPh sb="1" eb="3">
+      <t>ヨウシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>枚単価算出</t>
+    <rPh sb="0" eb="1">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>納品単価</t>
+    <rPh sb="0" eb="2">
+      <t>ノウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キロ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>グラム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>枚</t>
+    <rPh sb="0" eb="1">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入庫枚数</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>マイスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;仕様変更&gt;</t>
+    <rPh sb="1" eb="3">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>断裁tbxから伝票番号をソートして用紙の準備情報を受取る</t>
+    <rPh sb="0" eb="2">
+      <t>ダンサイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>デンヒョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヨウシ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ウケト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>単価に関しては､その用紙IDから単価をGetする</t>
+    <rPh sb="0" eb="2">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヨウシ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そして､準備枚数にかけて価格にする</t>
+    <rPh sb="4" eb="6">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>マイスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>用紙IDは最高値でデータ上設計しておく</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウシ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>サイタカネ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>何かそのほうが安全だと思われる｡</t>
+    <rPh sb="0" eb="1">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>アンゼン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>伝票番号</t>
+    <rPh sb="0" eb="2">
+      <t>デンヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>消費枚数</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>マイスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>◆資材断裁tbx</t>
+    <rPh sb="1" eb="3">
+      <t>シザイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ダンサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>用紙ミス</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>用紙消費枚数</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>マイスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>用紙枚単価</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タンカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4379,41 +4619,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFEFE5F7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -4541,6 +4746,41 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFEFE5F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEFE5F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5944,18 +6184,20 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:Y45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="14.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
         <v>115</v>
       </c>
@@ -5972,93 +6214,36 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1"/>
+    <row r="2" spans="1:25">
       <c r="B2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1"/>
+    </row>
+    <row r="3" spans="1:25">
       <c r="B3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1"/>
+    </row>
+    <row r="5" spans="1:25">
       <c r="B5" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1"/>
+      <c r="N5" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="B6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1"/>
+      <c r="N6" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="B7" s="16" t="s">
         <v>64</v>
       </c>
@@ -6077,15 +6262,8 @@
       <c r="G7" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1"/>
+    </row>
+    <row r="8" spans="1:25">
       <c r="B8" s="5">
         <v>1</v>
       </c>
@@ -6101,14 +6279,44 @@
       <c r="H8" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1"/>
+      <c r="M8" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="S8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="B9" s="5">
         <v>2</v>
       </c>
@@ -6125,15 +6333,14 @@
       <c r="G9" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1"/>
+      <c r="R9" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="S9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="B10" s="5">
         <v>3</v>
       </c>
@@ -6153,14 +6360,14 @@
       <c r="H10" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="1"/>
+      <c r="R10" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="S10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="B11" s="5">
         <v>4</v>
       </c>
@@ -6177,15 +6384,8 @@
       <c r="G11" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="1"/>
+    </row>
+    <row r="12" spans="1:25">
       <c r="B12" s="5">
         <v>5</v>
       </c>
@@ -6202,15 +6402,8 @@
       <c r="G12" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="1"/>
+    </row>
+    <row r="13" spans="1:25">
       <c r="B13" s="5">
         <v>6</v>
       </c>
@@ -6227,14 +6420,8 @@
       <c r="G13" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:13">
+    </row>
+    <row r="14" spans="1:25">
       <c r="B14" s="5">
         <v>7</v>
       </c>
@@ -6252,7 +6439,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:25">
       <c r="B15" s="5">
         <v>8</v>
       </c>
@@ -6270,7 +6457,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:25">
       <c r="B16" s="5">
         <v>9</v>
       </c>
@@ -6389,6 +6576,167 @@
       <c r="E25" s="6"/>
       <c r="F25" s="15"/>
       <c r="G25" s="9"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="5">
+        <v>1</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="5">
+        <v>2</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="5">
+        <v>3</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="27" t="s">
+        <v>496</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="5">
+        <v>4</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="29" t="s">
+        <v>495</v>
+      </c>
+      <c r="G41" s="30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="5">
+        <v>5</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="29" t="s">
+        <v>497</v>
+      </c>
+      <c r="G42" s="30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="G43" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -6985,8 +7333,8 @@
   </sheetPr>
   <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -8471,56 +8819,56 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="E16:G25 E32:G115">
-    <cfRule type="expression" dxfId="42" priority="12">
+  <conditionalFormatting sqref="E16:G26">
+    <cfRule type="expression" dxfId="42" priority="2">
       <formula>$G16="日時"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16:G25 F32:G115">
-    <cfRule type="expression" dxfId="41" priority="11">
+  <conditionalFormatting sqref="E32:G115">
+    <cfRule type="expression" dxfId="41" priority="12">
+      <formula>$G32="日時"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16:G26">
+    <cfRule type="expression" dxfId="40" priority="1">
       <formula>$G16="時間"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="13">
+    <cfRule type="expression" dxfId="39" priority="3">
       <formula>$G16="通貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="14">
+    <cfRule type="expression" dxfId="38" priority="4">
       <formula>$G16="数値"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="15">
+    <cfRule type="expression" dxfId="37" priority="5">
       <formula>$G16="文字列"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F32:G115">
+    <cfRule type="expression" dxfId="36" priority="11">
+      <formula>$G32="時間"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="13">
+      <formula>$G32="通貨"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="14">
+      <formula>$G32="数値"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="15">
+      <formula>$G32="文字列"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F35:G35">
-    <cfRule type="expression" dxfId="37" priority="16">
+    <cfRule type="expression" dxfId="32" priority="16">
       <formula>$G35="日時"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="17">
+    <cfRule type="expression" dxfId="31" priority="17">
       <formula>$G35="通貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="18">
+    <cfRule type="expression" dxfId="30" priority="18">
       <formula>$G35="数値"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="19">
+    <cfRule type="expression" dxfId="29" priority="19">
       <formula>$G35="文字列"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26:G26">
-    <cfRule type="expression" dxfId="4" priority="2">
-      <formula>$G26="日時"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26:G26">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>$G26="時間"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$G26="通貨"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
-      <formula>$G26="数値"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="5">
-      <formula>$G26="文字列"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8534,8 +8882,8 @@
   </sheetPr>
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -8999,26 +9347,26 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="J9:J19">
-    <cfRule type="expression" dxfId="33" priority="1">
+    <cfRule type="expression" dxfId="28" priority="1">
       <formula>$M9="日時"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:M19 E9:E19">
-    <cfRule type="expression" dxfId="32" priority="3">
+    <cfRule type="expression" dxfId="27" priority="3">
       <formula>$M9="日時"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:M19">
-    <cfRule type="expression" dxfId="31" priority="2">
+    <cfRule type="expression" dxfId="26" priority="2">
       <formula>$M9="時間"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="4">
+    <cfRule type="expression" dxfId="25" priority="4">
       <formula>$M9="通貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="5">
+    <cfRule type="expression" dxfId="24" priority="5">
       <formula>$M9="数値"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="6">
+    <cfRule type="expression" dxfId="23" priority="6">
       <formula>$M9="文字列"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9459,85 +9807,85 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="J7:J9 E7:E17">
-    <cfRule type="expression" dxfId="27" priority="22">
+    <cfRule type="expression" dxfId="22" priority="22">
       <formula>$M7="日時"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:J11">
-    <cfRule type="expression" dxfId="26" priority="24">
+    <cfRule type="expression" dxfId="21" priority="24">
       <formula>$M9="日時"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:J13">
-    <cfRule type="expression" dxfId="25" priority="37">
+    <cfRule type="expression" dxfId="20" priority="37">
       <formula>$M10="日時"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7:M8 P7:P8">
-    <cfRule type="expression" dxfId="24" priority="11">
+    <cfRule type="expression" dxfId="19" priority="11">
       <formula>$G7="時間"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="12">
+    <cfRule type="expression" dxfId="18" priority="12">
       <formula>$G7="日時"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="13">
+    <cfRule type="expression" dxfId="17" priority="13">
       <formula>$G7="通貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="14">
+    <cfRule type="expression" dxfId="16" priority="14">
       <formula>$G7="数値"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="15">
+    <cfRule type="expression" dxfId="15" priority="15">
       <formula>$G7="文字列"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:M10 P9:P10">
-    <cfRule type="expression" dxfId="19" priority="27">
+    <cfRule type="expression" dxfId="14" priority="27">
       <formula>$G10="日時"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="32">
+    <cfRule type="expression" dxfId="13" priority="32">
       <formula>$G10="時間"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="33">
+    <cfRule type="expression" dxfId="12" priority="33">
       <formula>$G10="通貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="34">
+    <cfRule type="expression" dxfId="11" priority="34">
       <formula>$G10="数値"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="35">
+    <cfRule type="expression" dxfId="10" priority="35">
       <formula>$G10="文字列"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:M11">
-    <cfRule type="expression" dxfId="14" priority="39">
+    <cfRule type="expression" dxfId="9" priority="39">
       <formula>$G13="日時"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="45">
+    <cfRule type="expression" dxfId="8" priority="45">
       <formula>$G13="時間"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="46">
+    <cfRule type="expression" dxfId="7" priority="46">
       <formula>$G13="通貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="47">
+    <cfRule type="expression" dxfId="6" priority="47">
       <formula>$G13="数値"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="48">
+    <cfRule type="expression" dxfId="5" priority="48">
       <formula>$G13="文字列"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:M13">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>#REF!="日時"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>#REF!="時間"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>#REF!="通貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>#REF!="数値"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>#REF!="文字列"</formula>
     </cfRule>
   </conditionalFormatting>
